--- a/Data-Science-Specializations/Data-Science-Specializations.xlsx
+++ b/Data-Science-Specializations/Data-Science-Specializations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF08627-5659-4E34-8606-D19D725A16E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FDC2B0-C44D-4A6B-AE9C-FFBDA8671597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="1990">
   <si>
     <t>Specialization Name</t>
   </si>
@@ -5988,6 +5988,12 @@
   </si>
   <si>
     <t>Seasonality, SARIMA, Forecasting</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/professional-certificates/ibm-data-analyst-r-excel</t>
+  </si>
+  <si>
+    <t>IBM Data Analytics with Excel and R Professional Certificate</t>
   </si>
 </sst>
 </file>
@@ -6337,12 +6343,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6352,7 +6352,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6364,20 +6370,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7414,7 +7420,7 @@
       <c r="A39" s="43" t="s">
         <v>1604</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="52" t="s">
         <v>1605</v>
       </c>
       <c r="C39" s="43">
@@ -7442,7 +7448,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
-      <c r="B40" s="55"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="47"/>
@@ -7458,7 +7464,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
-      <c r="B41" s="55"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="47"/>
@@ -7474,7 +7480,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
-      <c r="B42" s="55"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="47"/>
@@ -7490,7 +7496,7 @@
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="47"/>
@@ -7506,7 +7512,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
-      <c r="B44" s="55"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="44"/>
       <c r="D44" s="43" t="s">
         <v>1233</v>
@@ -7530,7 +7536,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="47"/>
@@ -7546,7 +7552,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="47"/>
@@ -7562,7 +7568,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" s="55"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="47"/>
@@ -7578,7 +7584,7 @@
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="47"/>
@@ -7594,7 +7600,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="44"/>
       <c r="D49" s="43" t="s">
         <v>1234</v>
@@ -7618,7 +7624,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="47"/>
@@ -7634,7 +7640,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="47"/>
@@ -7650,7 +7656,7 @@
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="45"/>
-      <c r="B52" s="56"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="45"/>
       <c r="D52" s="44"/>
       <c r="E52" s="47"/>
@@ -8938,7 +8944,7 @@
       <c r="A123" s="43" t="s">
         <v>1613</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="52" t="s">
         <v>1614</v>
       </c>
       <c r="C123" s="43">
@@ -8966,7 +8972,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="44"/>
-      <c r="B124" s="55"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
       <c r="E124" s="47"/>
@@ -8982,7 +8988,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="44"/>
-      <c r="B125" s="55"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
       <c r="E125" s="47"/>
@@ -8998,7 +9004,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="44"/>
-      <c r="B126" s="55"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
       <c r="E126" s="47"/>
@@ -9014,7 +9020,7 @@
     </row>
     <row r="127" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="44"/>
-      <c r="B127" s="55"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
       <c r="E127" s="47"/>
@@ -9030,7 +9036,7 @@
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
-      <c r="B128" s="55"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="44"/>
       <c r="D128" s="43" t="s">
         <v>1252</v>
@@ -9054,7 +9060,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="44"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
       <c r="E129" s="47"/>
@@ -9070,7 +9076,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="44"/>
-      <c r="B130" s="55"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
       <c r="E130" s="47"/>
@@ -9086,7 +9092,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="44"/>
-      <c r="B131" s="55"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
       <c r="E131" s="47"/>
@@ -9102,7 +9108,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="44"/>
-      <c r="B132" s="55"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
       <c r="E132" s="47"/>
@@ -9118,7 +9124,7 @@
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
-      <c r="B133" s="55"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="44"/>
       <c r="D133" s="43" t="s">
         <v>1615</v>
@@ -9142,7 +9148,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="44"/>
-      <c r="B134" s="55"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
       <c r="E134" s="47"/>
@@ -9158,7 +9164,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="44"/>
-      <c r="B135" s="55"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
       <c r="E135" s="47"/>
@@ -9174,7 +9180,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="44"/>
-      <c r="B136" s="55"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
       <c r="E136" s="47"/>
@@ -9190,7 +9196,7 @@
     </row>
     <row r="137" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="45"/>
-      <c r="B137" s="56"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="45"/>
       <c r="D137" s="44"/>
       <c r="E137" s="47"/>
@@ -9208,7 +9214,7 @@
       <c r="A138" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="52" t="s">
         <v>695</v>
       </c>
       <c r="C138" s="43">
@@ -9236,7 +9242,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="44"/>
-      <c r="B139" s="55"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
       <c r="E139" s="47"/>
@@ -9252,7 +9258,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="44"/>
-      <c r="B140" s="55"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
       <c r="E140" s="47"/>
@@ -9268,7 +9274,7 @@
     </row>
     <row r="141" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="44"/>
-      <c r="B141" s="55"/>
+      <c r="B141" s="53"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
       <c r="E141" s="47"/>
@@ -9284,7 +9290,7 @@
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="44"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="44"/>
       <c r="D142" s="43" t="s">
         <v>698</v>
@@ -9308,7 +9314,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="44"/>
-      <c r="B143" s="55"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
       <c r="E143" s="47"/>
@@ -9324,7 +9330,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="44"/>
-      <c r="B144" s="55"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
       <c r="E144" s="47"/>
@@ -9340,7 +9346,7 @@
     </row>
     <row r="145" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="44"/>
-      <c r="B145" s="55"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
       <c r="E145" s="47"/>
@@ -9356,7 +9362,7 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="44"/>
-      <c r="B146" s="55"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="44"/>
       <c r="D146" s="43" t="s">
         <v>699</v>
@@ -9380,7 +9386,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="44"/>
-      <c r="B147" s="55"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
       <c r="E147" s="47"/>
@@ -9396,7 +9402,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="44"/>
-      <c r="B148" s="55"/>
+      <c r="B148" s="53"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
       <c r="E148" s="47"/>
@@ -9412,7 +9418,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="44"/>
-      <c r="B149" s="55"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
       <c r="E149" s="47"/>
@@ -9428,7 +9434,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="44"/>
-      <c r="B150" s="55"/>
+      <c r="B150" s="53"/>
       <c r="C150" s="44"/>
       <c r="D150" s="43" t="s">
         <v>700</v>
@@ -9452,7 +9458,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="44"/>
-      <c r="B151" s="55"/>
+      <c r="B151" s="53"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44"/>
       <c r="E151" s="47"/>
@@ -9468,7 +9474,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="44"/>
-      <c r="B152" s="55"/>
+      <c r="B152" s="53"/>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
       <c r="E152" s="47"/>
@@ -9484,7 +9490,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="44"/>
-      <c r="B153" s="55"/>
+      <c r="B153" s="53"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44"/>
       <c r="E153" s="47"/>
@@ -9500,7 +9506,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="44"/>
-      <c r="B154" s="55"/>
+      <c r="B154" s="53"/>
       <c r="C154" s="44"/>
       <c r="D154" s="43" t="s">
         <v>701</v>
@@ -9524,7 +9530,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="44"/>
-      <c r="B155" s="55"/>
+      <c r="B155" s="53"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
       <c r="E155" s="47"/>
@@ -9540,7 +9546,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="44"/>
-      <c r="B156" s="55"/>
+      <c r="B156" s="53"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
       <c r="E156" s="47"/>
@@ -9556,7 +9562,7 @@
     </row>
     <row r="157" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="44"/>
-      <c r="B157" s="55"/>
+      <c r="B157" s="53"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
       <c r="E157" s="47"/>
@@ -9589,7 +9595,7 @@
       <c r="F158" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G158" s="52" t="s">
+      <c r="G158" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H158" s="40" t="s">
@@ -9607,7 +9613,7 @@
       <c r="D159" s="44"/>
       <c r="E159" s="47"/>
       <c r="F159" s="44"/>
-      <c r="G159" s="53"/>
+      <c r="G159" s="55"/>
       <c r="H159" s="42" t="s">
         <v>1262</v>
       </c>
@@ -9669,7 +9675,7 @@
       <c r="D163" s="44"/>
       <c r="E163" s="47"/>
       <c r="F163" s="44"/>
-      <c r="G163" s="53" t="s">
+      <c r="G163" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H163" s="42" t="s">
@@ -9685,7 +9691,7 @@
       <c r="D164" s="44"/>
       <c r="E164" s="47"/>
       <c r="F164" s="44"/>
-      <c r="G164" s="57"/>
+      <c r="G164" s="56"/>
       <c r="H164" s="42" t="s">
         <v>1267</v>
       </c>
@@ -9705,7 +9711,7 @@
       <c r="F165" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G165" s="52" t="s">
+      <c r="G165" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H165" s="40" t="s">
@@ -9723,7 +9729,7 @@
       <c r="D166" s="44"/>
       <c r="E166" s="47"/>
       <c r="F166" s="44"/>
-      <c r="G166" s="53"/>
+      <c r="G166" s="55"/>
       <c r="H166" s="42" t="s">
         <v>1270</v>
       </c>
@@ -9785,7 +9791,7 @@
       <c r="D170" s="44"/>
       <c r="E170" s="47"/>
       <c r="F170" s="44"/>
-      <c r="G170" s="53" t="s">
+      <c r="G170" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H170" s="42" t="s">
@@ -9801,7 +9807,7 @@
       <c r="D171" s="44"/>
       <c r="E171" s="47"/>
       <c r="F171" s="44"/>
-      <c r="G171" s="57"/>
+      <c r="G171" s="56"/>
       <c r="H171" s="42" t="s">
         <v>1267</v>
       </c>
@@ -9821,7 +9827,7 @@
       <c r="F172" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G172" s="52" t="s">
+      <c r="G172" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H172" s="40" t="s">
@@ -9839,7 +9845,7 @@
       <c r="D173" s="44"/>
       <c r="E173" s="47"/>
       <c r="F173" s="44"/>
-      <c r="G173" s="53"/>
+      <c r="G173" s="55"/>
       <c r="H173" s="42" t="s">
         <v>1628</v>
       </c>
@@ -9898,7 +9904,7 @@
       <c r="A177" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="52" t="s">
         <v>780</v>
       </c>
       <c r="C177" s="43">
@@ -9926,7 +9932,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="44"/>
-      <c r="B178" s="55"/>
+      <c r="B178" s="53"/>
       <c r="C178" s="44"/>
       <c r="D178" s="44"/>
       <c r="E178" s="47"/>
@@ -9942,7 +9948,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="44"/>
-      <c r="B179" s="55"/>
+      <c r="B179" s="53"/>
       <c r="C179" s="44"/>
       <c r="D179" s="44"/>
       <c r="E179" s="47"/>
@@ -9958,7 +9964,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="44"/>
-      <c r="B180" s="55"/>
+      <c r="B180" s="53"/>
       <c r="C180" s="44"/>
       <c r="D180" s="44"/>
       <c r="E180" s="47"/>
@@ -9974,7 +9980,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="44"/>
-      <c r="B181" s="55"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="44"/>
       <c r="D181" s="44"/>
       <c r="E181" s="47"/>
@@ -9990,12 +9996,12 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="44"/>
-      <c r="B182" s="55"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="44"/>
       <c r="D182" s="44"/>
       <c r="E182" s="47"/>
       <c r="F182" s="44"/>
-      <c r="G182" s="53" t="s">
+      <c r="G182" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H182" s="42" t="s">
@@ -10006,12 +10012,12 @@
     </row>
     <row r="183" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="44"/>
-      <c r="B183" s="55"/>
+      <c r="B183" s="53"/>
       <c r="C183" s="44"/>
       <c r="D183" s="44"/>
       <c r="E183" s="47"/>
       <c r="F183" s="44"/>
-      <c r="G183" s="57"/>
+      <c r="G183" s="56"/>
       <c r="H183" s="42" t="s">
         <v>788</v>
       </c>
@@ -10020,7 +10026,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="44"/>
-      <c r="B184" s="55"/>
+      <c r="B184" s="53"/>
       <c r="C184" s="44"/>
       <c r="D184" s="43" t="s">
         <v>783</v>
@@ -10044,7 +10050,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="44"/>
-      <c r="B185" s="55"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="44"/>
       <c r="D185" s="44"/>
       <c r="E185" s="47"/>
@@ -10060,7 +10066,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="44"/>
-      <c r="B186" s="55"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="44"/>
       <c r="D186" s="44"/>
       <c r="E186" s="47"/>
@@ -10076,7 +10082,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="44"/>
-      <c r="B187" s="55"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="44"/>
       <c r="D187" s="44"/>
       <c r="E187" s="47"/>
@@ -10092,7 +10098,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="44"/>
-      <c r="B188" s="55"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="44"/>
       <c r="D188" s="44"/>
       <c r="E188" s="47"/>
@@ -10108,12 +10114,12 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="44"/>
-      <c r="B189" s="55"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="44"/>
       <c r="D189" s="44"/>
       <c r="E189" s="47"/>
       <c r="F189" s="44"/>
-      <c r="G189" s="53" t="s">
+      <c r="G189" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H189" s="42" t="s">
@@ -10124,12 +10130,12 @@
     </row>
     <row r="190" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="44"/>
-      <c r="B190" s="55"/>
+      <c r="B190" s="53"/>
       <c r="C190" s="44"/>
       <c r="D190" s="44"/>
       <c r="E190" s="47"/>
       <c r="F190" s="44"/>
-      <c r="G190" s="57"/>
+      <c r="G190" s="56"/>
       <c r="H190" s="42" t="s">
         <v>788</v>
       </c>
@@ -10138,7 +10144,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="44"/>
-      <c r="B191" s="55"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="44"/>
       <c r="D191" s="43" t="s">
         <v>784</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="44"/>
-      <c r="B192" s="55"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
       <c r="E192" s="47"/>
@@ -10178,7 +10184,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="44"/>
-      <c r="B193" s="55"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
       <c r="E193" s="47"/>
@@ -10194,7 +10200,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="44"/>
-      <c r="B194" s="55"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
       <c r="E194" s="47"/>
@@ -10210,7 +10216,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="44"/>
-      <c r="B195" s="55"/>
+      <c r="B195" s="53"/>
       <c r="C195" s="44"/>
       <c r="D195" s="44"/>
       <c r="E195" s="47"/>
@@ -10226,12 +10232,12 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="44"/>
-      <c r="B196" s="55"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="44"/>
       <c r="D196" s="44"/>
       <c r="E196" s="47"/>
       <c r="F196" s="44"/>
-      <c r="G196" s="53" t="s">
+      <c r="G196" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H196" s="42" t="s">
@@ -10242,12 +10248,12 @@
     </row>
     <row r="197" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="44"/>
-      <c r="B197" s="55"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="44"/>
       <c r="D197" s="44"/>
       <c r="E197" s="47"/>
       <c r="F197" s="44"/>
-      <c r="G197" s="57"/>
+      <c r="G197" s="56"/>
       <c r="H197" s="42" t="s">
         <v>788</v>
       </c>
@@ -10256,7 +10262,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="44"/>
-      <c r="B198" s="55"/>
+      <c r="B198" s="53"/>
       <c r="C198" s="44"/>
       <c r="D198" s="43" t="s">
         <v>785</v>
@@ -10280,7 +10286,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="44"/>
-      <c r="B199" s="55"/>
+      <c r="B199" s="53"/>
       <c r="C199" s="44"/>
       <c r="D199" s="44"/>
       <c r="E199" s="47"/>
@@ -10296,7 +10302,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="44"/>
-      <c r="B200" s="55"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="44"/>
       <c r="D200" s="44"/>
       <c r="E200" s="47"/>
@@ -10312,7 +10318,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="44"/>
-      <c r="B201" s="55"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="44"/>
       <c r="D201" s="44"/>
       <c r="E201" s="47"/>
@@ -10328,7 +10334,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="44"/>
-      <c r="B202" s="55"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="44"/>
       <c r="D202" s="44"/>
       <c r="E202" s="47"/>
@@ -10344,12 +10350,12 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="44"/>
-      <c r="B203" s="55"/>
+      <c r="B203" s="53"/>
       <c r="C203" s="44"/>
       <c r="D203" s="44"/>
       <c r="E203" s="47"/>
       <c r="F203" s="44"/>
-      <c r="G203" s="53" t="s">
+      <c r="G203" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H203" s="42" t="s">
@@ -10360,12 +10366,12 @@
     </row>
     <row r="204" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="45"/>
-      <c r="B204" s="56"/>
+      <c r="B204" s="54"/>
       <c r="C204" s="45"/>
       <c r="D204" s="44"/>
       <c r="E204" s="47"/>
       <c r="F204" s="44"/>
-      <c r="G204" s="57"/>
+      <c r="G204" s="56"/>
       <c r="H204" s="42" t="s">
         <v>788</v>
       </c>
@@ -10376,7 +10382,7 @@
       <c r="A205" s="43" t="s">
         <v>1632</v>
       </c>
-      <c r="B205" s="54" t="s">
+      <c r="B205" s="52" t="s">
         <v>1633</v>
       </c>
       <c r="C205" s="43">
@@ -10391,7 +10397,7 @@
       <c r="F205" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G205" s="52" t="s">
+      <c r="G205" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H205" s="40" t="s">
@@ -10404,12 +10410,12 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="44"/>
-      <c r="B206" s="55"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="44"/>
       <c r="D206" s="44"/>
       <c r="E206" s="47"/>
       <c r="F206" s="44"/>
-      <c r="G206" s="53"/>
+      <c r="G206" s="55"/>
       <c r="H206" s="42" t="s">
         <v>1637</v>
       </c>
@@ -10418,7 +10424,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="44"/>
-      <c r="B207" s="55"/>
+      <c r="B207" s="53"/>
       <c r="C207" s="44"/>
       <c r="D207" s="44"/>
       <c r="E207" s="47"/>
@@ -10434,7 +10440,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="44"/>
-      <c r="B208" s="55"/>
+      <c r="B208" s="53"/>
       <c r="C208" s="44"/>
       <c r="D208" s="44"/>
       <c r="E208" s="47"/>
@@ -10450,7 +10456,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="44"/>
-      <c r="B209" s="55"/>
+      <c r="B209" s="53"/>
       <c r="C209" s="44"/>
       <c r="D209" s="44"/>
       <c r="E209" s="47"/>
@@ -10466,7 +10472,7 @@
     </row>
     <row r="210" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="44"/>
-      <c r="B210" s="55"/>
+      <c r="B210" s="53"/>
       <c r="C210" s="44"/>
       <c r="D210" s="44"/>
       <c r="E210" s="47"/>
@@ -10482,7 +10488,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="44"/>
-      <c r="B211" s="55"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="44"/>
       <c r="D211" s="43" t="s">
         <v>1642</v>
@@ -10493,7 +10499,7 @@
       <c r="F211" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G211" s="52" t="s">
+      <c r="G211" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H211" s="40" t="s">
@@ -10506,12 +10512,12 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="44"/>
-      <c r="B212" s="55"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="44"/>
       <c r="D212" s="44"/>
       <c r="E212" s="47"/>
       <c r="F212" s="44"/>
-      <c r="G212" s="53"/>
+      <c r="G212" s="55"/>
       <c r="H212" s="42" t="s">
         <v>479</v>
       </c>
@@ -10520,7 +10526,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="44"/>
-      <c r="B213" s="55"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="44"/>
       <c r="D213" s="44"/>
       <c r="E213" s="47"/>
@@ -10536,7 +10542,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="44"/>
-      <c r="B214" s="55"/>
+      <c r="B214" s="53"/>
       <c r="C214" s="44"/>
       <c r="D214" s="44"/>
       <c r="E214" s="47"/>
@@ -10552,7 +10558,7 @@
     </row>
     <row r="215" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="44"/>
-      <c r="B215" s="55"/>
+      <c r="B215" s="53"/>
       <c r="C215" s="44"/>
       <c r="D215" s="44"/>
       <c r="E215" s="47"/>
@@ -10568,7 +10574,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="44"/>
-      <c r="B216" s="55"/>
+      <c r="B216" s="53"/>
       <c r="C216" s="44"/>
       <c r="D216" s="43" t="s">
         <v>1647</v>
@@ -10579,7 +10585,7 @@
       <c r="F216" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G216" s="52" t="s">
+      <c r="G216" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H216" s="40" t="s">
@@ -10592,12 +10598,12 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="44"/>
-      <c r="B217" s="55"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="44"/>
       <c r="D217" s="44"/>
       <c r="E217" s="47"/>
       <c r="F217" s="44"/>
-      <c r="G217" s="53"/>
+      <c r="G217" s="55"/>
       <c r="H217" s="42" t="s">
         <v>1649</v>
       </c>
@@ -10606,7 +10612,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="44"/>
-      <c r="B218" s="55"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="44"/>
       <c r="D218" s="44"/>
       <c r="E218" s="47"/>
@@ -10622,7 +10628,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="44"/>
-      <c r="B219" s="55"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="44"/>
       <c r="D219" s="44"/>
       <c r="E219" s="47"/>
@@ -10638,7 +10644,7 @@
     </row>
     <row r="220" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="45"/>
-      <c r="B220" s="56"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="45"/>
       <c r="D220" s="44"/>
       <c r="E220" s="47"/>
@@ -10721,7 +10727,7 @@
       <c r="D224" s="44"/>
       <c r="E224" s="47"/>
       <c r="F224" s="44"/>
-      <c r="G224" s="53" t="s">
+      <c r="G224" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H224" s="42" t="s">
@@ -10737,7 +10743,7 @@
       <c r="D225" s="45"/>
       <c r="E225" s="48"/>
       <c r="F225" s="45"/>
-      <c r="G225" s="57"/>
+      <c r="G225" s="56"/>
       <c r="H225" s="41" t="s">
         <v>1042</v>
       </c>
@@ -11036,7 +11042,7 @@
       <c r="A242" s="43" t="s">
         <v>1653</v>
       </c>
-      <c r="B242" s="54" t="s">
+      <c r="B242" s="52" t="s">
         <v>1654</v>
       </c>
       <c r="C242" s="43">
@@ -11051,7 +11057,7 @@
       <c r="F242" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G242" s="52" t="s">
+      <c r="G242" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H242" s="40" t="s">
@@ -11064,12 +11070,12 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="44"/>
-      <c r="B243" s="55"/>
+      <c r="B243" s="53"/>
       <c r="C243" s="44"/>
       <c r="D243" s="44"/>
       <c r="E243" s="47"/>
       <c r="F243" s="44"/>
-      <c r="G243" s="53"/>
+      <c r="G243" s="55"/>
       <c r="H243" s="42" t="s">
         <v>1658</v>
       </c>
@@ -11078,7 +11084,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="44"/>
-      <c r="B244" s="55"/>
+      <c r="B244" s="53"/>
       <c r="C244" s="44"/>
       <c r="D244" s="44"/>
       <c r="E244" s="47"/>
@@ -11094,7 +11100,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="44"/>
-      <c r="B245" s="55"/>
+      <c r="B245" s="53"/>
       <c r="C245" s="44"/>
       <c r="D245" s="44"/>
       <c r="E245" s="47"/>
@@ -11110,7 +11116,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="44"/>
-      <c r="B246" s="55"/>
+      <c r="B246" s="53"/>
       <c r="C246" s="44"/>
       <c r="D246" s="44"/>
       <c r="E246" s="47"/>
@@ -11126,7 +11132,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="44"/>
-      <c r="B247" s="55"/>
+      <c r="B247" s="53"/>
       <c r="C247" s="44"/>
       <c r="D247" s="44"/>
       <c r="E247" s="47"/>
@@ -11142,7 +11148,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="44"/>
-      <c r="B248" s="55"/>
+      <c r="B248" s="53"/>
       <c r="C248" s="44"/>
       <c r="D248" s="44"/>
       <c r="E248" s="47"/>
@@ -11158,7 +11164,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="44"/>
-      <c r="B249" s="55"/>
+      <c r="B249" s="53"/>
       <c r="C249" s="44"/>
       <c r="D249" s="44"/>
       <c r="E249" s="47"/>
@@ -11174,7 +11180,7 @@
     </row>
     <row r="250" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="44"/>
-      <c r="B250" s="55"/>
+      <c r="B250" s="53"/>
       <c r="C250" s="44"/>
       <c r="D250" s="44"/>
       <c r="E250" s="47"/>
@@ -11190,7 +11196,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="44"/>
-      <c r="B251" s="55"/>
+      <c r="B251" s="53"/>
       <c r="C251" s="44"/>
       <c r="D251" s="43" t="s">
         <v>1666</v>
@@ -11201,7 +11207,7 @@
       <c r="F251" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G251" s="52" t="s">
+      <c r="G251" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H251" s="40" t="s">
@@ -11214,12 +11220,12 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="44"/>
-      <c r="B252" s="55"/>
+      <c r="B252" s="53"/>
       <c r="C252" s="44"/>
       <c r="D252" s="44"/>
       <c r="E252" s="47"/>
       <c r="F252" s="44"/>
-      <c r="G252" s="53"/>
+      <c r="G252" s="55"/>
       <c r="H252" s="42" t="s">
         <v>1668</v>
       </c>
@@ -11228,7 +11234,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="44"/>
-      <c r="B253" s="55"/>
+      <c r="B253" s="53"/>
       <c r="C253" s="44"/>
       <c r="D253" s="44"/>
       <c r="E253" s="47"/>
@@ -11244,7 +11250,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="44"/>
-      <c r="B254" s="55"/>
+      <c r="B254" s="53"/>
       <c r="C254" s="44"/>
       <c r="D254" s="44"/>
       <c r="E254" s="47"/>
@@ -11260,7 +11266,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="44"/>
-      <c r="B255" s="55"/>
+      <c r="B255" s="53"/>
       <c r="C255" s="44"/>
       <c r="D255" s="44"/>
       <c r="E255" s="47"/>
@@ -11276,7 +11282,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="44"/>
-      <c r="B256" s="55"/>
+      <c r="B256" s="53"/>
       <c r="C256" s="44"/>
       <c r="D256" s="44"/>
       <c r="E256" s="47"/>
@@ -11292,7 +11298,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="44"/>
-      <c r="B257" s="55"/>
+      <c r="B257" s="53"/>
       <c r="C257" s="44"/>
       <c r="D257" s="44"/>
       <c r="E257" s="47"/>
@@ -11308,7 +11314,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="44"/>
-      <c r="B258" s="55"/>
+      <c r="B258" s="53"/>
       <c r="C258" s="44"/>
       <c r="D258" s="44"/>
       <c r="E258" s="47"/>
@@ -11324,7 +11330,7 @@
     </row>
     <row r="259" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="44"/>
-      <c r="B259" s="55"/>
+      <c r="B259" s="53"/>
       <c r="C259" s="44"/>
       <c r="D259" s="44"/>
       <c r="E259" s="47"/>
@@ -11340,7 +11346,7 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="44"/>
-      <c r="B260" s="55"/>
+      <c r="B260" s="53"/>
       <c r="C260" s="44"/>
       <c r="D260" s="43" t="s">
         <v>1676</v>
@@ -11351,7 +11357,7 @@
       <c r="F260" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G260" s="52" t="s">
+      <c r="G260" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H260" s="40" t="s">
@@ -11364,12 +11370,12 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="44"/>
-      <c r="B261" s="55"/>
+      <c r="B261" s="53"/>
       <c r="C261" s="44"/>
       <c r="D261" s="44"/>
       <c r="E261" s="47"/>
       <c r="F261" s="44"/>
-      <c r="G261" s="53"/>
+      <c r="G261" s="55"/>
       <c r="H261" s="42" t="s">
         <v>1678</v>
       </c>
@@ -11378,7 +11384,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="44"/>
-      <c r="B262" s="55"/>
+      <c r="B262" s="53"/>
       <c r="C262" s="44"/>
       <c r="D262" s="44"/>
       <c r="E262" s="47"/>
@@ -11394,7 +11400,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="44"/>
-      <c r="B263" s="55"/>
+      <c r="B263" s="53"/>
       <c r="C263" s="44"/>
       <c r="D263" s="44"/>
       <c r="E263" s="47"/>
@@ -11410,7 +11416,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="44"/>
-      <c r="B264" s="55"/>
+      <c r="B264" s="53"/>
       <c r="C264" s="44"/>
       <c r="D264" s="44"/>
       <c r="E264" s="47"/>
@@ -11426,7 +11432,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="44"/>
-      <c r="B265" s="55"/>
+      <c r="B265" s="53"/>
       <c r="C265" s="44"/>
       <c r="D265" s="44"/>
       <c r="E265" s="47"/>
@@ -11442,7 +11448,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="44"/>
-      <c r="B266" s="55"/>
+      <c r="B266" s="53"/>
       <c r="C266" s="44"/>
       <c r="D266" s="44"/>
       <c r="E266" s="47"/>
@@ -11458,7 +11464,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="44"/>
-      <c r="B267" s="55"/>
+      <c r="B267" s="53"/>
       <c r="C267" s="44"/>
       <c r="D267" s="44"/>
       <c r="E267" s="47"/>
@@ -11474,7 +11480,7 @@
     </row>
     <row r="268" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="44"/>
-      <c r="B268" s="55"/>
+      <c r="B268" s="53"/>
       <c r="C268" s="44"/>
       <c r="D268" s="44"/>
       <c r="E268" s="47"/>
@@ -11490,7 +11496,7 @@
     </row>
     <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="44"/>
-      <c r="B269" s="55"/>
+      <c r="B269" s="53"/>
       <c r="C269" s="44"/>
       <c r="D269" s="43" t="s">
         <v>1686</v>
@@ -11514,7 +11520,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="44"/>
-      <c r="B270" s="55"/>
+      <c r="B270" s="53"/>
       <c r="C270" s="44"/>
       <c r="D270" s="44"/>
       <c r="E270" s="47"/>
@@ -11530,7 +11536,7 @@
     </row>
     <row r="271" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="45"/>
-      <c r="B271" s="56"/>
+      <c r="B271" s="54"/>
       <c r="C271" s="45"/>
       <c r="D271" s="45"/>
       <c r="E271" s="48"/>
@@ -12466,6 +12472,377 @@
     </row>
   </sheetData>
   <mergeCells count="395">
+    <mergeCell ref="A300:A315"/>
+    <mergeCell ref="B300:B315"/>
+    <mergeCell ref="C300:C315"/>
+    <mergeCell ref="D300:D303"/>
+    <mergeCell ref="E300:E303"/>
+    <mergeCell ref="F300:F303"/>
+    <mergeCell ref="I300:I303"/>
+    <mergeCell ref="J300:J303"/>
+    <mergeCell ref="D312:D315"/>
+    <mergeCell ref="E312:E315"/>
+    <mergeCell ref="F312:F315"/>
+    <mergeCell ref="I312:I315"/>
+    <mergeCell ref="J312:J315"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="E304:E307"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="I304:I307"/>
+    <mergeCell ref="J304:J307"/>
+    <mergeCell ref="D308:D311"/>
+    <mergeCell ref="E308:E311"/>
+    <mergeCell ref="F308:F311"/>
+    <mergeCell ref="I308:I311"/>
+    <mergeCell ref="J308:J311"/>
+    <mergeCell ref="I288:I291"/>
+    <mergeCell ref="J288:J291"/>
+    <mergeCell ref="D292:D295"/>
+    <mergeCell ref="E292:E295"/>
+    <mergeCell ref="F292:F295"/>
+    <mergeCell ref="I292:I295"/>
+    <mergeCell ref="J292:J295"/>
+    <mergeCell ref="A288:A299"/>
+    <mergeCell ref="B288:B299"/>
+    <mergeCell ref="C288:C299"/>
+    <mergeCell ref="D288:D291"/>
+    <mergeCell ref="E288:E291"/>
+    <mergeCell ref="F288:F291"/>
+    <mergeCell ref="D296:D299"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="F296:F299"/>
+    <mergeCell ref="I296:I299"/>
+    <mergeCell ref="J296:J299"/>
+    <mergeCell ref="E280:E283"/>
+    <mergeCell ref="F280:F283"/>
+    <mergeCell ref="I280:I283"/>
+    <mergeCell ref="J280:J283"/>
+    <mergeCell ref="D284:D287"/>
+    <mergeCell ref="E284:E287"/>
+    <mergeCell ref="F284:F287"/>
+    <mergeCell ref="I284:I287"/>
+    <mergeCell ref="J284:J287"/>
+    <mergeCell ref="J251:J259"/>
+    <mergeCell ref="A272:A287"/>
+    <mergeCell ref="B272:B287"/>
+    <mergeCell ref="C272:C287"/>
+    <mergeCell ref="D272:D275"/>
+    <mergeCell ref="E272:E275"/>
+    <mergeCell ref="D260:D268"/>
+    <mergeCell ref="E260:E268"/>
+    <mergeCell ref="F260:F268"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="F272:F275"/>
+    <mergeCell ref="I272:I275"/>
+    <mergeCell ref="J272:J275"/>
+    <mergeCell ref="D276:D279"/>
+    <mergeCell ref="E276:E279"/>
+    <mergeCell ref="F276:F279"/>
+    <mergeCell ref="I276:I279"/>
+    <mergeCell ref="J276:J279"/>
+    <mergeCell ref="D269:D271"/>
+    <mergeCell ref="E269:E271"/>
+    <mergeCell ref="F269:F271"/>
+    <mergeCell ref="I269:I271"/>
+    <mergeCell ref="J269:J271"/>
+    <mergeCell ref="D280:D283"/>
+    <mergeCell ref="D238:D241"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="F238:F241"/>
+    <mergeCell ref="I238:I241"/>
+    <mergeCell ref="J238:J241"/>
+    <mergeCell ref="A242:A271"/>
+    <mergeCell ref="B242:B271"/>
+    <mergeCell ref="C242:C271"/>
+    <mergeCell ref="D242:D250"/>
+    <mergeCell ref="E242:E250"/>
+    <mergeCell ref="A221:A241"/>
+    <mergeCell ref="B221:B241"/>
+    <mergeCell ref="C221:C241"/>
+    <mergeCell ref="I260:I268"/>
+    <mergeCell ref="J260:J268"/>
+    <mergeCell ref="F242:F250"/>
+    <mergeCell ref="G242:G243"/>
+    <mergeCell ref="I242:I250"/>
+    <mergeCell ref="J242:J250"/>
+    <mergeCell ref="D251:D259"/>
+    <mergeCell ref="E251:E259"/>
+    <mergeCell ref="F251:F259"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="I251:I259"/>
+    <mergeCell ref="D230:D233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="F230:F233"/>
+    <mergeCell ref="I230:I233"/>
+    <mergeCell ref="J230:J233"/>
+    <mergeCell ref="D234:D237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="F234:F237"/>
+    <mergeCell ref="I234:I237"/>
+    <mergeCell ref="J234:J237"/>
+    <mergeCell ref="J211:J215"/>
+    <mergeCell ref="J221:J225"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="F226:F229"/>
+    <mergeCell ref="I226:I229"/>
+    <mergeCell ref="J226:J229"/>
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="I216:I220"/>
+    <mergeCell ref="J216:J220"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
+    <mergeCell ref="F221:F225"/>
+    <mergeCell ref="I221:I225"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="D191:D197"/>
+    <mergeCell ref="E191:E197"/>
+    <mergeCell ref="F191:F197"/>
+    <mergeCell ref="I191:I197"/>
+    <mergeCell ref="J191:J197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="A205:A220"/>
+    <mergeCell ref="B205:B220"/>
+    <mergeCell ref="C205:C220"/>
+    <mergeCell ref="D205:D210"/>
+    <mergeCell ref="E205:E210"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="D216:D220"/>
+    <mergeCell ref="E216:E220"/>
+    <mergeCell ref="F216:F220"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="I205:I210"/>
+    <mergeCell ref="J205:J210"/>
+    <mergeCell ref="D211:D215"/>
+    <mergeCell ref="E211:E215"/>
+    <mergeCell ref="F211:F215"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="I211:I215"/>
+    <mergeCell ref="D184:D190"/>
+    <mergeCell ref="E184:E190"/>
+    <mergeCell ref="F184:F190"/>
+    <mergeCell ref="I184:I190"/>
+    <mergeCell ref="J184:J190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B177:B204"/>
+    <mergeCell ref="C177:C204"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="F177:F183"/>
+    <mergeCell ref="I177:I183"/>
+    <mergeCell ref="J177:J183"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="A158:A176"/>
+    <mergeCell ref="B158:B176"/>
+    <mergeCell ref="C158:C176"/>
+    <mergeCell ref="D198:D204"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="F198:F204"/>
+    <mergeCell ref="I198:I204"/>
+    <mergeCell ref="J198:J204"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="D172:D176"/>
+    <mergeCell ref="E172:E176"/>
+    <mergeCell ref="F172:F176"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="I172:I176"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="J158:J164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="D165:D171"/>
+    <mergeCell ref="E165:E171"/>
+    <mergeCell ref="F165:F171"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="I165:I171"/>
+    <mergeCell ref="J165:J171"/>
+    <mergeCell ref="D158:D164"/>
+    <mergeCell ref="E158:E164"/>
+    <mergeCell ref="F158:F164"/>
+    <mergeCell ref="A138:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="C138:C157"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="I128:I132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="A123:A137"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="C123:C137"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="I133:I137"/>
+    <mergeCell ref="J133:J137"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="I98:I104"/>
+    <mergeCell ref="J98:J104"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="J113:J116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="I117:I122"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="A93:A112"/>
+    <mergeCell ref="B93:B112"/>
+    <mergeCell ref="C93:C112"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
+    <mergeCell ref="I108:I112"/>
+    <mergeCell ref="J108:J112"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="D98:D104"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="J69:J73"/>
+    <mergeCell ref="A74:A92"/>
+    <mergeCell ref="B74:B92"/>
+    <mergeCell ref="C74:C92"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="I88:I92"/>
+    <mergeCell ref="J88:J92"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A53:A73"/>
+    <mergeCell ref="B53:B73"/>
+    <mergeCell ref="C53:C73"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:B52"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="A316:A321"/>
     <mergeCell ref="B316:B321"/>
     <mergeCell ref="C316:C321"/>
@@ -12490,377 +12867,6 @@
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="F16:F21"/>
     <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B39:B52"/>
-    <mergeCell ref="C39:C52"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A53:A73"/>
-    <mergeCell ref="B53:B73"/>
-    <mergeCell ref="C53:C73"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="J69:J73"/>
-    <mergeCell ref="A74:A92"/>
-    <mergeCell ref="B74:B92"/>
-    <mergeCell ref="C74:C92"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="I88:I92"/>
-    <mergeCell ref="J88:J92"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="A93:A112"/>
-    <mergeCell ref="B93:B112"/>
-    <mergeCell ref="C93:C112"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="I108:I112"/>
-    <mergeCell ref="J108:J112"/>
-    <mergeCell ref="I93:I97"/>
-    <mergeCell ref="J93:J97"/>
-    <mergeCell ref="D98:D104"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="I98:I104"/>
-    <mergeCell ref="J98:J104"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="J113:J116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="I117:I122"/>
-    <mergeCell ref="J117:J122"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I123:I127"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="I128:I132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="A123:A137"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="C123:C137"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="I133:I137"/>
-    <mergeCell ref="J133:J137"/>
-    <mergeCell ref="A138:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="C138:C157"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="D172:D176"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="I172:I176"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="J158:J164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="D165:D171"/>
-    <mergeCell ref="E165:E171"/>
-    <mergeCell ref="F165:F171"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="I165:I171"/>
-    <mergeCell ref="J165:J171"/>
-    <mergeCell ref="D158:D164"/>
-    <mergeCell ref="E158:E164"/>
-    <mergeCell ref="F158:F164"/>
-    <mergeCell ref="D184:D190"/>
-    <mergeCell ref="E184:E190"/>
-    <mergeCell ref="F184:F190"/>
-    <mergeCell ref="I184:I190"/>
-    <mergeCell ref="J184:J190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B177:B204"/>
-    <mergeCell ref="C177:C204"/>
-    <mergeCell ref="D177:D183"/>
-    <mergeCell ref="E177:E183"/>
-    <mergeCell ref="F177:F183"/>
-    <mergeCell ref="I177:I183"/>
-    <mergeCell ref="J177:J183"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="A158:A176"/>
-    <mergeCell ref="B158:B176"/>
-    <mergeCell ref="C158:C176"/>
-    <mergeCell ref="D198:D204"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="F198:F204"/>
-    <mergeCell ref="I198:I204"/>
-    <mergeCell ref="J198:J204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="D191:D197"/>
-    <mergeCell ref="E191:E197"/>
-    <mergeCell ref="F191:F197"/>
-    <mergeCell ref="I191:I197"/>
-    <mergeCell ref="J191:J197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="A205:A220"/>
-    <mergeCell ref="B205:B220"/>
-    <mergeCell ref="C205:C220"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="E205:E210"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="D216:D220"/>
-    <mergeCell ref="E216:E220"/>
-    <mergeCell ref="F216:F220"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="I205:I210"/>
-    <mergeCell ref="J205:J210"/>
-    <mergeCell ref="D211:D215"/>
-    <mergeCell ref="E211:E215"/>
-    <mergeCell ref="F211:F215"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="I211:I215"/>
-    <mergeCell ref="J211:J215"/>
-    <mergeCell ref="J221:J225"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="F226:F229"/>
-    <mergeCell ref="I226:I229"/>
-    <mergeCell ref="J226:J229"/>
-    <mergeCell ref="G216:G217"/>
-    <mergeCell ref="I216:I220"/>
-    <mergeCell ref="J216:J220"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="F221:F225"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="D230:D233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="F230:F233"/>
-    <mergeCell ref="I230:I233"/>
-    <mergeCell ref="J230:J233"/>
-    <mergeCell ref="D234:D237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="F234:F237"/>
-    <mergeCell ref="I234:I237"/>
-    <mergeCell ref="J234:J237"/>
-    <mergeCell ref="D238:D241"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="F238:F241"/>
-    <mergeCell ref="I238:I241"/>
-    <mergeCell ref="J238:J241"/>
-    <mergeCell ref="A242:A271"/>
-    <mergeCell ref="B242:B271"/>
-    <mergeCell ref="C242:C271"/>
-    <mergeCell ref="D242:D250"/>
-    <mergeCell ref="E242:E250"/>
-    <mergeCell ref="A221:A241"/>
-    <mergeCell ref="B221:B241"/>
-    <mergeCell ref="C221:C241"/>
-    <mergeCell ref="I260:I268"/>
-    <mergeCell ref="J260:J268"/>
-    <mergeCell ref="F242:F250"/>
-    <mergeCell ref="G242:G243"/>
-    <mergeCell ref="I242:I250"/>
-    <mergeCell ref="J242:J250"/>
-    <mergeCell ref="D251:D259"/>
-    <mergeCell ref="E251:E259"/>
-    <mergeCell ref="F251:F259"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="I251:I259"/>
-    <mergeCell ref="J251:J259"/>
-    <mergeCell ref="A272:A287"/>
-    <mergeCell ref="B272:B287"/>
-    <mergeCell ref="C272:C287"/>
-    <mergeCell ref="D272:D275"/>
-    <mergeCell ref="E272:E275"/>
-    <mergeCell ref="D260:D268"/>
-    <mergeCell ref="E260:E268"/>
-    <mergeCell ref="F260:F268"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="F272:F275"/>
-    <mergeCell ref="I272:I275"/>
-    <mergeCell ref="J272:J275"/>
-    <mergeCell ref="D276:D279"/>
-    <mergeCell ref="E276:E279"/>
-    <mergeCell ref="F276:F279"/>
-    <mergeCell ref="I276:I279"/>
-    <mergeCell ref="J276:J279"/>
-    <mergeCell ref="D269:D271"/>
-    <mergeCell ref="E269:E271"/>
-    <mergeCell ref="F269:F271"/>
-    <mergeCell ref="I269:I271"/>
-    <mergeCell ref="J269:J271"/>
-    <mergeCell ref="D280:D283"/>
-    <mergeCell ref="E280:E283"/>
-    <mergeCell ref="F280:F283"/>
-    <mergeCell ref="I280:I283"/>
-    <mergeCell ref="J280:J283"/>
-    <mergeCell ref="D284:D287"/>
-    <mergeCell ref="E284:E287"/>
-    <mergeCell ref="F284:F287"/>
-    <mergeCell ref="I284:I287"/>
-    <mergeCell ref="J284:J287"/>
-    <mergeCell ref="I288:I291"/>
-    <mergeCell ref="J288:J291"/>
-    <mergeCell ref="D292:D295"/>
-    <mergeCell ref="E292:E295"/>
-    <mergeCell ref="F292:F295"/>
-    <mergeCell ref="I292:I295"/>
-    <mergeCell ref="J292:J295"/>
-    <mergeCell ref="A288:A299"/>
-    <mergeCell ref="B288:B299"/>
-    <mergeCell ref="C288:C299"/>
-    <mergeCell ref="D288:D291"/>
-    <mergeCell ref="E288:E291"/>
-    <mergeCell ref="F288:F291"/>
-    <mergeCell ref="D296:D299"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="F296:F299"/>
-    <mergeCell ref="I296:I299"/>
-    <mergeCell ref="J296:J299"/>
-    <mergeCell ref="A300:A315"/>
-    <mergeCell ref="B300:B315"/>
-    <mergeCell ref="C300:C315"/>
-    <mergeCell ref="D300:D303"/>
-    <mergeCell ref="E300:E303"/>
-    <mergeCell ref="F300:F303"/>
-    <mergeCell ref="I300:I303"/>
-    <mergeCell ref="J300:J303"/>
-    <mergeCell ref="D312:D315"/>
-    <mergeCell ref="E312:E315"/>
-    <mergeCell ref="F312:F315"/>
-    <mergeCell ref="I312:I315"/>
-    <mergeCell ref="J312:J315"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="E304:E307"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="I304:I307"/>
-    <mergeCell ref="J304:J307"/>
-    <mergeCell ref="D308:D311"/>
-    <mergeCell ref="E308:E311"/>
-    <mergeCell ref="F308:F311"/>
-    <mergeCell ref="I308:I311"/>
-    <mergeCell ref="J308:J311"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B74" r:id="rId1" xr:uid="{70DE346B-AB98-47C3-A4FC-16D93A207D33}"/>
@@ -13023,7 +13029,7 @@
       <c r="F2" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13041,7 +13047,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="47"/>
       <c r="F3" s="44"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="42" t="s">
         <v>107</v>
       </c>
@@ -13055,7 +13061,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="47"/>
       <c r="F4" s="44"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="42" t="s">
@@ -13071,7 +13077,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="47"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="42" t="s">
         <v>1688</v>
       </c>
@@ -13085,7 +13091,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="47"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="42" t="s">
@@ -13101,7 +13107,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="47"/>
       <c r="F7" s="44"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="42" t="s">
         <v>111</v>
       </c>
@@ -13115,7 +13121,7 @@
       <c r="D8" s="45"/>
       <c r="E8" s="48"/>
       <c r="F8" s="45"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="41" t="s">
         <v>88</v>
       </c>
@@ -13141,7 +13147,7 @@
       <c r="F9" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="40" t="s">
@@ -13159,7 +13165,7 @@
       <c r="D10" s="44"/>
       <c r="E10" s="47"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="53"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="42" t="s">
         <v>20</v>
       </c>
@@ -13173,7 +13179,7 @@
       <c r="D11" s="44"/>
       <c r="E11" s="47"/>
       <c r="F11" s="44"/>
-      <c r="G11" s="53"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="42" t="s">
         <v>21</v>
       </c>
@@ -13187,7 +13193,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="47"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="42" t="s">
@@ -13203,7 +13209,7 @@
       <c r="D13" s="44"/>
       <c r="E13" s="47"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="42" t="s">
         <v>23</v>
       </c>
@@ -13217,7 +13223,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="47"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="42" t="s">
@@ -13233,7 +13239,7 @@
       <c r="D15" s="44"/>
       <c r="E15" s="47"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="42" t="s">
         <v>25</v>
       </c>
@@ -13279,7 +13285,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="47"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="42" t="s">
@@ -13295,7 +13301,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="47"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="53"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="42" t="s">
         <v>29</v>
       </c>
@@ -13325,7 +13331,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="47"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="42" t="s">
@@ -13341,7 +13347,7 @@
       <c r="D22" s="44"/>
       <c r="E22" s="47"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="53"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="42" t="s">
         <v>32</v>
       </c>
@@ -13355,7 +13361,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="47"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
@@ -13371,7 +13377,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="47"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="53"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="42" t="s">
         <v>34</v>
       </c>
@@ -13429,7 +13435,7 @@
       <c r="F27" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="40" t="s">
@@ -13447,7 +13453,7 @@
       <c r="D28" s="44"/>
       <c r="E28" s="47"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="42" t="s">
         <v>1211</v>
       </c>
@@ -13557,7 +13563,7 @@
       <c r="D34" s="44"/>
       <c r="E34" s="47"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="42" t="s">
@@ -13573,7 +13579,7 @@
       <c r="D35" s="44"/>
       <c r="E35" s="47"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="53"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="42" t="s">
         <v>30</v>
       </c>
@@ -13587,7 +13593,7 @@
       <c r="D36" s="44"/>
       <c r="E36" s="47"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="42" t="s">
@@ -13603,7 +13609,7 @@
       <c r="D37" s="44"/>
       <c r="E37" s="47"/>
       <c r="F37" s="44"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="42" t="s">
         <v>1219</v>
       </c>
@@ -13701,7 +13707,7 @@
       <c r="F42" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H42" s="40" t="s">
@@ -13719,7 +13725,7 @@
       <c r="D43" s="44"/>
       <c r="E43" s="47"/>
       <c r="F43" s="44"/>
-      <c r="G43" s="53"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="42" t="s">
         <v>1211</v>
       </c>
@@ -13829,7 +13835,7 @@
       <c r="D49" s="44"/>
       <c r="E49" s="47"/>
       <c r="F49" s="44"/>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="42" t="s">
@@ -13845,7 +13851,7 @@
       <c r="D50" s="44"/>
       <c r="E50" s="47"/>
       <c r="F50" s="44"/>
-      <c r="G50" s="53"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="42" t="s">
         <v>30</v>
       </c>
@@ -13859,7 +13865,7 @@
       <c r="D51" s="44"/>
       <c r="E51" s="47"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="42" t="s">
@@ -13875,7 +13881,7 @@
       <c r="D52" s="44"/>
       <c r="E52" s="47"/>
       <c r="F52" s="44"/>
-      <c r="G52" s="53"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="42" t="s">
         <v>1219</v>
       </c>
@@ -14293,7 +14299,7 @@
       <c r="F75" s="43" t="s">
         <v>1378</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H75" s="26" t="s">
@@ -14311,7 +14317,7 @@
       <c r="D76" s="44"/>
       <c r="E76" s="47"/>
       <c r="F76" s="44"/>
-      <c r="G76" s="53"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="1" t="s">
         <v>1783</v>
       </c>
@@ -14363,7 +14369,7 @@
       <c r="F79" s="43" t="s">
         <v>1378</v>
       </c>
-      <c r="G79" s="52" t="s">
+      <c r="G79" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H79" s="40" t="s">
@@ -14381,7 +14387,7 @@
       <c r="D80" s="44"/>
       <c r="E80" s="47"/>
       <c r="F80" s="44"/>
-      <c r="G80" s="53"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="42" t="s">
         <v>1789</v>
       </c>
@@ -14521,7 +14527,7 @@
       <c r="D88" s="44"/>
       <c r="E88" s="47"/>
       <c r="F88" s="44"/>
-      <c r="G88" s="53" t="s">
+      <c r="G88" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="42" t="s">
@@ -14537,7 +14543,7 @@
       <c r="D89" s="44"/>
       <c r="E89" s="47"/>
       <c r="F89" s="44"/>
-      <c r="G89" s="57"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="41" t="s">
         <v>50</v>
       </c>
@@ -14557,7 +14563,7 @@
       <c r="F90" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="G90" s="52" t="s">
+      <c r="G90" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H90" s="40" t="s">
@@ -14575,7 +14581,7 @@
       <c r="D91" s="44"/>
       <c r="E91" s="47"/>
       <c r="F91" s="44"/>
-      <c r="G91" s="53"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="15" t="s">
         <v>53</v>
       </c>
@@ -14653,7 +14659,7 @@
       <c r="D96" s="44"/>
       <c r="E96" s="47"/>
       <c r="F96" s="44"/>
-      <c r="G96" s="64" t="s">
+      <c r="G96" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="15" t="s">
@@ -14669,7 +14675,7 @@
       <c r="D97" s="45"/>
       <c r="E97" s="48"/>
       <c r="F97" s="45"/>
-      <c r="G97" s="65"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="16" t="s">
         <v>50</v>
       </c>
@@ -14707,7 +14713,7 @@
       <c r="D99" s="44"/>
       <c r="E99" s="47"/>
       <c r="F99" s="44"/>
-      <c r="G99" s="64"/>
+      <c r="G99" s="61"/>
       <c r="H99" s="15" t="s">
         <v>69</v>
       </c>
@@ -14721,7 +14727,7 @@
       <c r="D100" s="44"/>
       <c r="E100" s="47"/>
       <c r="F100" s="44"/>
-      <c r="G100" s="64" t="s">
+      <c r="G100" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H100" s="15" t="s">
@@ -14737,7 +14743,7 @@
       <c r="D101" s="44"/>
       <c r="E101" s="47"/>
       <c r="F101" s="44"/>
-      <c r="G101" s="64"/>
+      <c r="G101" s="61"/>
       <c r="H101" s="15" t="s">
         <v>67</v>
       </c>
@@ -14767,7 +14773,7 @@
       <c r="D103" s="44"/>
       <c r="E103" s="47"/>
       <c r="F103" s="44"/>
-      <c r="G103" s="64" t="s">
+      <c r="G103" s="61" t="s">
         <v>6</v>
       </c>
       <c r="H103" s="15" t="s">
@@ -14783,7 +14789,7 @@
       <c r="D104" s="44"/>
       <c r="E104" s="47"/>
       <c r="F104" s="44"/>
-      <c r="G104" s="64"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="15" t="s">
         <v>64</v>
       </c>
@@ -16081,7 +16087,7 @@
       <c r="F175" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="G175" s="52" t="s">
+      <c r="G175" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H175" s="40" t="s">
@@ -16099,7 +16105,7 @@
       <c r="D176" s="44"/>
       <c r="E176" s="47"/>
       <c r="F176" s="44"/>
-      <c r="G176" s="53"/>
+      <c r="G176" s="55"/>
       <c r="H176" s="42" t="s">
         <v>371</v>
       </c>
@@ -16145,7 +16151,7 @@
       <c r="D179" s="44"/>
       <c r="E179" s="47"/>
       <c r="F179" s="44"/>
-      <c r="G179" s="53" t="s">
+      <c r="G179" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H179" s="42" t="s">
@@ -16161,7 +16167,7 @@
       <c r="D180" s="45"/>
       <c r="E180" s="48"/>
       <c r="F180" s="45"/>
-      <c r="G180" s="57"/>
+      <c r="G180" s="56"/>
       <c r="H180" s="41" t="s">
         <v>375</v>
       </c>
@@ -16181,7 +16187,7 @@
       <c r="F181" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="G181" s="52" t="s">
+      <c r="G181" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H181" s="40" t="s">
@@ -16199,7 +16205,7 @@
       <c r="D182" s="44"/>
       <c r="E182" s="47"/>
       <c r="F182" s="44"/>
-      <c r="G182" s="53"/>
+      <c r="G182" s="55"/>
       <c r="H182" s="42" t="s">
         <v>378</v>
       </c>
@@ -16245,7 +16251,7 @@
       <c r="D185" s="44"/>
       <c r="E185" s="47"/>
       <c r="F185" s="44"/>
-      <c r="G185" s="53" t="s">
+      <c r="G185" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H185" s="42" t="s">
@@ -16261,7 +16267,7 @@
       <c r="D186" s="45"/>
       <c r="E186" s="48"/>
       <c r="F186" s="45"/>
-      <c r="G186" s="57"/>
+      <c r="G186" s="56"/>
       <c r="H186" s="41" t="s">
         <v>382</v>
       </c>
@@ -16281,7 +16287,7 @@
       <c r="F187" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="G187" s="52" t="s">
+      <c r="G187" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H187" s="40" t="s">
@@ -16299,7 +16305,7 @@
       <c r="D188" s="44"/>
       <c r="E188" s="47"/>
       <c r="F188" s="44"/>
-      <c r="G188" s="53"/>
+      <c r="G188" s="55"/>
       <c r="H188" s="42" t="s">
         <v>385</v>
       </c>
@@ -16471,10 +16477,10 @@
       <c r="F198" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="G198" s="52" t="s">
+      <c r="G198" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H198" s="61" t="s">
+      <c r="H198" s="64" t="s">
         <v>398</v>
       </c>
       <c r="I198" s="49">
@@ -16489,8 +16495,8 @@
       <c r="D199" s="45"/>
       <c r="E199" s="48"/>
       <c r="F199" s="45"/>
-      <c r="G199" s="57"/>
-      <c r="H199" s="62"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="65"/>
       <c r="I199" s="51"/>
       <c r="J199" s="51"/>
     </row>
@@ -16895,7 +16901,7 @@
       <c r="F221" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G221" s="52" t="s">
+      <c r="G221" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H221" s="40" t="s">
@@ -16913,7 +16919,7 @@
       <c r="D222" s="44"/>
       <c r="E222" s="47"/>
       <c r="F222" s="44"/>
-      <c r="G222" s="53"/>
+      <c r="G222" s="55"/>
       <c r="H222" s="42" t="s">
         <v>96</v>
       </c>
@@ -16943,7 +16949,7 @@
       <c r="D224" s="44"/>
       <c r="E224" s="47"/>
       <c r="F224" s="44"/>
-      <c r="G224" s="53" t="s">
+      <c r="G224" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H224" s="42" t="s">
@@ -16959,7 +16965,7 @@
       <c r="D225" s="45"/>
       <c r="E225" s="48"/>
       <c r="F225" s="45"/>
-      <c r="G225" s="57"/>
+      <c r="G225" s="56"/>
       <c r="H225" s="41" t="s">
         <v>88</v>
       </c>
@@ -17083,7 +17089,7 @@
       <c r="F232" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G232" s="52" t="s">
+      <c r="G232" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H232" s="40" t="s">
@@ -17101,7 +17107,7 @@
       <c r="D233" s="44"/>
       <c r="E233" s="47"/>
       <c r="F233" s="44"/>
-      <c r="G233" s="53"/>
+      <c r="G233" s="55"/>
       <c r="H233" s="42" t="s">
         <v>107</v>
       </c>
@@ -17115,7 +17121,7 @@
       <c r="D234" s="44"/>
       <c r="E234" s="47"/>
       <c r="F234" s="44"/>
-      <c r="G234" s="53"/>
+      <c r="G234" s="55"/>
       <c r="H234" s="42" t="s">
         <v>108</v>
       </c>
@@ -17129,7 +17135,7 @@
       <c r="D235" s="44"/>
       <c r="E235" s="47"/>
       <c r="F235" s="44"/>
-      <c r="G235" s="53" t="s">
+      <c r="G235" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H235" s="42" t="s">
@@ -17145,7 +17151,7 @@
       <c r="D236" s="44"/>
       <c r="E236" s="47"/>
       <c r="F236" s="44"/>
-      <c r="G236" s="53"/>
+      <c r="G236" s="55"/>
       <c r="H236" s="42" t="s">
         <v>110</v>
       </c>
@@ -17159,7 +17165,7 @@
       <c r="D237" s="44"/>
       <c r="E237" s="47"/>
       <c r="F237" s="44"/>
-      <c r="G237" s="53" t="s">
+      <c r="G237" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H237" s="42" t="s">
@@ -17175,7 +17181,7 @@
       <c r="D238" s="44"/>
       <c r="E238" s="47"/>
       <c r="F238" s="44"/>
-      <c r="G238" s="53"/>
+      <c r="G238" s="55"/>
       <c r="H238" s="42" t="s">
         <v>112</v>
       </c>
@@ -17189,7 +17195,7 @@
       <c r="D239" s="45"/>
       <c r="E239" s="48"/>
       <c r="F239" s="45"/>
-      <c r="G239" s="57"/>
+      <c r="G239" s="56"/>
       <c r="H239" s="41" t="s">
         <v>88</v>
       </c>
@@ -17215,7 +17221,7 @@
       <c r="F240" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G240" s="52" t="s">
+      <c r="G240" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H240" s="40" t="s">
@@ -17233,7 +17239,7 @@
       <c r="D241" s="44"/>
       <c r="E241" s="47"/>
       <c r="F241" s="44"/>
-      <c r="G241" s="53"/>
+      <c r="G241" s="55"/>
       <c r="H241" s="42" t="s">
         <v>320</v>
       </c>
@@ -17247,7 +17253,7 @@
       <c r="D242" s="44"/>
       <c r="E242" s="47"/>
       <c r="F242" s="44"/>
-      <c r="G242" s="53"/>
+      <c r="G242" s="55"/>
       <c r="H242" s="42" t="s">
         <v>1695</v>
       </c>
@@ -17261,7 +17267,7 @@
       <c r="D243" s="44"/>
       <c r="E243" s="47"/>
       <c r="F243" s="44"/>
-      <c r="G243" s="53" t="s">
+      <c r="G243" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H243" s="42" t="s">
@@ -17277,7 +17283,7 @@
       <c r="D244" s="44"/>
       <c r="E244" s="47"/>
       <c r="F244" s="44"/>
-      <c r="G244" s="53"/>
+      <c r="G244" s="55"/>
       <c r="H244" s="42" t="s">
         <v>1697</v>
       </c>
@@ -17291,7 +17297,7 @@
       <c r="D245" s="45"/>
       <c r="E245" s="48"/>
       <c r="F245" s="45"/>
-      <c r="G245" s="57"/>
+      <c r="G245" s="56"/>
       <c r="H245" s="41" t="s">
         <v>88</v>
       </c>
@@ -17503,7 +17509,7 @@
       <c r="F257" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G257" s="52" t="s">
+      <c r="G257" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H257" s="40" t="s">
@@ -17521,7 +17527,7 @@
       <c r="D258" s="44"/>
       <c r="E258" s="47"/>
       <c r="F258" s="44"/>
-      <c r="G258" s="53"/>
+      <c r="G258" s="55"/>
       <c r="H258" s="42" t="s">
         <v>96</v>
       </c>
@@ -17551,7 +17557,7 @@
       <c r="D260" s="44"/>
       <c r="E260" s="47"/>
       <c r="F260" s="44"/>
-      <c r="G260" s="53" t="s">
+      <c r="G260" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H260" s="42" t="s">
@@ -17567,7 +17573,7 @@
       <c r="D261" s="45"/>
       <c r="E261" s="48"/>
       <c r="F261" s="45"/>
-      <c r="G261" s="57"/>
+      <c r="G261" s="56"/>
       <c r="H261" s="41" t="s">
         <v>88</v>
       </c>
@@ -17691,7 +17697,7 @@
       <c r="F268" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G268" s="52" t="s">
+      <c r="G268" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H268" s="40" t="s">
@@ -17709,7 +17715,7 @@
       <c r="D269" s="44"/>
       <c r="E269" s="47"/>
       <c r="F269" s="44"/>
-      <c r="G269" s="53"/>
+      <c r="G269" s="55"/>
       <c r="H269" s="42" t="s">
         <v>107</v>
       </c>
@@ -17723,7 +17729,7 @@
       <c r="D270" s="44"/>
       <c r="E270" s="47"/>
       <c r="F270" s="44"/>
-      <c r="G270" s="53"/>
+      <c r="G270" s="55"/>
       <c r="H270" s="42" t="s">
         <v>108</v>
       </c>
@@ -17737,7 +17743,7 @@
       <c r="D271" s="44"/>
       <c r="E271" s="47"/>
       <c r="F271" s="44"/>
-      <c r="G271" s="53" t="s">
+      <c r="G271" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H271" s="42" t="s">
@@ -17753,7 +17759,7 @@
       <c r="D272" s="44"/>
       <c r="E272" s="47"/>
       <c r="F272" s="44"/>
-      <c r="G272" s="53"/>
+      <c r="G272" s="55"/>
       <c r="H272" s="42" t="s">
         <v>110</v>
       </c>
@@ -17767,7 +17773,7 @@
       <c r="D273" s="44"/>
       <c r="E273" s="47"/>
       <c r="F273" s="44"/>
-      <c r="G273" s="53" t="s">
+      <c r="G273" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H273" s="42" t="s">
@@ -17783,7 +17789,7 @@
       <c r="D274" s="44"/>
       <c r="E274" s="47"/>
       <c r="F274" s="44"/>
-      <c r="G274" s="53"/>
+      <c r="G274" s="55"/>
       <c r="H274" s="42" t="s">
         <v>112</v>
       </c>
@@ -17797,7 +17803,7 @@
       <c r="D275" s="45"/>
       <c r="E275" s="48"/>
       <c r="F275" s="45"/>
-      <c r="G275" s="57"/>
+      <c r="G275" s="56"/>
       <c r="H275" s="41" t="s">
         <v>88</v>
       </c>
@@ -17817,7 +17823,7 @@
       <c r="F276" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G276" s="52" t="s">
+      <c r="G276" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H276" s="40" t="s">
@@ -17835,7 +17841,7 @@
       <c r="D277" s="44"/>
       <c r="E277" s="47"/>
       <c r="F277" s="44"/>
-      <c r="G277" s="53"/>
+      <c r="G277" s="55"/>
       <c r="H277" s="42" t="s">
         <v>1701</v>
       </c>
@@ -17849,7 +17855,7 @@
       <c r="D278" s="44"/>
       <c r="E278" s="47"/>
       <c r="F278" s="44"/>
-      <c r="G278" s="53"/>
+      <c r="G278" s="55"/>
       <c r="H278" s="42" t="s">
         <v>1702</v>
       </c>
@@ -17863,7 +17869,7 @@
       <c r="D279" s="44"/>
       <c r="E279" s="47"/>
       <c r="F279" s="44"/>
-      <c r="G279" s="53" t="s">
+      <c r="G279" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H279" s="42" t="s">
@@ -17879,7 +17885,7 @@
       <c r="D280" s="44"/>
       <c r="E280" s="47"/>
       <c r="F280" s="44"/>
-      <c r="G280" s="53"/>
+      <c r="G280" s="55"/>
       <c r="H280" s="42" t="s">
         <v>1704</v>
       </c>
@@ -17893,7 +17899,7 @@
       <c r="D281" s="44"/>
       <c r="E281" s="47"/>
       <c r="F281" s="44"/>
-      <c r="G281" s="53"/>
+      <c r="G281" s="55"/>
       <c r="H281" s="42" t="s">
         <v>1705</v>
       </c>
@@ -17907,7 +17913,7 @@
       <c r="D282" s="45"/>
       <c r="E282" s="48"/>
       <c r="F282" s="45"/>
-      <c r="G282" s="57"/>
+      <c r="G282" s="56"/>
       <c r="H282" s="41" t="s">
         <v>1706</v>
       </c>
@@ -17927,7 +17933,7 @@
       <c r="F283" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G283" s="52" t="s">
+      <c r="G283" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H283" s="40" t="s">
@@ -17945,7 +17951,7 @@
       <c r="D284" s="44"/>
       <c r="E284" s="47"/>
       <c r="F284" s="44"/>
-      <c r="G284" s="53"/>
+      <c r="G284" s="55"/>
       <c r="H284" s="42" t="s">
         <v>1710</v>
       </c>
@@ -17959,7 +17965,7 @@
       <c r="D285" s="44"/>
       <c r="E285" s="47"/>
       <c r="F285" s="44"/>
-      <c r="G285" s="53"/>
+      <c r="G285" s="55"/>
       <c r="H285" s="42" t="s">
         <v>1711</v>
       </c>
@@ -17973,7 +17979,7 @@
       <c r="D286" s="44"/>
       <c r="E286" s="47"/>
       <c r="F286" s="44"/>
-      <c r="G286" s="53" t="s">
+      <c r="G286" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H286" s="42" t="s">
@@ -17989,7 +17995,7 @@
       <c r="D287" s="44"/>
       <c r="E287" s="47"/>
       <c r="F287" s="44"/>
-      <c r="G287" s="53"/>
+      <c r="G287" s="55"/>
       <c r="H287" s="42" t="s">
         <v>1713</v>
       </c>
@@ -18003,7 +18009,7 @@
       <c r="D288" s="44"/>
       <c r="E288" s="47"/>
       <c r="F288" s="44"/>
-      <c r="G288" s="53" t="s">
+      <c r="G288" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H288" s="42" t="s">
@@ -18019,7 +18025,7 @@
       <c r="D289" s="44"/>
       <c r="E289" s="47"/>
       <c r="F289" s="44"/>
-      <c r="G289" s="53"/>
+      <c r="G289" s="55"/>
       <c r="H289" s="42" t="s">
         <v>1715</v>
       </c>
@@ -18033,7 +18039,7 @@
       <c r="D290" s="45"/>
       <c r="E290" s="48"/>
       <c r="F290" s="45"/>
-      <c r="G290" s="57"/>
+      <c r="G290" s="56"/>
       <c r="H290" s="41" t="s">
         <v>88</v>
       </c>
@@ -18053,7 +18059,7 @@
       <c r="F291" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G291" s="52" t="s">
+      <c r="G291" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H291" s="40" t="s">
@@ -18071,7 +18077,7 @@
       <c r="D292" s="44"/>
       <c r="E292" s="47"/>
       <c r="F292" s="44"/>
-      <c r="G292" s="53"/>
+      <c r="G292" s="55"/>
       <c r="H292" s="42" t="s">
         <v>1719</v>
       </c>
@@ -18085,7 +18091,7 @@
       <c r="D293" s="44"/>
       <c r="E293" s="47"/>
       <c r="F293" s="44"/>
-      <c r="G293" s="53" t="s">
+      <c r="G293" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H293" s="42" t="s">
@@ -18101,7 +18107,7 @@
       <c r="D294" s="44"/>
       <c r="E294" s="47"/>
       <c r="F294" s="44"/>
-      <c r="G294" s="53"/>
+      <c r="G294" s="55"/>
       <c r="H294" s="42" t="s">
         <v>1721</v>
       </c>
@@ -18115,7 +18121,7 @@
       <c r="D295" s="44"/>
       <c r="E295" s="47"/>
       <c r="F295" s="44"/>
-      <c r="G295" s="53" t="s">
+      <c r="G295" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H295" s="42" t="s">
@@ -18131,7 +18137,7 @@
       <c r="D296" s="44"/>
       <c r="E296" s="47"/>
       <c r="F296" s="44"/>
-      <c r="G296" s="53"/>
+      <c r="G296" s="55"/>
       <c r="H296" s="42" t="s">
         <v>1723</v>
       </c>
@@ -18145,7 +18151,7 @@
       <c r="D297" s="44"/>
       <c r="E297" s="47"/>
       <c r="F297" s="44"/>
-      <c r="G297" s="53" t="s">
+      <c r="G297" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H297" s="42" t="s">
@@ -18161,7 +18167,7 @@
       <c r="D298" s="44"/>
       <c r="E298" s="47"/>
       <c r="F298" s="44"/>
-      <c r="G298" s="53"/>
+      <c r="G298" s="55"/>
       <c r="H298" s="42" t="s">
         <v>1725</v>
       </c>
@@ -18175,7 +18181,7 @@
       <c r="D299" s="45"/>
       <c r="E299" s="48"/>
       <c r="F299" s="45"/>
-      <c r="G299" s="57"/>
+      <c r="G299" s="56"/>
       <c r="H299" s="41" t="s">
         <v>88</v>
       </c>
@@ -18201,7 +18207,7 @@
       <c r="F300" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G300" s="52" t="s">
+      <c r="G300" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H300" s="40" t="s">
@@ -18219,7 +18225,7 @@
       <c r="D301" s="44"/>
       <c r="E301" s="47"/>
       <c r="F301" s="44"/>
-      <c r="G301" s="53"/>
+      <c r="G301" s="55"/>
       <c r="H301" s="42" t="s">
         <v>1701</v>
       </c>
@@ -18233,7 +18239,7 @@
       <c r="D302" s="44"/>
       <c r="E302" s="47"/>
       <c r="F302" s="44"/>
-      <c r="G302" s="53"/>
+      <c r="G302" s="55"/>
       <c r="H302" s="42" t="s">
         <v>1702</v>
       </c>
@@ -18247,7 +18253,7 @@
       <c r="D303" s="44"/>
       <c r="E303" s="47"/>
       <c r="F303" s="44"/>
-      <c r="G303" s="53" t="s">
+      <c r="G303" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H303" s="42" t="s">
@@ -18263,7 +18269,7 @@
       <c r="D304" s="44"/>
       <c r="E304" s="47"/>
       <c r="F304" s="44"/>
-      <c r="G304" s="53"/>
+      <c r="G304" s="55"/>
       <c r="H304" s="42" t="s">
         <v>1704</v>
       </c>
@@ -18277,7 +18283,7 @@
       <c r="D305" s="44"/>
       <c r="E305" s="47"/>
       <c r="F305" s="44"/>
-      <c r="G305" s="53"/>
+      <c r="G305" s="55"/>
       <c r="H305" s="42" t="s">
         <v>1705</v>
       </c>
@@ -18291,7 +18297,7 @@
       <c r="D306" s="45"/>
       <c r="E306" s="48"/>
       <c r="F306" s="45"/>
-      <c r="G306" s="57"/>
+      <c r="G306" s="56"/>
       <c r="H306" s="41" t="s">
         <v>1706</v>
       </c>
@@ -18317,7 +18323,7 @@
       <c r="F307" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G307" s="52" t="s">
+      <c r="G307" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H307" s="40" t="s">
@@ -18335,7 +18341,7 @@
       <c r="D308" s="44"/>
       <c r="E308" s="47"/>
       <c r="F308" s="44"/>
-      <c r="G308" s="53"/>
+      <c r="G308" s="55"/>
       <c r="H308" s="42" t="s">
         <v>1167</v>
       </c>
@@ -18403,7 +18409,7 @@
       <c r="F312" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G312" s="52" t="s">
+      <c r="G312" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H312" s="17" t="s">
@@ -18421,7 +18427,7 @@
       <c r="D313" s="44"/>
       <c r="E313" s="47"/>
       <c r="F313" s="44"/>
-      <c r="G313" s="53"/>
+      <c r="G313" s="55"/>
       <c r="H313" s="15" t="s">
         <v>4</v>
       </c>
@@ -18521,7 +18527,7 @@
       <c r="F319" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G319" s="52" t="s">
+      <c r="G319" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H319" s="17" t="s">
@@ -18539,7 +18545,7 @@
       <c r="D320" s="44"/>
       <c r="E320" s="47"/>
       <c r="F320" s="44"/>
-      <c r="G320" s="53"/>
+      <c r="G320" s="55"/>
       <c r="H320" s="15" t="s">
         <v>4</v>
       </c>
@@ -18639,7 +18645,7 @@
       <c r="F326" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G326" s="52" t="s">
+      <c r="G326" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H326" s="17" t="s">
@@ -18657,7 +18663,7 @@
       <c r="D327" s="44"/>
       <c r="E327" s="47"/>
       <c r="F327" s="44"/>
-      <c r="G327" s="53"/>
+      <c r="G327" s="55"/>
       <c r="H327" s="15" t="s">
         <v>4</v>
       </c>
@@ -18725,7 +18731,7 @@
       <c r="F331" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G331" s="52" t="s">
+      <c r="G331" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H331" s="17" t="s">
@@ -18743,7 +18749,7 @@
       <c r="D332" s="44"/>
       <c r="E332" s="47"/>
       <c r="F332" s="44"/>
-      <c r="G332" s="53"/>
+      <c r="G332" s="55"/>
       <c r="H332" s="15" t="s">
         <v>882</v>
       </c>
@@ -18789,7 +18795,7 @@
       <c r="D335" s="44"/>
       <c r="E335" s="47"/>
       <c r="F335" s="44"/>
-      <c r="G335" s="53" t="s">
+      <c r="G335" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H335" s="15" t="s">
@@ -18805,7 +18811,7 @@
       <c r="D336" s="45"/>
       <c r="E336" s="48"/>
       <c r="F336" s="45"/>
-      <c r="G336" s="57"/>
+      <c r="G336" s="56"/>
       <c r="H336" s="16" t="s">
         <v>968</v>
       </c>
@@ -18825,7 +18831,7 @@
       <c r="F337" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="G337" s="52" t="s">
+      <c r="G337" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H337" s="17" t="s">
@@ -18843,7 +18849,7 @@
       <c r="D338" s="44"/>
       <c r="E338" s="47"/>
       <c r="F338" s="44"/>
-      <c r="G338" s="53"/>
+      <c r="G338" s="55"/>
       <c r="H338" s="15" t="s">
         <v>970</v>
       </c>
@@ -19490,7 +19496,7 @@
       <c r="A375" s="43" t="s">
         <v>1751</v>
       </c>
-      <c r="B375" s="54" t="s">
+      <c r="B375" s="52" t="s">
         <v>1752</v>
       </c>
       <c r="C375" s="43">
@@ -19518,7 +19524,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="44"/>
-      <c r="B376" s="55"/>
+      <c r="B376" s="53"/>
       <c r="C376" s="44"/>
       <c r="D376" s="44"/>
       <c r="E376" s="47"/>
@@ -19534,7 +19540,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="44"/>
-      <c r="B377" s="55"/>
+      <c r="B377" s="53"/>
       <c r="C377" s="44"/>
       <c r="D377" s="44"/>
       <c r="E377" s="47"/>
@@ -19550,7 +19556,7 @@
     </row>
     <row r="378" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="44"/>
-      <c r="B378" s="55"/>
+      <c r="B378" s="53"/>
       <c r="C378" s="44"/>
       <c r="D378" s="45"/>
       <c r="E378" s="48"/>
@@ -19566,7 +19572,7 @@
     </row>
     <row r="379" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="44"/>
-      <c r="B379" s="55"/>
+      <c r="B379" s="53"/>
       <c r="C379" s="44"/>
       <c r="D379" s="43" t="s">
         <v>1758</v>
@@ -19590,7 +19596,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="44"/>
-      <c r="B380" s="55"/>
+      <c r="B380" s="53"/>
       <c r="C380" s="44"/>
       <c r="D380" s="44"/>
       <c r="E380" s="47"/>
@@ -19606,7 +19612,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="44"/>
-      <c r="B381" s="55"/>
+      <c r="B381" s="53"/>
       <c r="C381" s="44"/>
       <c r="D381" s="44"/>
       <c r="E381" s="47"/>
@@ -19622,7 +19628,7 @@
     </row>
     <row r="382" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="44"/>
-      <c r="B382" s="55"/>
+      <c r="B382" s="53"/>
       <c r="C382" s="44"/>
       <c r="D382" s="45"/>
       <c r="E382" s="48"/>
@@ -19638,7 +19644,7 @@
     </row>
     <row r="383" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="44"/>
-      <c r="B383" s="55"/>
+      <c r="B383" s="53"/>
       <c r="C383" s="44"/>
       <c r="D383" s="43" t="s">
         <v>960</v>
@@ -19662,7 +19668,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="44"/>
-      <c r="B384" s="55"/>
+      <c r="B384" s="53"/>
       <c r="C384" s="44"/>
       <c r="D384" s="44"/>
       <c r="E384" s="47"/>
@@ -19678,7 +19684,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="44"/>
-      <c r="B385" s="55"/>
+      <c r="B385" s="53"/>
       <c r="C385" s="44"/>
       <c r="D385" s="44"/>
       <c r="E385" s="47"/>
@@ -19694,7 +19700,7 @@
     </row>
     <row r="386" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="45"/>
-      <c r="B386" s="56"/>
+      <c r="B386" s="54"/>
       <c r="C386" s="45"/>
       <c r="D386" s="45"/>
       <c r="E386" s="48"/>
@@ -19710,6 +19716,464 @@
     </row>
   </sheetData>
   <mergeCells count="482">
+    <mergeCell ref="A375:A386"/>
+    <mergeCell ref="B375:B386"/>
+    <mergeCell ref="C375:C386"/>
+    <mergeCell ref="D375:D378"/>
+    <mergeCell ref="E375:E378"/>
+    <mergeCell ref="F375:F378"/>
+    <mergeCell ref="I375:I378"/>
+    <mergeCell ref="J375:J378"/>
+    <mergeCell ref="D379:D382"/>
+    <mergeCell ref="E379:E382"/>
+    <mergeCell ref="F379:F382"/>
+    <mergeCell ref="I379:I382"/>
+    <mergeCell ref="J379:J382"/>
+    <mergeCell ref="D383:D386"/>
+    <mergeCell ref="E383:E386"/>
+    <mergeCell ref="F383:F386"/>
+    <mergeCell ref="I383:I386"/>
+    <mergeCell ref="J383:J386"/>
+    <mergeCell ref="E365:E368"/>
+    <mergeCell ref="F365:F368"/>
+    <mergeCell ref="I365:I368"/>
+    <mergeCell ref="J365:J368"/>
+    <mergeCell ref="A369:A374"/>
+    <mergeCell ref="B369:B374"/>
+    <mergeCell ref="C369:C374"/>
+    <mergeCell ref="D369:D374"/>
+    <mergeCell ref="E369:E374"/>
+    <mergeCell ref="F369:F374"/>
+    <mergeCell ref="A344:A368"/>
+    <mergeCell ref="B344:B368"/>
+    <mergeCell ref="C344:C368"/>
+    <mergeCell ref="D365:D368"/>
+    <mergeCell ref="I369:I374"/>
+    <mergeCell ref="J369:J374"/>
+    <mergeCell ref="I355:I359"/>
+    <mergeCell ref="J355:J359"/>
+    <mergeCell ref="D360:D364"/>
+    <mergeCell ref="E360:E364"/>
+    <mergeCell ref="F360:F364"/>
+    <mergeCell ref="I360:I364"/>
+    <mergeCell ref="J360:J364"/>
+    <mergeCell ref="I344:I349"/>
+    <mergeCell ref="J344:J349"/>
+    <mergeCell ref="D350:D354"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="I350:I354"/>
+    <mergeCell ref="J350:J354"/>
+    <mergeCell ref="D344:D349"/>
+    <mergeCell ref="E344:E349"/>
+    <mergeCell ref="F344:F349"/>
+    <mergeCell ref="D355:D359"/>
+    <mergeCell ref="E355:E359"/>
+    <mergeCell ref="F355:F359"/>
+    <mergeCell ref="G337:G338"/>
+    <mergeCell ref="I337:I343"/>
+    <mergeCell ref="J337:J343"/>
+    <mergeCell ref="D331:D336"/>
+    <mergeCell ref="E331:E336"/>
+    <mergeCell ref="F331:F336"/>
+    <mergeCell ref="G331:G332"/>
+    <mergeCell ref="I331:I336"/>
+    <mergeCell ref="J331:J336"/>
+    <mergeCell ref="G335:G336"/>
+    <mergeCell ref="G326:G327"/>
+    <mergeCell ref="I326:I330"/>
+    <mergeCell ref="J326:J330"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="E319:E325"/>
+    <mergeCell ref="F319:F325"/>
+    <mergeCell ref="G319:G320"/>
+    <mergeCell ref="I319:I325"/>
+    <mergeCell ref="J319:J325"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="I307:I311"/>
+    <mergeCell ref="J307:J311"/>
+    <mergeCell ref="D312:D318"/>
+    <mergeCell ref="E312:E318"/>
+    <mergeCell ref="F312:F318"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="I312:I318"/>
+    <mergeCell ref="J312:J318"/>
+    <mergeCell ref="A307:A343"/>
+    <mergeCell ref="B307:B343"/>
+    <mergeCell ref="C307:C343"/>
+    <mergeCell ref="D307:D311"/>
+    <mergeCell ref="E307:E311"/>
+    <mergeCell ref="F307:F311"/>
+    <mergeCell ref="A300:A306"/>
+    <mergeCell ref="B300:B306"/>
+    <mergeCell ref="C300:C306"/>
+    <mergeCell ref="D300:D306"/>
+    <mergeCell ref="E300:E306"/>
+    <mergeCell ref="F300:F306"/>
+    <mergeCell ref="D326:D330"/>
+    <mergeCell ref="E326:E330"/>
+    <mergeCell ref="F326:F330"/>
+    <mergeCell ref="D337:D343"/>
+    <mergeCell ref="E337:E343"/>
+    <mergeCell ref="F337:F343"/>
+    <mergeCell ref="I291:I299"/>
+    <mergeCell ref="J291:J299"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="G297:G299"/>
+    <mergeCell ref="G300:G302"/>
+    <mergeCell ref="I300:I306"/>
+    <mergeCell ref="J300:J306"/>
+    <mergeCell ref="G303:G306"/>
+    <mergeCell ref="I283:I290"/>
+    <mergeCell ref="J283:J290"/>
+    <mergeCell ref="G286:G287"/>
+    <mergeCell ref="G288:G290"/>
+    <mergeCell ref="D276:D282"/>
+    <mergeCell ref="E276:E282"/>
+    <mergeCell ref="F276:F282"/>
+    <mergeCell ref="G276:G278"/>
+    <mergeCell ref="I276:I282"/>
+    <mergeCell ref="J276:J282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="I252:I256"/>
+    <mergeCell ref="J252:J256"/>
+    <mergeCell ref="D257:D261"/>
+    <mergeCell ref="E257:E261"/>
+    <mergeCell ref="F257:F261"/>
+    <mergeCell ref="G257:G258"/>
+    <mergeCell ref="I257:I261"/>
+    <mergeCell ref="D268:D275"/>
+    <mergeCell ref="E268:E275"/>
+    <mergeCell ref="F268:F275"/>
+    <mergeCell ref="G268:G270"/>
+    <mergeCell ref="I268:I275"/>
+    <mergeCell ref="J268:J275"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="G273:G275"/>
+    <mergeCell ref="J257:J261"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="D262:D267"/>
+    <mergeCell ref="E262:E267"/>
+    <mergeCell ref="F262:F267"/>
+    <mergeCell ref="I262:I267"/>
+    <mergeCell ref="J262:J267"/>
+    <mergeCell ref="I240:I245"/>
+    <mergeCell ref="J240:J245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="D246:D251"/>
+    <mergeCell ref="E246:E251"/>
+    <mergeCell ref="F246:F251"/>
+    <mergeCell ref="I246:I251"/>
+    <mergeCell ref="J246:J251"/>
+    <mergeCell ref="J232:J239"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="G237:G239"/>
+    <mergeCell ref="A240:A299"/>
+    <mergeCell ref="B240:B299"/>
+    <mergeCell ref="C240:C299"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="E240:E245"/>
+    <mergeCell ref="F240:F245"/>
+    <mergeCell ref="G240:G242"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="E226:E231"/>
+    <mergeCell ref="F226:F231"/>
+    <mergeCell ref="A210:A239"/>
+    <mergeCell ref="B210:B239"/>
+    <mergeCell ref="C210:C239"/>
+    <mergeCell ref="D252:D256"/>
+    <mergeCell ref="E252:E256"/>
+    <mergeCell ref="F252:F256"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="E283:E290"/>
+    <mergeCell ref="F283:F290"/>
+    <mergeCell ref="G283:G285"/>
+    <mergeCell ref="D291:D299"/>
+    <mergeCell ref="E291:E299"/>
+    <mergeCell ref="F291:F299"/>
+    <mergeCell ref="G291:G292"/>
+    <mergeCell ref="I226:I231"/>
+    <mergeCell ref="J226:J231"/>
+    <mergeCell ref="D232:D239"/>
+    <mergeCell ref="E232:E239"/>
+    <mergeCell ref="F232:F239"/>
+    <mergeCell ref="G232:G234"/>
+    <mergeCell ref="I232:I239"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
+    <mergeCell ref="F221:F225"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="I221:I225"/>
+    <mergeCell ref="J221:J225"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="J204:J206"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="I198:I199"/>
+    <mergeCell ref="J198:J199"/>
+    <mergeCell ref="F210:F215"/>
+    <mergeCell ref="I210:I215"/>
+    <mergeCell ref="J210:J215"/>
+    <mergeCell ref="D216:D220"/>
+    <mergeCell ref="E216:E220"/>
+    <mergeCell ref="F216:F220"/>
+    <mergeCell ref="I216:I220"/>
+    <mergeCell ref="J216:J220"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="F207:F209"/>
+    <mergeCell ref="I207:I209"/>
+    <mergeCell ref="J207:J209"/>
+    <mergeCell ref="D210:D215"/>
+    <mergeCell ref="E210:E215"/>
+    <mergeCell ref="A200:A209"/>
+    <mergeCell ref="B200:B209"/>
+    <mergeCell ref="C200:C209"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="E200:E203"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="J187:J191"/>
+    <mergeCell ref="D192:D197"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="F192:F197"/>
+    <mergeCell ref="I192:I197"/>
+    <mergeCell ref="J192:J197"/>
+    <mergeCell ref="A175:A199"/>
+    <mergeCell ref="B175:B199"/>
+    <mergeCell ref="C175:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="I200:I203"/>
+    <mergeCell ref="J200:J203"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="I204:I206"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="D187:D191"/>
+    <mergeCell ref="E187:E191"/>
+    <mergeCell ref="F187:F191"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="I187:I191"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="I175:I180"/>
+    <mergeCell ref="J175:J180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="D181:D186"/>
+    <mergeCell ref="E181:E186"/>
+    <mergeCell ref="F181:F186"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="I181:I186"/>
+    <mergeCell ref="J181:J186"/>
+    <mergeCell ref="D175:D180"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="F175:F180"/>
+    <mergeCell ref="I167:I170"/>
+    <mergeCell ref="J167:J170"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="I171:I174"/>
+    <mergeCell ref="J171:J174"/>
+    <mergeCell ref="I159:I162"/>
+    <mergeCell ref="J159:J162"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="I163:I166"/>
+    <mergeCell ref="J163:J166"/>
+    <mergeCell ref="A159:A174"/>
+    <mergeCell ref="B159:B174"/>
+    <mergeCell ref="C159:C174"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="D167:D170"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="B150:B158"/>
+    <mergeCell ref="C150:C158"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="D154:D158"/>
+    <mergeCell ref="E154:E158"/>
+    <mergeCell ref="F154:F158"/>
+    <mergeCell ref="I154:I158"/>
+    <mergeCell ref="J154:J158"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="A130:A149"/>
+    <mergeCell ref="B130:B149"/>
+    <mergeCell ref="C130:C149"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="C114:C129"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="A83:A113"/>
+    <mergeCell ref="B83:B113"/>
+    <mergeCell ref="C83:C113"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="E83:E89"/>
+    <mergeCell ref="F83:F89"/>
+    <mergeCell ref="D98:D107"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="F98:F107"/>
+    <mergeCell ref="I83:I89"/>
+    <mergeCell ref="J83:J89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="E90:E97"/>
+    <mergeCell ref="F90:F97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="I90:I97"/>
+    <mergeCell ref="J90:J97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I107"/>
+    <mergeCell ref="J98:J107"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C67:C82"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="A42:A66"/>
+    <mergeCell ref="B42:B66"/>
+    <mergeCell ref="C42:C66"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="C27:C41"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I8"/>
     <mergeCell ref="J2:J8"/>
@@ -19734,464 +20198,6 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="A27:A41"/>
-    <mergeCell ref="B27:B41"/>
-    <mergeCell ref="C27:C41"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="A42:A66"/>
-    <mergeCell ref="B42:B66"/>
-    <mergeCell ref="C42:C66"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="J57:J62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="C67:C82"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="A83:A113"/>
-    <mergeCell ref="B83:B113"/>
-    <mergeCell ref="C83:C113"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="E83:E89"/>
-    <mergeCell ref="F83:F89"/>
-    <mergeCell ref="D98:D107"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="F98:F107"/>
-    <mergeCell ref="I83:I89"/>
-    <mergeCell ref="J83:J89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="E90:E97"/>
-    <mergeCell ref="F90:F97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="I90:I97"/>
-    <mergeCell ref="J90:J97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I107"/>
-    <mergeCell ref="J98:J107"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="B114:B129"/>
-    <mergeCell ref="C114:C129"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="A130:A149"/>
-    <mergeCell ref="B130:B149"/>
-    <mergeCell ref="C130:C149"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="B150:B158"/>
-    <mergeCell ref="C150:C158"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F153"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="D154:D158"/>
-    <mergeCell ref="E154:E158"/>
-    <mergeCell ref="F154:F158"/>
-    <mergeCell ref="I154:I158"/>
-    <mergeCell ref="J154:J158"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="A159:A174"/>
-    <mergeCell ref="B159:B174"/>
-    <mergeCell ref="C159:C174"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="D167:D170"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="I167:I170"/>
-    <mergeCell ref="J167:J170"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="I171:I174"/>
-    <mergeCell ref="J171:J174"/>
-    <mergeCell ref="I159:I162"/>
-    <mergeCell ref="J159:J162"/>
-    <mergeCell ref="D163:D166"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="I163:I166"/>
-    <mergeCell ref="J163:J166"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="D187:D191"/>
-    <mergeCell ref="E187:E191"/>
-    <mergeCell ref="F187:F191"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="I187:I191"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="I175:I180"/>
-    <mergeCell ref="J175:J180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="D181:D186"/>
-    <mergeCell ref="E181:E186"/>
-    <mergeCell ref="F181:F186"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="I181:I186"/>
-    <mergeCell ref="J181:J186"/>
-    <mergeCell ref="D175:D180"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="F175:F180"/>
-    <mergeCell ref="A200:A209"/>
-    <mergeCell ref="B200:B209"/>
-    <mergeCell ref="C200:C209"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="E200:E203"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="J187:J191"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="E192:E197"/>
-    <mergeCell ref="F192:F197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="J192:J197"/>
-    <mergeCell ref="A175:A199"/>
-    <mergeCell ref="B175:B199"/>
-    <mergeCell ref="C175:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="I200:I203"/>
-    <mergeCell ref="J200:J203"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="E204:E206"/>
-    <mergeCell ref="F204:F206"/>
-    <mergeCell ref="I204:I206"/>
-    <mergeCell ref="J204:J206"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="I198:I199"/>
-    <mergeCell ref="J198:J199"/>
-    <mergeCell ref="F210:F215"/>
-    <mergeCell ref="I210:I215"/>
-    <mergeCell ref="J210:J215"/>
-    <mergeCell ref="D216:D220"/>
-    <mergeCell ref="E216:E220"/>
-    <mergeCell ref="F216:F220"/>
-    <mergeCell ref="I216:I220"/>
-    <mergeCell ref="J216:J220"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="F207:F209"/>
-    <mergeCell ref="I207:I209"/>
-    <mergeCell ref="J207:J209"/>
-    <mergeCell ref="D210:D215"/>
-    <mergeCell ref="E210:E215"/>
-    <mergeCell ref="I226:I231"/>
-    <mergeCell ref="J226:J231"/>
-    <mergeCell ref="D232:D239"/>
-    <mergeCell ref="E232:E239"/>
-    <mergeCell ref="F232:F239"/>
-    <mergeCell ref="G232:G234"/>
-    <mergeCell ref="I232:I239"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="F221:F225"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="J221:J225"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="A240:A299"/>
-    <mergeCell ref="B240:B299"/>
-    <mergeCell ref="C240:C299"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="E240:E245"/>
-    <mergeCell ref="F240:F245"/>
-    <mergeCell ref="G240:G242"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="E226:E231"/>
-    <mergeCell ref="F226:F231"/>
-    <mergeCell ref="A210:A239"/>
-    <mergeCell ref="B210:B239"/>
-    <mergeCell ref="C210:C239"/>
-    <mergeCell ref="I240:I245"/>
-    <mergeCell ref="J240:J245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="D246:D251"/>
-    <mergeCell ref="E246:E251"/>
-    <mergeCell ref="F246:F251"/>
-    <mergeCell ref="I246:I251"/>
-    <mergeCell ref="J246:J251"/>
-    <mergeCell ref="J232:J239"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="G237:G239"/>
-    <mergeCell ref="D252:D256"/>
-    <mergeCell ref="E252:E256"/>
-    <mergeCell ref="F252:F256"/>
-    <mergeCell ref="I252:I256"/>
-    <mergeCell ref="J252:J256"/>
-    <mergeCell ref="D257:D261"/>
-    <mergeCell ref="E257:E261"/>
-    <mergeCell ref="F257:F261"/>
-    <mergeCell ref="G257:G258"/>
-    <mergeCell ref="I257:I261"/>
-    <mergeCell ref="D268:D275"/>
-    <mergeCell ref="E268:E275"/>
-    <mergeCell ref="F268:F275"/>
-    <mergeCell ref="G268:G270"/>
-    <mergeCell ref="I268:I275"/>
-    <mergeCell ref="J268:J275"/>
-    <mergeCell ref="G271:G272"/>
-    <mergeCell ref="G273:G275"/>
-    <mergeCell ref="J257:J261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="D262:D267"/>
-    <mergeCell ref="E262:E267"/>
-    <mergeCell ref="F262:F267"/>
-    <mergeCell ref="I262:I267"/>
-    <mergeCell ref="J262:J267"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="E283:E290"/>
-    <mergeCell ref="F283:F290"/>
-    <mergeCell ref="G283:G285"/>
-    <mergeCell ref="I283:I290"/>
-    <mergeCell ref="J283:J290"/>
-    <mergeCell ref="G286:G287"/>
-    <mergeCell ref="G288:G290"/>
-    <mergeCell ref="D276:D282"/>
-    <mergeCell ref="E276:E282"/>
-    <mergeCell ref="F276:F282"/>
-    <mergeCell ref="G276:G278"/>
-    <mergeCell ref="I276:I282"/>
-    <mergeCell ref="J276:J282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="D291:D299"/>
-    <mergeCell ref="E291:E299"/>
-    <mergeCell ref="F291:F299"/>
-    <mergeCell ref="G291:G292"/>
-    <mergeCell ref="I291:I299"/>
-    <mergeCell ref="J291:J299"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="G297:G299"/>
-    <mergeCell ref="G300:G302"/>
-    <mergeCell ref="I300:I306"/>
-    <mergeCell ref="J300:J306"/>
-    <mergeCell ref="G303:G306"/>
-    <mergeCell ref="A307:A343"/>
-    <mergeCell ref="B307:B343"/>
-    <mergeCell ref="C307:C343"/>
-    <mergeCell ref="D307:D311"/>
-    <mergeCell ref="E307:E311"/>
-    <mergeCell ref="F307:F311"/>
-    <mergeCell ref="A300:A306"/>
-    <mergeCell ref="B300:B306"/>
-    <mergeCell ref="C300:C306"/>
-    <mergeCell ref="D300:D306"/>
-    <mergeCell ref="E300:E306"/>
-    <mergeCell ref="F300:F306"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="I307:I311"/>
-    <mergeCell ref="J307:J311"/>
-    <mergeCell ref="D312:D318"/>
-    <mergeCell ref="E312:E318"/>
-    <mergeCell ref="F312:F318"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="I312:I318"/>
-    <mergeCell ref="J312:J318"/>
-    <mergeCell ref="D326:D330"/>
-    <mergeCell ref="E326:E330"/>
-    <mergeCell ref="F326:F330"/>
-    <mergeCell ref="G326:G327"/>
-    <mergeCell ref="I326:I330"/>
-    <mergeCell ref="J326:J330"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="E319:E325"/>
-    <mergeCell ref="F319:F325"/>
-    <mergeCell ref="G319:G320"/>
-    <mergeCell ref="I319:I325"/>
-    <mergeCell ref="J319:J325"/>
-    <mergeCell ref="D337:D343"/>
-    <mergeCell ref="E337:E343"/>
-    <mergeCell ref="F337:F343"/>
-    <mergeCell ref="G337:G338"/>
-    <mergeCell ref="I337:I343"/>
-    <mergeCell ref="J337:J343"/>
-    <mergeCell ref="D331:D336"/>
-    <mergeCell ref="E331:E336"/>
-    <mergeCell ref="F331:F336"/>
-    <mergeCell ref="G331:G332"/>
-    <mergeCell ref="I331:I336"/>
-    <mergeCell ref="J331:J336"/>
-    <mergeCell ref="G335:G336"/>
-    <mergeCell ref="I355:I359"/>
-    <mergeCell ref="J355:J359"/>
-    <mergeCell ref="D360:D364"/>
-    <mergeCell ref="E360:E364"/>
-    <mergeCell ref="F360:F364"/>
-    <mergeCell ref="I360:I364"/>
-    <mergeCell ref="J360:J364"/>
-    <mergeCell ref="I344:I349"/>
-    <mergeCell ref="J344:J349"/>
-    <mergeCell ref="D350:D354"/>
-    <mergeCell ref="E350:E354"/>
-    <mergeCell ref="F350:F354"/>
-    <mergeCell ref="I350:I354"/>
-    <mergeCell ref="J350:J354"/>
-    <mergeCell ref="D344:D349"/>
-    <mergeCell ref="E344:E349"/>
-    <mergeCell ref="F344:F349"/>
-    <mergeCell ref="D355:D359"/>
-    <mergeCell ref="E355:E359"/>
-    <mergeCell ref="F355:F359"/>
-    <mergeCell ref="E365:E368"/>
-    <mergeCell ref="F365:F368"/>
-    <mergeCell ref="I365:I368"/>
-    <mergeCell ref="J365:J368"/>
-    <mergeCell ref="A369:A374"/>
-    <mergeCell ref="B369:B374"/>
-    <mergeCell ref="C369:C374"/>
-    <mergeCell ref="D369:D374"/>
-    <mergeCell ref="E369:E374"/>
-    <mergeCell ref="F369:F374"/>
-    <mergeCell ref="A344:A368"/>
-    <mergeCell ref="B344:B368"/>
-    <mergeCell ref="C344:C368"/>
-    <mergeCell ref="D365:D368"/>
-    <mergeCell ref="I369:I374"/>
-    <mergeCell ref="J369:J374"/>
-    <mergeCell ref="A375:A386"/>
-    <mergeCell ref="B375:B386"/>
-    <mergeCell ref="C375:C386"/>
-    <mergeCell ref="D375:D378"/>
-    <mergeCell ref="E375:E378"/>
-    <mergeCell ref="F375:F378"/>
-    <mergeCell ref="I375:I378"/>
-    <mergeCell ref="J375:J378"/>
-    <mergeCell ref="D379:D382"/>
-    <mergeCell ref="E379:E382"/>
-    <mergeCell ref="F379:F382"/>
-    <mergeCell ref="I379:I382"/>
-    <mergeCell ref="J379:J382"/>
-    <mergeCell ref="D383:D386"/>
-    <mergeCell ref="E383:E386"/>
-    <mergeCell ref="F383:F386"/>
-    <mergeCell ref="I383:I386"/>
-    <mergeCell ref="J383:J386"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{470DEFE6-E68E-4F3B-980F-BDA990558C2E}"/>
@@ -20361,7 +20367,7 @@
       <c r="F2" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -20379,7 +20385,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="47"/>
       <c r="F3" s="44"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="42" t="s">
         <v>273</v>
       </c>
@@ -20393,7 +20399,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="47"/>
       <c r="F4" s="44"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="42" t="s">
         <v>274</v>
       </c>
@@ -20407,7 +20413,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="47"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="42" t="s">
@@ -20423,7 +20429,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="47"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="42" t="s">
         <v>276</v>
       </c>
@@ -20437,7 +20443,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="47"/>
       <c r="F7" s="44"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="42" t="s">
@@ -20453,7 +20459,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="47"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="42" t="s">
         <v>278</v>
       </c>
@@ -20505,7 +20511,7 @@
       <c r="F11" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -20523,7 +20529,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="47"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="53"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="42" t="s">
         <v>282</v>
       </c>
@@ -20607,7 +20613,7 @@
       <c r="F17" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="40" t="s">
@@ -20625,7 +20631,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="47"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="42" t="s">
         <v>287</v>
       </c>
@@ -20693,7 +20699,7 @@
       <c r="F22" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -20711,7 +20717,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="47"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="42" t="s">
         <v>289</v>
       </c>
@@ -20773,7 +20779,7 @@
       <c r="D27" s="44"/>
       <c r="E27" s="47"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="42" t="s">
@@ -20789,7 +20795,7 @@
       <c r="D28" s="44"/>
       <c r="E28" s="47"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="42" t="s">
         <v>280</v>
       </c>
@@ -20951,10 +20957,10 @@
       <c r="F37" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="64" t="s">
         <v>912</v>
       </c>
       <c r="I37" s="49">
@@ -20969,7 +20975,7 @@
       <c r="D38" s="44"/>
       <c r="E38" s="47"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="53"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="72"/>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -20981,8 +20987,8 @@
       <c r="D39" s="45"/>
       <c r="E39" s="48"/>
       <c r="F39" s="45"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="62"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
     </row>
@@ -20999,10 +21005,10 @@
       <c r="F40" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="64" t="s">
         <v>913</v>
       </c>
       <c r="I40" s="49">
@@ -21017,7 +21023,7 @@
       <c r="D41" s="44"/>
       <c r="E41" s="47"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="53"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="72"/>
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
@@ -21029,8 +21035,8 @@
       <c r="D42" s="45"/>
       <c r="E42" s="48"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="62"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
     </row>
@@ -21047,10 +21053,10 @@
       <c r="F43" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="64" t="s">
         <v>914</v>
       </c>
       <c r="I43" s="49">
@@ -21065,7 +21071,7 @@
       <c r="D44" s="44"/>
       <c r="E44" s="47"/>
       <c r="F44" s="44"/>
-      <c r="G44" s="53"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="72"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
@@ -21077,8 +21083,8 @@
       <c r="D45" s="45"/>
       <c r="E45" s="48"/>
       <c r="F45" s="45"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="62"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="65"/>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
     </row>
@@ -21095,10 +21101,10 @@
       <c r="F46" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="64" t="s">
         <v>921</v>
       </c>
       <c r="I46" s="49">
@@ -21113,7 +21119,7 @@
       <c r="D47" s="44"/>
       <c r="E47" s="47"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="53"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="72"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
@@ -21125,8 +21131,8 @@
       <c r="D48" s="45"/>
       <c r="E48" s="48"/>
       <c r="F48" s="45"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="62"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
     </row>
@@ -21143,10 +21149,10 @@
       <c r="F49" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="64" t="s">
         <v>916</v>
       </c>
       <c r="I49" s="49">
@@ -21161,7 +21167,7 @@
       <c r="D50" s="44"/>
       <c r="E50" s="47"/>
       <c r="F50" s="44"/>
-      <c r="G50" s="53"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="72"/>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
@@ -21173,8 +21179,8 @@
       <c r="D51" s="45"/>
       <c r="E51" s="48"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="62"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="65"/>
       <c r="I51" s="51"/>
       <c r="J51" s="51"/>
     </row>
@@ -22139,7 +22145,7 @@
       <c r="F104" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G104" s="52" t="s">
+      <c r="G104" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H104" s="40" t="s">
@@ -22157,7 +22163,7 @@
       <c r="D105" s="44"/>
       <c r="E105" s="47"/>
       <c r="F105" s="44"/>
-      <c r="G105" s="53"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="42" t="s">
         <v>506</v>
       </c>
@@ -22567,7 +22573,7 @@
       <c r="F128" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G128" s="52" t="s">
+      <c r="G128" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H128" s="40" t="s">
@@ -22585,7 +22591,7 @@
       <c r="D129" s="44"/>
       <c r="E129" s="47"/>
       <c r="F129" s="44"/>
-      <c r="G129" s="53"/>
+      <c r="G129" s="55"/>
       <c r="H129" s="42" t="s">
         <v>506</v>
       </c>
@@ -23075,7 +23081,7 @@
       <c r="D156" s="44"/>
       <c r="E156" s="47"/>
       <c r="F156" s="44"/>
-      <c r="G156" s="53" t="s">
+      <c r="G156" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H156" s="42" t="s">
@@ -23091,7 +23097,7 @@
       <c r="D157" s="45"/>
       <c r="E157" s="48"/>
       <c r="F157" s="45"/>
-      <c r="G157" s="57"/>
+      <c r="G157" s="56"/>
       <c r="H157" s="41" t="s">
         <v>566</v>
       </c>
@@ -23509,10 +23515,10 @@
       <c r="F180" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G180" s="52" t="s">
+      <c r="G180" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H180" s="61" t="s">
+      <c r="H180" s="64" t="s">
         <v>1318</v>
       </c>
       <c r="I180" s="49">
@@ -23527,8 +23533,8 @@
       <c r="D181" s="45"/>
       <c r="E181" s="48"/>
       <c r="F181" s="45"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="62"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="65"/>
       <c r="I181" s="51"/>
       <c r="J181" s="51"/>
     </row>
@@ -23545,7 +23551,7 @@
       <c r="F182" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G182" s="52" t="s">
+      <c r="G182" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H182" s="40" t="s">
@@ -23563,7 +23569,7 @@
       <c r="D183" s="44"/>
       <c r="E183" s="47"/>
       <c r="F183" s="44"/>
-      <c r="G183" s="53"/>
+      <c r="G183" s="55"/>
       <c r="H183" s="42" t="s">
         <v>1321</v>
       </c>
@@ -23641,7 +23647,7 @@
       <c r="D188" s="44"/>
       <c r="E188" s="47"/>
       <c r="F188" s="44"/>
-      <c r="G188" s="53" t="s">
+      <c r="G188" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H188" s="42" t="s">
@@ -23657,7 +23663,7 @@
       <c r="D189" s="45"/>
       <c r="E189" s="48"/>
       <c r="F189" s="45"/>
-      <c r="G189" s="57"/>
+      <c r="G189" s="56"/>
       <c r="H189" s="41" t="s">
         <v>1326</v>
       </c>
@@ -25005,8 +25011,12 @@
       <c r="J265" s="51"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="69"/>
-      <c r="B266" s="46"/>
+      <c r="A266" s="69" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B266" s="46" t="s">
+        <v>1988</v>
+      </c>
       <c r="C266" s="69">
         <v>8</v>
       </c>
@@ -25801,7 +25811,7 @@
       <c r="F310" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G310" s="52" t="s">
+      <c r="G310" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H310" s="40" t="s">
@@ -25819,7 +25829,7 @@
       <c r="D311" s="44"/>
       <c r="E311" s="47"/>
       <c r="F311" s="44"/>
-      <c r="G311" s="53"/>
+      <c r="G311" s="55"/>
       <c r="H311" s="42" t="s">
         <v>583</v>
       </c>
@@ -25833,7 +25843,7 @@
       <c r="D312" s="44"/>
       <c r="E312" s="47"/>
       <c r="F312" s="44"/>
-      <c r="G312" s="53" t="s">
+      <c r="G312" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H312" s="42" t="s">
@@ -25849,7 +25859,7 @@
       <c r="D313" s="44"/>
       <c r="E313" s="47"/>
       <c r="F313" s="44"/>
-      <c r="G313" s="53"/>
+      <c r="G313" s="55"/>
       <c r="H313" s="42" t="s">
         <v>585</v>
       </c>
@@ -25863,7 +25873,7 @@
       <c r="D314" s="44"/>
       <c r="E314" s="47"/>
       <c r="F314" s="44"/>
-      <c r="G314" s="53" t="s">
+      <c r="G314" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H314" s="42" t="s">
@@ -25879,7 +25889,7 @@
       <c r="D315" s="45"/>
       <c r="E315" s="48"/>
       <c r="F315" s="45"/>
-      <c r="G315" s="57"/>
+      <c r="G315" s="56"/>
       <c r="H315" s="41" t="s">
         <v>587</v>
       </c>
@@ -26089,7 +26099,7 @@
       <c r="F326" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G326" s="52" t="s">
+      <c r="G326" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H326" s="40" t="s">
@@ -26107,7 +26117,7 @@
       <c r="D327" s="44"/>
       <c r="E327" s="47"/>
       <c r="F327" s="44"/>
-      <c r="G327" s="53"/>
+      <c r="G327" s="55"/>
       <c r="H327" s="42" t="s">
         <v>583</v>
       </c>
@@ -26121,7 +26131,7 @@
       <c r="D328" s="44"/>
       <c r="E328" s="47"/>
       <c r="F328" s="44"/>
-      <c r="G328" s="53" t="s">
+      <c r="G328" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H328" s="42" t="s">
@@ -26137,7 +26147,7 @@
       <c r="D329" s="44"/>
       <c r="E329" s="47"/>
       <c r="F329" s="44"/>
-      <c r="G329" s="53"/>
+      <c r="G329" s="55"/>
       <c r="H329" s="42" t="s">
         <v>585</v>
       </c>
@@ -26151,7 +26161,7 @@
       <c r="D330" s="44"/>
       <c r="E330" s="47"/>
       <c r="F330" s="44"/>
-      <c r="G330" s="53" t="s">
+      <c r="G330" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H330" s="42" t="s">
@@ -26167,7 +26177,7 @@
       <c r="D331" s="45"/>
       <c r="E331" s="48"/>
       <c r="F331" s="45"/>
-      <c r="G331" s="57"/>
+      <c r="G331" s="56"/>
       <c r="H331" s="41" t="s">
         <v>587</v>
       </c>
@@ -27544,45 +27554,448 @@
     </row>
   </sheetData>
   <mergeCells count="505">
-    <mergeCell ref="J145:J148"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="I149:I152"/>
-    <mergeCell ref="J149:J152"/>
-    <mergeCell ref="I137:I140"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="I141:I144"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="I145:I148"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="J22:J28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="D297:D300"/>
+    <mergeCell ref="E297:E300"/>
+    <mergeCell ref="F297:F300"/>
+    <mergeCell ref="I297:I300"/>
+    <mergeCell ref="J297:J300"/>
+    <mergeCell ref="D301:D306"/>
+    <mergeCell ref="E301:E306"/>
+    <mergeCell ref="F301:F306"/>
+    <mergeCell ref="I301:I306"/>
+    <mergeCell ref="J301:J306"/>
+    <mergeCell ref="D285:D290"/>
+    <mergeCell ref="E285:E290"/>
+    <mergeCell ref="F285:F290"/>
+    <mergeCell ref="I285:I290"/>
+    <mergeCell ref="J285:J290"/>
+    <mergeCell ref="D291:D296"/>
+    <mergeCell ref="E291:E296"/>
+    <mergeCell ref="F291:F296"/>
+    <mergeCell ref="I291:I296"/>
+    <mergeCell ref="J291:J296"/>
+    <mergeCell ref="D276:D279"/>
+    <mergeCell ref="E276:E279"/>
+    <mergeCell ref="F276:F279"/>
+    <mergeCell ref="I276:I279"/>
+    <mergeCell ref="J276:J279"/>
+    <mergeCell ref="D280:D284"/>
+    <mergeCell ref="E280:E284"/>
+    <mergeCell ref="F280:F284"/>
+    <mergeCell ref="I280:I284"/>
+    <mergeCell ref="J280:J284"/>
+    <mergeCell ref="D266:D270"/>
+    <mergeCell ref="E266:E270"/>
+    <mergeCell ref="F266:F270"/>
+    <mergeCell ref="I266:I270"/>
+    <mergeCell ref="J266:J270"/>
+    <mergeCell ref="D271:D275"/>
+    <mergeCell ref="E271:E275"/>
+    <mergeCell ref="F271:F275"/>
+    <mergeCell ref="I271:I275"/>
+    <mergeCell ref="J271:J275"/>
+    <mergeCell ref="J398:J401"/>
+    <mergeCell ref="D389:D393"/>
+    <mergeCell ref="E389:E393"/>
+    <mergeCell ref="F389:F393"/>
+    <mergeCell ref="I389:I393"/>
+    <mergeCell ref="J389:J393"/>
+    <mergeCell ref="J381:J384"/>
+    <mergeCell ref="D385:D388"/>
+    <mergeCell ref="E385:E388"/>
+    <mergeCell ref="F385:F388"/>
+    <mergeCell ref="I385:I388"/>
+    <mergeCell ref="J385:J388"/>
+    <mergeCell ref="D394:D397"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="I394:I397"/>
+    <mergeCell ref="J394:J397"/>
+    <mergeCell ref="A381:A401"/>
+    <mergeCell ref="B381:B401"/>
+    <mergeCell ref="C381:C401"/>
+    <mergeCell ref="D381:D384"/>
+    <mergeCell ref="E381:E384"/>
+    <mergeCell ref="F381:F384"/>
+    <mergeCell ref="I381:I384"/>
+    <mergeCell ref="D398:D401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="I398:I401"/>
+    <mergeCell ref="J171:J174"/>
+    <mergeCell ref="D175:D179"/>
+    <mergeCell ref="E175:E179"/>
+    <mergeCell ref="F175:F179"/>
+    <mergeCell ref="I175:I179"/>
+    <mergeCell ref="J175:J179"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="I171:I174"/>
+    <mergeCell ref="D223:D227"/>
+    <mergeCell ref="E223:E227"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="I223:I227"/>
+    <mergeCell ref="D242:D247"/>
+    <mergeCell ref="E242:E247"/>
+    <mergeCell ref="F242:F247"/>
+    <mergeCell ref="J190:J195"/>
+    <mergeCell ref="D182:D189"/>
+    <mergeCell ref="E182:E189"/>
+    <mergeCell ref="F182:F189"/>
+    <mergeCell ref="I182:I189"/>
+    <mergeCell ref="J182:J189"/>
+    <mergeCell ref="I190:I195"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="D190:D195"/>
+    <mergeCell ref="E190:E195"/>
+    <mergeCell ref="J242:J247"/>
+    <mergeCell ref="F190:F195"/>
+    <mergeCell ref="E237:E241"/>
+    <mergeCell ref="F237:F241"/>
+    <mergeCell ref="I237:I241"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="F255:F259"/>
+    <mergeCell ref="I255:I259"/>
+    <mergeCell ref="J255:J259"/>
+    <mergeCell ref="I242:I247"/>
+    <mergeCell ref="J223:J227"/>
+    <mergeCell ref="F248:F254"/>
+    <mergeCell ref="I248:I254"/>
+    <mergeCell ref="J248:J254"/>
+    <mergeCell ref="E255:E259"/>
+    <mergeCell ref="D248:D254"/>
+    <mergeCell ref="E248:E254"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="F165:F170"/>
+    <mergeCell ref="I165:I170"/>
+    <mergeCell ref="J165:J170"/>
+    <mergeCell ref="D260:D265"/>
+    <mergeCell ref="E260:E265"/>
+    <mergeCell ref="F260:F265"/>
+    <mergeCell ref="I260:I265"/>
+    <mergeCell ref="J260:J265"/>
+    <mergeCell ref="D228:D232"/>
+    <mergeCell ref="E228:E232"/>
+    <mergeCell ref="F228:F232"/>
+    <mergeCell ref="I228:I232"/>
+    <mergeCell ref="J228:J232"/>
+    <mergeCell ref="D233:D236"/>
+    <mergeCell ref="E233:E236"/>
+    <mergeCell ref="F233:F236"/>
+    <mergeCell ref="I233:I236"/>
+    <mergeCell ref="J233:J236"/>
+    <mergeCell ref="D237:D241"/>
+    <mergeCell ref="D196:D200"/>
+    <mergeCell ref="J307:J309"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="I153:I157"/>
+    <mergeCell ref="J153:J157"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="E153:E157"/>
+    <mergeCell ref="F153:F157"/>
+    <mergeCell ref="D255:D259"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="I316:I318"/>
+    <mergeCell ref="J316:J318"/>
+    <mergeCell ref="D319:D322"/>
+    <mergeCell ref="E319:E322"/>
+    <mergeCell ref="F319:F322"/>
+    <mergeCell ref="I319:I322"/>
+    <mergeCell ref="J319:J322"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="J116:J119"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="I120:I123"/>
+    <mergeCell ref="J120:J123"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="I124:I127"/>
+    <mergeCell ref="J124:J127"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="I128:I132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="I307:I309"/>
+    <mergeCell ref="D316:D318"/>
+    <mergeCell ref="E316:E318"/>
+    <mergeCell ref="F316:F318"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="F109:F115"/>
+    <mergeCell ref="I109:I115"/>
+    <mergeCell ref="J109:J115"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="D310:D315"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="F310:F315"/>
+    <mergeCell ref="G310:G311"/>
+    <mergeCell ref="I310:I315"/>
+    <mergeCell ref="J310:J315"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="E307:E309"/>
+    <mergeCell ref="F307:F309"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="D360:D364"/>
+    <mergeCell ref="E360:E364"/>
+    <mergeCell ref="F360:F364"/>
+    <mergeCell ref="I360:I364"/>
+    <mergeCell ref="J360:J364"/>
+    <mergeCell ref="D354:D359"/>
+    <mergeCell ref="E354:E359"/>
+    <mergeCell ref="F354:F359"/>
+    <mergeCell ref="I354:I359"/>
+    <mergeCell ref="J354:J359"/>
+    <mergeCell ref="D351:D353"/>
+    <mergeCell ref="E351:E353"/>
+    <mergeCell ref="F351:F353"/>
+    <mergeCell ref="I351:I353"/>
+    <mergeCell ref="J351:J353"/>
+    <mergeCell ref="I340:I343"/>
+    <mergeCell ref="J340:J343"/>
+    <mergeCell ref="D344:D350"/>
+    <mergeCell ref="E344:E350"/>
+    <mergeCell ref="F344:F350"/>
+    <mergeCell ref="I344:I350"/>
+    <mergeCell ref="J344:J350"/>
+    <mergeCell ref="G328:G329"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="D335:D339"/>
+    <mergeCell ref="E335:E339"/>
+    <mergeCell ref="F335:F339"/>
+    <mergeCell ref="I335:I339"/>
+    <mergeCell ref="J335:J339"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="E332:E334"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="A323:A364"/>
+    <mergeCell ref="B323:B364"/>
+    <mergeCell ref="D323:D325"/>
+    <mergeCell ref="E323:E325"/>
+    <mergeCell ref="F323:F325"/>
+    <mergeCell ref="D340:D343"/>
+    <mergeCell ref="E340:E343"/>
+    <mergeCell ref="F340:F343"/>
+    <mergeCell ref="I323:I325"/>
+    <mergeCell ref="J323:J325"/>
+    <mergeCell ref="D326:D331"/>
+    <mergeCell ref="E326:E331"/>
+    <mergeCell ref="F326:F331"/>
+    <mergeCell ref="G326:G327"/>
+    <mergeCell ref="A72:A115"/>
+    <mergeCell ref="B72:B115"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="I326:I331"/>
+    <mergeCell ref="J326:J331"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="C52:C71"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A365:A380"/>
+    <mergeCell ref="B365:B380"/>
+    <mergeCell ref="D365:D368"/>
+    <mergeCell ref="E365:E368"/>
+    <mergeCell ref="F365:F368"/>
+    <mergeCell ref="D373:D376"/>
+    <mergeCell ref="E373:E376"/>
+    <mergeCell ref="F373:F376"/>
+    <mergeCell ref="C365:C380"/>
+    <mergeCell ref="I373:I376"/>
+    <mergeCell ref="J373:J376"/>
+    <mergeCell ref="D377:D380"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="F377:F380"/>
+    <mergeCell ref="I377:I380"/>
+    <mergeCell ref="J377:J380"/>
+    <mergeCell ref="I365:I368"/>
+    <mergeCell ref="J365:J368"/>
+    <mergeCell ref="D369:D372"/>
+    <mergeCell ref="E369:E372"/>
+    <mergeCell ref="F369:F372"/>
+    <mergeCell ref="I369:I372"/>
+    <mergeCell ref="J369:J372"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="B37:B51"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="C37:C51"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="C72:C115"/>
+    <mergeCell ref="C116:C136"/>
+    <mergeCell ref="C153:C170"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="C223:C265"/>
+    <mergeCell ref="C307:C322"/>
+    <mergeCell ref="C323:C364"/>
+    <mergeCell ref="A307:A322"/>
+    <mergeCell ref="B307:B322"/>
+    <mergeCell ref="A116:A136"/>
+    <mergeCell ref="B116:B136"/>
+    <mergeCell ref="A153:A170"/>
+    <mergeCell ref="B153:B170"/>
+    <mergeCell ref="A223:A265"/>
+    <mergeCell ref="B223:B265"/>
+    <mergeCell ref="A171:A195"/>
+    <mergeCell ref="B171:B195"/>
+    <mergeCell ref="C171:C195"/>
+    <mergeCell ref="A266:A306"/>
+    <mergeCell ref="B266:B306"/>
+    <mergeCell ref="C266:C306"/>
+    <mergeCell ref="C137:C152"/>
+    <mergeCell ref="A137:A152"/>
+    <mergeCell ref="B137:B152"/>
+    <mergeCell ref="E196:E200"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="I196:I200"/>
+    <mergeCell ref="J196:J200"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F201:F206"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="J201:J206"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="J207:J212"/>
+    <mergeCell ref="D213:D216"/>
+    <mergeCell ref="E213:E216"/>
+    <mergeCell ref="F213:F216"/>
+    <mergeCell ref="I213:I216"/>
+    <mergeCell ref="J213:J216"/>
     <mergeCell ref="D217:D222"/>
     <mergeCell ref="E217:E222"/>
     <mergeCell ref="F217:F222"/>
@@ -27607,448 +28020,45 @@
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="E2:E10"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="J207:J212"/>
-    <mergeCell ref="D213:D216"/>
-    <mergeCell ref="E213:E216"/>
-    <mergeCell ref="F213:F216"/>
-    <mergeCell ref="I213:I216"/>
-    <mergeCell ref="J213:J216"/>
-    <mergeCell ref="E196:E200"/>
-    <mergeCell ref="F196:F200"/>
-    <mergeCell ref="I196:I200"/>
-    <mergeCell ref="J196:J200"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="F201:F206"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="J201:J206"/>
-    <mergeCell ref="C223:C265"/>
-    <mergeCell ref="C307:C322"/>
-    <mergeCell ref="C323:C364"/>
-    <mergeCell ref="A307:A322"/>
-    <mergeCell ref="B307:B322"/>
-    <mergeCell ref="A116:A136"/>
-    <mergeCell ref="B116:B136"/>
-    <mergeCell ref="A153:A170"/>
-    <mergeCell ref="B153:B170"/>
-    <mergeCell ref="A223:A265"/>
-    <mergeCell ref="B223:B265"/>
-    <mergeCell ref="A171:A195"/>
-    <mergeCell ref="B171:B195"/>
-    <mergeCell ref="C171:C195"/>
-    <mergeCell ref="A266:A306"/>
-    <mergeCell ref="B266:B306"/>
-    <mergeCell ref="C266:C306"/>
-    <mergeCell ref="C137:C152"/>
-    <mergeCell ref="A137:A152"/>
-    <mergeCell ref="B137:B152"/>
-    <mergeCell ref="C72:C115"/>
-    <mergeCell ref="C116:C136"/>
-    <mergeCell ref="C153:C170"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="E116:E119"/>
-    <mergeCell ref="F116:F119"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="B37:B51"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C37:C51"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="I373:I376"/>
-    <mergeCell ref="J373:J376"/>
-    <mergeCell ref="D377:D380"/>
-    <mergeCell ref="E377:E380"/>
-    <mergeCell ref="F377:F380"/>
-    <mergeCell ref="I377:I380"/>
-    <mergeCell ref="J377:J380"/>
-    <mergeCell ref="I365:I368"/>
-    <mergeCell ref="J365:J368"/>
-    <mergeCell ref="D369:D372"/>
-    <mergeCell ref="E369:E372"/>
-    <mergeCell ref="F369:F372"/>
-    <mergeCell ref="I369:I372"/>
-    <mergeCell ref="J369:J372"/>
-    <mergeCell ref="A365:A380"/>
-    <mergeCell ref="B365:B380"/>
-    <mergeCell ref="D365:D368"/>
-    <mergeCell ref="E365:E368"/>
-    <mergeCell ref="F365:F368"/>
-    <mergeCell ref="D373:D376"/>
-    <mergeCell ref="E373:E376"/>
-    <mergeCell ref="F373:F376"/>
-    <mergeCell ref="C365:C380"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="C52:C71"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="A323:A364"/>
-    <mergeCell ref="B323:B364"/>
-    <mergeCell ref="D323:D325"/>
-    <mergeCell ref="E323:E325"/>
-    <mergeCell ref="F323:F325"/>
-    <mergeCell ref="D340:D343"/>
-    <mergeCell ref="E340:E343"/>
-    <mergeCell ref="F340:F343"/>
-    <mergeCell ref="I323:I325"/>
-    <mergeCell ref="J323:J325"/>
-    <mergeCell ref="D326:D331"/>
-    <mergeCell ref="E326:E331"/>
-    <mergeCell ref="F326:F331"/>
-    <mergeCell ref="G326:G327"/>
-    <mergeCell ref="A72:A115"/>
-    <mergeCell ref="B72:B115"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="I326:I331"/>
-    <mergeCell ref="J326:J331"/>
-    <mergeCell ref="G328:G329"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="D335:D339"/>
-    <mergeCell ref="E335:E339"/>
-    <mergeCell ref="F335:F339"/>
-    <mergeCell ref="I335:I339"/>
-    <mergeCell ref="J335:J339"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="E332:E334"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="D351:D353"/>
-    <mergeCell ref="E351:E353"/>
-    <mergeCell ref="F351:F353"/>
-    <mergeCell ref="I351:I353"/>
-    <mergeCell ref="J351:J353"/>
-    <mergeCell ref="I340:I343"/>
-    <mergeCell ref="J340:J343"/>
-    <mergeCell ref="D344:D350"/>
-    <mergeCell ref="E344:E350"/>
-    <mergeCell ref="F344:F350"/>
-    <mergeCell ref="I344:I350"/>
-    <mergeCell ref="J344:J350"/>
-    <mergeCell ref="D360:D364"/>
-    <mergeCell ref="E360:E364"/>
-    <mergeCell ref="F360:F364"/>
-    <mergeCell ref="I360:I364"/>
-    <mergeCell ref="J360:J364"/>
-    <mergeCell ref="D354:D359"/>
-    <mergeCell ref="E354:E359"/>
-    <mergeCell ref="F354:F359"/>
-    <mergeCell ref="I354:I359"/>
-    <mergeCell ref="J354:J359"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="D316:D318"/>
-    <mergeCell ref="E316:E318"/>
-    <mergeCell ref="F316:F318"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="D109:D115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="F109:F115"/>
-    <mergeCell ref="I109:I115"/>
-    <mergeCell ref="J109:J115"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="D310:D315"/>
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="F310:F315"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="I310:I315"/>
-    <mergeCell ref="J310:J315"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="E307:E309"/>
-    <mergeCell ref="F307:F309"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="I316:I318"/>
-    <mergeCell ref="J316:J318"/>
-    <mergeCell ref="D319:D322"/>
-    <mergeCell ref="E319:E322"/>
-    <mergeCell ref="F319:F322"/>
-    <mergeCell ref="I319:I322"/>
-    <mergeCell ref="J319:J322"/>
-    <mergeCell ref="I116:I119"/>
-    <mergeCell ref="J116:J119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="I120:I123"/>
-    <mergeCell ref="J120:J123"/>
-    <mergeCell ref="I133:I136"/>
-    <mergeCell ref="J133:J136"/>
-    <mergeCell ref="I124:I127"/>
-    <mergeCell ref="J124:J127"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="I128:I132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="I162:I164"/>
-    <mergeCell ref="I307:I309"/>
-    <mergeCell ref="J307:J309"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="I153:I157"/>
-    <mergeCell ref="J153:J157"/>
-    <mergeCell ref="G156:G157"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="E153:E157"/>
-    <mergeCell ref="F153:F157"/>
-    <mergeCell ref="D255:D259"/>
-    <mergeCell ref="D248:D254"/>
-    <mergeCell ref="E248:E254"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="F165:F170"/>
-    <mergeCell ref="I165:I170"/>
-    <mergeCell ref="J165:J170"/>
-    <mergeCell ref="D260:D265"/>
-    <mergeCell ref="E260:E265"/>
-    <mergeCell ref="F260:F265"/>
-    <mergeCell ref="I260:I265"/>
-    <mergeCell ref="J260:J265"/>
-    <mergeCell ref="D228:D232"/>
-    <mergeCell ref="E228:E232"/>
-    <mergeCell ref="F228:F232"/>
-    <mergeCell ref="I228:I232"/>
-    <mergeCell ref="J228:J232"/>
-    <mergeCell ref="D233:D236"/>
-    <mergeCell ref="E233:E236"/>
-    <mergeCell ref="F233:F236"/>
-    <mergeCell ref="I233:I236"/>
-    <mergeCell ref="J233:J236"/>
-    <mergeCell ref="D237:D241"/>
-    <mergeCell ref="D196:D200"/>
-    <mergeCell ref="F255:F259"/>
-    <mergeCell ref="I255:I259"/>
-    <mergeCell ref="J255:J259"/>
-    <mergeCell ref="I242:I247"/>
-    <mergeCell ref="J223:J227"/>
-    <mergeCell ref="F248:F254"/>
-    <mergeCell ref="I248:I254"/>
-    <mergeCell ref="J248:J254"/>
-    <mergeCell ref="E255:E259"/>
-    <mergeCell ref="D223:D227"/>
-    <mergeCell ref="E223:E227"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="I223:I227"/>
-    <mergeCell ref="D242:D247"/>
-    <mergeCell ref="E242:E247"/>
-    <mergeCell ref="F242:F247"/>
-    <mergeCell ref="J190:J195"/>
-    <mergeCell ref="D182:D189"/>
-    <mergeCell ref="E182:E189"/>
-    <mergeCell ref="F182:F189"/>
-    <mergeCell ref="I182:I189"/>
-    <mergeCell ref="J182:J189"/>
-    <mergeCell ref="I190:I195"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="D190:D195"/>
-    <mergeCell ref="E190:E195"/>
-    <mergeCell ref="J242:J247"/>
-    <mergeCell ref="F190:F195"/>
-    <mergeCell ref="E237:E241"/>
-    <mergeCell ref="F237:F241"/>
-    <mergeCell ref="I237:I241"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="J171:J174"/>
-    <mergeCell ref="D175:D179"/>
-    <mergeCell ref="E175:E179"/>
-    <mergeCell ref="F175:F179"/>
-    <mergeCell ref="I175:I179"/>
-    <mergeCell ref="J175:J179"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="I171:I174"/>
-    <mergeCell ref="A381:A401"/>
-    <mergeCell ref="B381:B401"/>
-    <mergeCell ref="C381:C401"/>
-    <mergeCell ref="D381:D384"/>
-    <mergeCell ref="E381:E384"/>
-    <mergeCell ref="F381:F384"/>
-    <mergeCell ref="I381:I384"/>
-    <mergeCell ref="D398:D401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="I398:I401"/>
-    <mergeCell ref="J398:J401"/>
-    <mergeCell ref="D389:D393"/>
-    <mergeCell ref="E389:E393"/>
-    <mergeCell ref="F389:F393"/>
-    <mergeCell ref="I389:I393"/>
-    <mergeCell ref="J389:J393"/>
-    <mergeCell ref="J381:J384"/>
-    <mergeCell ref="D385:D388"/>
-    <mergeCell ref="E385:E388"/>
-    <mergeCell ref="F385:F388"/>
-    <mergeCell ref="I385:I388"/>
-    <mergeCell ref="J385:J388"/>
-    <mergeCell ref="D394:D397"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="I394:I397"/>
-    <mergeCell ref="J394:J397"/>
-    <mergeCell ref="D266:D270"/>
-    <mergeCell ref="E266:E270"/>
-    <mergeCell ref="F266:F270"/>
-    <mergeCell ref="I266:I270"/>
-    <mergeCell ref="J266:J270"/>
-    <mergeCell ref="D271:D275"/>
-    <mergeCell ref="E271:E275"/>
-    <mergeCell ref="F271:F275"/>
-    <mergeCell ref="I271:I275"/>
-    <mergeCell ref="J271:J275"/>
-    <mergeCell ref="D276:D279"/>
-    <mergeCell ref="E276:E279"/>
-    <mergeCell ref="F276:F279"/>
-    <mergeCell ref="I276:I279"/>
-    <mergeCell ref="J276:J279"/>
-    <mergeCell ref="D280:D284"/>
-    <mergeCell ref="E280:E284"/>
-    <mergeCell ref="F280:F284"/>
-    <mergeCell ref="I280:I284"/>
-    <mergeCell ref="J280:J284"/>
-    <mergeCell ref="D285:D290"/>
-    <mergeCell ref="E285:E290"/>
-    <mergeCell ref="F285:F290"/>
-    <mergeCell ref="I285:I290"/>
-    <mergeCell ref="J285:J290"/>
-    <mergeCell ref="D291:D296"/>
-    <mergeCell ref="E291:E296"/>
-    <mergeCell ref="F291:F296"/>
-    <mergeCell ref="I291:I296"/>
-    <mergeCell ref="J291:J296"/>
-    <mergeCell ref="D297:D300"/>
-    <mergeCell ref="E297:E300"/>
-    <mergeCell ref="F297:F300"/>
-    <mergeCell ref="I297:I300"/>
-    <mergeCell ref="J297:J300"/>
-    <mergeCell ref="D301:D306"/>
-    <mergeCell ref="E301:E306"/>
-    <mergeCell ref="F301:F306"/>
-    <mergeCell ref="I301:I306"/>
-    <mergeCell ref="J301:J306"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="J22:J28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="I29:I36"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="J145:J148"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="I149:I152"/>
+    <mergeCell ref="J149:J152"/>
+    <mergeCell ref="I137:I140"/>
+    <mergeCell ref="J137:J140"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="I141:I144"/>
+    <mergeCell ref="J141:J144"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="I145:I148"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B323" r:id="rId1" xr:uid="{75A650CB-9797-43F2-8DF0-9B8A78984F50}"/>
@@ -28156,9 +28166,10 @@
     <hyperlink ref="E141" r:id="rId103" xr:uid="{FD8D5A35-FFBA-4565-A92A-3C87D8A96D3F}"/>
     <hyperlink ref="E145" r:id="rId104" xr:uid="{220B5898-6570-4B4C-99F2-B063D72978B8}"/>
     <hyperlink ref="E149" r:id="rId105" xr:uid="{C3A8F57B-3D01-4436-8AED-56BB7CE098A9}"/>
+    <hyperlink ref="B266" r:id="rId106" xr:uid="{70AE56A6-7BA9-4BE1-A8F2-6BB613B583AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId106"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -28608,7 +28619,7 @@
       <c r="F22" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -28626,7 +28637,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="47"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="42" t="s">
         <v>776</v>
       </c>
@@ -28694,7 +28705,7 @@
       <c r="F27" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="40" t="s">
@@ -28712,7 +28723,7 @@
       <c r="D28" s="44"/>
       <c r="E28" s="47"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="42" t="s">
         <v>769</v>
       </c>
@@ -28812,7 +28823,7 @@
       <c r="F34" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="40" t="s">
@@ -28830,7 +28841,7 @@
       <c r="D35" s="44"/>
       <c r="E35" s="47"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="53"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="42" t="s">
         <v>763</v>
       </c>
@@ -28914,7 +28925,7 @@
       <c r="F40" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H40" s="40" t="s">
@@ -28932,7 +28943,7 @@
       <c r="D41" s="44"/>
       <c r="E41" s="47"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="53"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="42" t="s">
         <v>757</v>
       </c>
@@ -29928,7 +29939,7 @@
       <c r="F96" s="43" t="s">
         <v>1539</v>
       </c>
-      <c r="G96" s="52" t="s">
+      <c r="G96" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="40" t="s">
@@ -29946,7 +29957,7 @@
       <c r="D97" s="44"/>
       <c r="E97" s="47"/>
       <c r="F97" s="44"/>
-      <c r="G97" s="53"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="42" t="s">
         <v>849</v>
       </c>
@@ -29960,7 +29971,7 @@
       <c r="D98" s="44"/>
       <c r="E98" s="47"/>
       <c r="F98" s="44"/>
-      <c r="G98" s="53" t="s">
+      <c r="G98" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H98" s="42" t="s">
@@ -29976,7 +29987,7 @@
       <c r="D99" s="44"/>
       <c r="E99" s="47"/>
       <c r="F99" s="44"/>
-      <c r="G99" s="53"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="42" t="s">
         <v>851</v>
       </c>
@@ -29990,7 +30001,7 @@
       <c r="D100" s="44"/>
       <c r="E100" s="47"/>
       <c r="F100" s="44"/>
-      <c r="G100" s="53" t="s">
+      <c r="G100" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="42" t="s">
@@ -30006,7 +30017,7 @@
       <c r="D101" s="45"/>
       <c r="E101" s="48"/>
       <c r="F101" s="45"/>
-      <c r="G101" s="57"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="41" t="s">
         <v>853</v>
       </c>
@@ -30130,7 +30141,7 @@
       <c r="F108" s="43" t="s">
         <v>1539</v>
       </c>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H108" s="40" t="s">
@@ -30148,7 +30159,7 @@
       <c r="D109" s="44"/>
       <c r="E109" s="47"/>
       <c r="F109" s="44"/>
-      <c r="G109" s="53"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="42" t="s">
         <v>861</v>
       </c>
@@ -30248,7 +30259,7 @@
       <c r="F115" s="43" t="s">
         <v>1539</v>
       </c>
-      <c r="G115" s="52" t="s">
+      <c r="G115" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H115" s="40" t="s">
@@ -30266,7 +30277,7 @@
       <c r="D116" s="44"/>
       <c r="E116" s="47"/>
       <c r="F116" s="44"/>
-      <c r="G116" s="53"/>
+      <c r="G116" s="55"/>
       <c r="H116" s="42" t="s">
         <v>867</v>
       </c>
@@ -30280,7 +30291,7 @@
       <c r="D117" s="44"/>
       <c r="E117" s="47"/>
       <c r="F117" s="44"/>
-      <c r="G117" s="53" t="s">
+      <c r="G117" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H117" s="42" t="s">
@@ -30296,7 +30307,7 @@
       <c r="D118" s="44"/>
       <c r="E118" s="47"/>
       <c r="F118" s="44"/>
-      <c r="G118" s="53"/>
+      <c r="G118" s="55"/>
       <c r="H118" s="42" t="s">
         <v>869</v>
       </c>
@@ -30452,7 +30463,7 @@
       <c r="F127" s="43" t="s">
         <v>1539</v>
       </c>
-      <c r="G127" s="52" t="s">
+      <c r="G127" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H127" s="40" t="s">
@@ -30470,7 +30481,7 @@
       <c r="D128" s="44"/>
       <c r="E128" s="47"/>
       <c r="F128" s="44"/>
-      <c r="G128" s="53"/>
+      <c r="G128" s="55"/>
       <c r="H128" s="42" t="s">
         <v>876</v>
       </c>
@@ -31292,7 +31303,7 @@
       <c r="F174" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="G174" s="52" t="s">
+      <c r="G174" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H174" s="40" t="s">
@@ -31310,7 +31321,7 @@
       <c r="D175" s="44"/>
       <c r="E175" s="47"/>
       <c r="F175" s="44"/>
-      <c r="G175" s="53"/>
+      <c r="G175" s="55"/>
       <c r="H175" s="42" t="s">
         <v>404</v>
       </c>
@@ -31410,7 +31421,7 @@
       <c r="F181" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="G181" s="52" t="s">
+      <c r="G181" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H181" s="40" t="s">
@@ -31428,7 +31439,7 @@
       <c r="D182" s="44"/>
       <c r="E182" s="47"/>
       <c r="F182" s="44"/>
-      <c r="G182" s="53"/>
+      <c r="G182" s="55"/>
       <c r="H182" s="42" t="s">
         <v>413</v>
       </c>
@@ -31528,7 +31539,7 @@
       <c r="F188" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="G188" s="52" t="s">
+      <c r="G188" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H188" s="40" t="s">
@@ -31546,7 +31557,7 @@
       <c r="D189" s="44"/>
       <c r="E189" s="47"/>
       <c r="F189" s="44"/>
-      <c r="G189" s="53"/>
+      <c r="G189" s="55"/>
       <c r="H189" s="42" t="s">
         <v>421</v>
       </c>
@@ -31560,7 +31571,7 @@
       <c r="D190" s="44"/>
       <c r="E190" s="47"/>
       <c r="F190" s="44"/>
-      <c r="G190" s="53"/>
+      <c r="G190" s="55"/>
       <c r="H190" s="42" t="s">
         <v>422</v>
       </c>
@@ -31644,7 +31655,7 @@
       <c r="F195" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="G195" s="52" t="s">
+      <c r="G195" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H195" s="40" t="s">
@@ -31662,7 +31673,7 @@
       <c r="D196" s="44"/>
       <c r="E196" s="47"/>
       <c r="F196" s="44"/>
-      <c r="G196" s="53"/>
+      <c r="G196" s="55"/>
       <c r="H196" s="42" t="s">
         <v>429</v>
       </c>
@@ -31730,10 +31741,10 @@
       <c r="F200" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="G200" s="52" t="s">
+      <c r="G200" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H200" s="61" t="s">
+      <c r="H200" s="64" t="s">
         <v>434</v>
       </c>
       <c r="I200" s="49">
@@ -31748,7 +31759,7 @@
       <c r="D201" s="44"/>
       <c r="E201" s="47"/>
       <c r="F201" s="44"/>
-      <c r="G201" s="53"/>
+      <c r="G201" s="55"/>
       <c r="H201" s="72"/>
       <c r="I201" s="50"/>
       <c r="J201" s="50"/>
@@ -31760,8 +31771,8 @@
       <c r="D202" s="45"/>
       <c r="E202" s="48"/>
       <c r="F202" s="45"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="62"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="65"/>
       <c r="I202" s="51"/>
       <c r="J202" s="51"/>
     </row>
@@ -31784,7 +31795,7 @@
       <c r="F203" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G203" s="52" t="s">
+      <c r="G203" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H203" s="40" t="s">
@@ -31802,7 +31813,7 @@
       <c r="D204" s="44"/>
       <c r="E204" s="47"/>
       <c r="F204" s="44"/>
-      <c r="G204" s="53"/>
+      <c r="G204" s="55"/>
       <c r="H204" s="42" t="s">
         <v>320</v>
       </c>
@@ -31816,7 +31827,7 @@
       <c r="D205" s="44"/>
       <c r="E205" s="47"/>
       <c r="F205" s="44"/>
-      <c r="G205" s="53"/>
+      <c r="G205" s="55"/>
       <c r="H205" s="42" t="s">
         <v>321</v>
       </c>
@@ -31830,7 +31841,7 @@
       <c r="D206" s="44"/>
       <c r="E206" s="47"/>
       <c r="F206" s="44"/>
-      <c r="G206" s="53" t="s">
+      <c r="G206" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H206" s="42" t="s">
@@ -31846,7 +31857,7 @@
       <c r="D207" s="44"/>
       <c r="E207" s="47"/>
       <c r="F207" s="44"/>
-      <c r="G207" s="53"/>
+      <c r="G207" s="55"/>
       <c r="H207" s="42" t="s">
         <v>323</v>
       </c>
@@ -31860,7 +31871,7 @@
       <c r="D208" s="45"/>
       <c r="E208" s="48"/>
       <c r="F208" s="45"/>
-      <c r="G208" s="57"/>
+      <c r="G208" s="56"/>
       <c r="H208" s="41" t="s">
         <v>88</v>
       </c>
@@ -31880,7 +31891,7 @@
       <c r="F209" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G209" s="52" t="s">
+      <c r="G209" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H209" s="40" t="s">
@@ -31898,7 +31909,7 @@
       <c r="D210" s="44"/>
       <c r="E210" s="47"/>
       <c r="F210" s="44"/>
-      <c r="G210" s="53"/>
+      <c r="G210" s="55"/>
       <c r="H210" s="42" t="s">
         <v>1127</v>
       </c>
@@ -31912,7 +31923,7 @@
       <c r="D211" s="44"/>
       <c r="E211" s="47"/>
       <c r="F211" s="44"/>
-      <c r="G211" s="53"/>
+      <c r="G211" s="55"/>
       <c r="H211" s="42" t="s">
         <v>1128</v>
       </c>
@@ -31926,7 +31937,7 @@
       <c r="D212" s="45"/>
       <c r="E212" s="48"/>
       <c r="F212" s="45"/>
-      <c r="G212" s="57"/>
+      <c r="G212" s="56"/>
       <c r="H212" s="41" t="s">
         <v>1129</v>
       </c>
@@ -31946,7 +31957,7 @@
       <c r="F213" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G213" s="52" t="s">
+      <c r="G213" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H213" s="40" t="s">
@@ -31964,7 +31975,7 @@
       <c r="D214" s="44"/>
       <c r="E214" s="47"/>
       <c r="F214" s="44"/>
-      <c r="G214" s="53"/>
+      <c r="G214" s="55"/>
       <c r="H214" s="42" t="s">
         <v>1130</v>
       </c>
@@ -31978,7 +31989,7 @@
       <c r="D215" s="45"/>
       <c r="E215" s="48"/>
       <c r="F215" s="45"/>
-      <c r="G215" s="57"/>
+      <c r="G215" s="56"/>
       <c r="H215" s="41" t="s">
         <v>1131</v>
       </c>
@@ -31998,7 +32009,7 @@
       <c r="F216" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G216" s="52" t="s">
+      <c r="G216" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H216" s="40" t="s">
@@ -32016,7 +32027,7 @@
       <c r="D217" s="44"/>
       <c r="E217" s="47"/>
       <c r="F217" s="44"/>
-      <c r="G217" s="53"/>
+      <c r="G217" s="55"/>
       <c r="H217" s="42" t="s">
         <v>1132</v>
       </c>
@@ -32030,7 +32041,7 @@
       <c r="D218" s="44"/>
       <c r="E218" s="47"/>
       <c r="F218" s="44"/>
-      <c r="G218" s="53"/>
+      <c r="G218" s="55"/>
       <c r="H218" s="42" t="s">
         <v>1133</v>
       </c>
@@ -32044,7 +32055,7 @@
       <c r="D219" s="44"/>
       <c r="E219" s="47"/>
       <c r="F219" s="44"/>
-      <c r="G219" s="53"/>
+      <c r="G219" s="55"/>
       <c r="H219" s="42" t="s">
         <v>1134</v>
       </c>
@@ -32058,7 +32069,7 @@
       <c r="D220" s="45"/>
       <c r="E220" s="48"/>
       <c r="F220" s="45"/>
-      <c r="G220" s="57"/>
+      <c r="G220" s="56"/>
       <c r="H220" s="41" t="s">
         <v>99</v>
       </c>
@@ -32078,7 +32089,7 @@
       <c r="F221" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G221" s="52" t="s">
+      <c r="G221" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H221" s="40" t="s">
@@ -32096,7 +32107,7 @@
       <c r="D222" s="44"/>
       <c r="E222" s="47"/>
       <c r="F222" s="44"/>
-      <c r="G222" s="53"/>
+      <c r="G222" s="55"/>
       <c r="H222" s="42" t="s">
         <v>1136</v>
       </c>
@@ -32110,7 +32121,7 @@
       <c r="D223" s="44"/>
       <c r="E223" s="47"/>
       <c r="F223" s="44"/>
-      <c r="G223" s="53"/>
+      <c r="G223" s="55"/>
       <c r="H223" s="42" t="s">
         <v>1137</v>
       </c>
@@ -32124,7 +32135,7 @@
       <c r="D224" s="44"/>
       <c r="E224" s="47"/>
       <c r="F224" s="44"/>
-      <c r="G224" s="53"/>
+      <c r="G224" s="55"/>
       <c r="H224" s="42" t="s">
         <v>1138</v>
       </c>
@@ -32138,7 +32149,7 @@
       <c r="D225" s="45"/>
       <c r="E225" s="48"/>
       <c r="F225" s="45"/>
-      <c r="G225" s="57"/>
+      <c r="G225" s="56"/>
       <c r="H225" s="41" t="s">
         <v>1139</v>
       </c>
@@ -32164,7 +32175,7 @@
       <c r="F226" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G226" s="52" t="s">
+      <c r="G226" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H226" s="40" t="s">
@@ -32182,7 +32193,7 @@
       <c r="D227" s="44"/>
       <c r="E227" s="47"/>
       <c r="F227" s="44"/>
-      <c r="G227" s="53"/>
+      <c r="G227" s="55"/>
       <c r="H227" s="42" t="s">
         <v>320</v>
       </c>
@@ -32196,7 +32207,7 @@
       <c r="D228" s="44"/>
       <c r="E228" s="47"/>
       <c r="F228" s="44"/>
-      <c r="G228" s="53"/>
+      <c r="G228" s="55"/>
       <c r="H228" s="42" t="s">
         <v>321</v>
       </c>
@@ -32210,7 +32221,7 @@
       <c r="D229" s="44"/>
       <c r="E229" s="47"/>
       <c r="F229" s="44"/>
-      <c r="G229" s="53" t="s">
+      <c r="G229" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H229" s="42" t="s">
@@ -32226,7 +32237,7 @@
       <c r="D230" s="44"/>
       <c r="E230" s="47"/>
       <c r="F230" s="44"/>
-      <c r="G230" s="53"/>
+      <c r="G230" s="55"/>
       <c r="H230" s="42" t="s">
         <v>323</v>
       </c>
@@ -32240,7 +32251,7 @@
       <c r="D231" s="44"/>
       <c r="E231" s="47"/>
       <c r="F231" s="44"/>
-      <c r="G231" s="57"/>
+      <c r="G231" s="56"/>
       <c r="H231" s="42" t="s">
         <v>88</v>
       </c>
@@ -32260,7 +32271,7 @@
       <c r="F232" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G232" s="52" t="s">
+      <c r="G232" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H232" s="40" t="s">
@@ -32278,7 +32289,7 @@
       <c r="D233" s="44"/>
       <c r="E233" s="47"/>
       <c r="F233" s="44"/>
-      <c r="G233" s="53"/>
+      <c r="G233" s="55"/>
       <c r="H233" s="42" t="s">
         <v>325</v>
       </c>
@@ -32292,7 +32303,7 @@
       <c r="D234" s="44"/>
       <c r="E234" s="47"/>
       <c r="F234" s="44"/>
-      <c r="G234" s="53"/>
+      <c r="G234" s="55"/>
       <c r="H234" s="42" t="s">
         <v>326</v>
       </c>
@@ -32306,7 +32317,7 @@
       <c r="D235" s="45"/>
       <c r="E235" s="48"/>
       <c r="F235" s="45"/>
-      <c r="G235" s="57"/>
+      <c r="G235" s="56"/>
       <c r="H235" s="41" t="s">
         <v>327</v>
       </c>
@@ -32326,7 +32337,7 @@
       <c r="F236" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G236" s="52" t="s">
+      <c r="G236" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H236" s="40" t="s">
@@ -32344,7 +32355,7 @@
       <c r="D237" s="44"/>
       <c r="E237" s="47"/>
       <c r="F237" s="44"/>
-      <c r="G237" s="53"/>
+      <c r="G237" s="55"/>
       <c r="H237" s="42" t="s">
         <v>329</v>
       </c>
@@ -32358,7 +32369,7 @@
       <c r="D238" s="45"/>
       <c r="E238" s="48"/>
       <c r="F238" s="45"/>
-      <c r="G238" s="57"/>
+      <c r="G238" s="56"/>
       <c r="H238" s="41" t="s">
         <v>330</v>
       </c>
@@ -32378,7 +32389,7 @@
       <c r="F239" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G239" s="52" t="s">
+      <c r="G239" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H239" s="40" t="s">
@@ -32396,7 +32407,7 @@
       <c r="D240" s="44"/>
       <c r="E240" s="47"/>
       <c r="F240" s="44"/>
-      <c r="G240" s="53"/>
+      <c r="G240" s="55"/>
       <c r="H240" s="42" t="s">
         <v>332</v>
       </c>
@@ -32410,7 +32421,7 @@
       <c r="D241" s="44"/>
       <c r="E241" s="47"/>
       <c r="F241" s="44"/>
-      <c r="G241" s="53"/>
+      <c r="G241" s="55"/>
       <c r="H241" s="42" t="s">
         <v>333</v>
       </c>
@@ -32424,7 +32435,7 @@
       <c r="D242" s="44"/>
       <c r="E242" s="47"/>
       <c r="F242" s="44"/>
-      <c r="G242" s="53"/>
+      <c r="G242" s="55"/>
       <c r="H242" s="42" t="s">
         <v>334</v>
       </c>
@@ -32438,7 +32449,7 @@
       <c r="D243" s="45"/>
       <c r="E243" s="48"/>
       <c r="F243" s="45"/>
-      <c r="G243" s="57"/>
+      <c r="G243" s="56"/>
       <c r="H243" s="41" t="s">
         <v>335</v>
       </c>
@@ -32458,7 +32469,7 @@
       <c r="F244" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G244" s="52" t="s">
+      <c r="G244" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H244" s="40" t="s">
@@ -32476,7 +32487,7 @@
       <c r="D245" s="44"/>
       <c r="E245" s="47"/>
       <c r="F245" s="44"/>
-      <c r="G245" s="53"/>
+      <c r="G245" s="55"/>
       <c r="H245" s="42" t="s">
         <v>337</v>
       </c>
@@ -32490,7 +32501,7 @@
       <c r="D246" s="44"/>
       <c r="E246" s="47"/>
       <c r="F246" s="44"/>
-      <c r="G246" s="53"/>
+      <c r="G246" s="55"/>
       <c r="H246" s="42" t="s">
         <v>338</v>
       </c>
@@ -32504,7 +32515,7 @@
       <c r="D247" s="44"/>
       <c r="E247" s="47"/>
       <c r="F247" s="44"/>
-      <c r="G247" s="53"/>
+      <c r="G247" s="55"/>
       <c r="H247" s="42" t="s">
         <v>339</v>
       </c>
@@ -32518,7 +32529,7 @@
       <c r="D248" s="45"/>
       <c r="E248" s="48"/>
       <c r="F248" s="45"/>
-      <c r="G248" s="57"/>
+      <c r="G248" s="56"/>
       <c r="H248" s="41" t="s">
         <v>340</v>
       </c>
@@ -33804,7 +33815,7 @@
       <c r="F320" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="G320" s="52" t="s">
+      <c r="G320" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H320" s="40" t="s">
@@ -33822,7 +33833,7 @@
       <c r="D321" s="44"/>
       <c r="E321" s="47"/>
       <c r="F321" s="44"/>
-      <c r="G321" s="53"/>
+      <c r="G321" s="55"/>
       <c r="H321" s="42" t="s">
         <v>660</v>
       </c>
@@ -33852,7 +33863,7 @@
       <c r="D323" s="44"/>
       <c r="E323" s="47"/>
       <c r="F323" s="44"/>
-      <c r="G323" s="53" t="s">
+      <c r="G323" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H323" s="42" t="s">
@@ -33868,7 +33879,7 @@
       <c r="D324" s="44"/>
       <c r="E324" s="47"/>
       <c r="F324" s="44"/>
-      <c r="G324" s="53"/>
+      <c r="G324" s="55"/>
       <c r="H324" s="42" t="s">
         <v>663</v>
       </c>
@@ -33882,7 +33893,7 @@
       <c r="D325" s="44"/>
       <c r="E325" s="47"/>
       <c r="F325" s="44"/>
-      <c r="G325" s="53" t="s">
+      <c r="G325" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H325" s="42" t="s">
@@ -33898,7 +33909,7 @@
       <c r="D326" s="44"/>
       <c r="E326" s="47"/>
       <c r="F326" s="44"/>
-      <c r="G326" s="53"/>
+      <c r="G326" s="55"/>
       <c r="H326" s="42" t="s">
         <v>665</v>
       </c>
@@ -33912,7 +33923,7 @@
       <c r="D327" s="44"/>
       <c r="E327" s="47"/>
       <c r="F327" s="44"/>
-      <c r="G327" s="53" t="s">
+      <c r="G327" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H327" s="42" t="s">
@@ -33928,7 +33939,7 @@
       <c r="D328" s="44"/>
       <c r="E328" s="47"/>
       <c r="F328" s="44"/>
-      <c r="G328" s="53"/>
+      <c r="G328" s="55"/>
       <c r="H328" s="42" t="s">
         <v>667</v>
       </c>
@@ -33998,7 +34009,7 @@
       <c r="D332" s="44"/>
       <c r="E332" s="47"/>
       <c r="F332" s="44"/>
-      <c r="G332" s="53" t="s">
+      <c r="G332" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H332" s="42" t="s">
@@ -34014,7 +34025,7 @@
       <c r="D333" s="44"/>
       <c r="E333" s="47"/>
       <c r="F333" s="44"/>
-      <c r="G333" s="53"/>
+      <c r="G333" s="55"/>
       <c r="H333" s="42" t="s">
         <v>673</v>
       </c>
@@ -34734,7 +34745,7 @@
       <c r="F373" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G373" s="52" t="s">
+      <c r="G373" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H373" s="40" t="s">
@@ -34752,7 +34763,7 @@
       <c r="D374" s="44"/>
       <c r="E374" s="47"/>
       <c r="F374" s="44"/>
-      <c r="G374" s="53"/>
+      <c r="G374" s="55"/>
       <c r="H374" s="42" t="s">
         <v>1115</v>
       </c>
@@ -34766,7 +34777,7 @@
       <c r="D375" s="44"/>
       <c r="E375" s="47"/>
       <c r="F375" s="44"/>
-      <c r="G375" s="53"/>
+      <c r="G375" s="55"/>
       <c r="H375" s="42" t="s">
         <v>1116</v>
       </c>
@@ -34780,7 +34791,7 @@
       <c r="D376" s="44"/>
       <c r="E376" s="47"/>
       <c r="F376" s="44"/>
-      <c r="G376" s="53"/>
+      <c r="G376" s="55"/>
       <c r="H376" s="42" t="s">
         <v>1117</v>
       </c>
@@ -34794,7 +34805,7 @@
       <c r="D377" s="44"/>
       <c r="E377" s="47"/>
       <c r="F377" s="44"/>
-      <c r="G377" s="53"/>
+      <c r="G377" s="55"/>
       <c r="H377" s="42" t="s">
         <v>1118</v>
       </c>
@@ -34814,7 +34825,7 @@
       <c r="F378" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G378" s="52" t="s">
+      <c r="G378" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H378" s="40" t="s">
@@ -34832,7 +34843,7 @@
       <c r="D379" s="44"/>
       <c r="E379" s="47"/>
       <c r="F379" s="44"/>
-      <c r="G379" s="53"/>
+      <c r="G379" s="55"/>
       <c r="H379" s="42" t="s">
         <v>538</v>
       </c>
@@ -34846,7 +34857,7 @@
       <c r="D380" s="44"/>
       <c r="E380" s="47"/>
       <c r="F380" s="44"/>
-      <c r="G380" s="53" t="s">
+      <c r="G380" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H380" s="42" t="s">
@@ -34862,7 +34873,7 @@
       <c r="D381" s="44"/>
       <c r="E381" s="47"/>
       <c r="F381" s="44"/>
-      <c r="G381" s="53"/>
+      <c r="G381" s="55"/>
       <c r="H381" s="42" t="s">
         <v>540</v>
       </c>
@@ -34876,7 +34887,7 @@
       <c r="D382" s="44"/>
       <c r="E382" s="47"/>
       <c r="F382" s="44"/>
-      <c r="G382" s="53" t="s">
+      <c r="G382" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H382" s="42" t="s">
@@ -34892,7 +34903,7 @@
       <c r="D383" s="45"/>
       <c r="E383" s="48"/>
       <c r="F383" s="45"/>
-      <c r="G383" s="57"/>
+      <c r="G383" s="56"/>
       <c r="H383" s="41" t="s">
         <v>542</v>
       </c>
@@ -34912,7 +34923,7 @@
       <c r="F384" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G384" s="52" t="s">
+      <c r="G384" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H384" s="40" t="s">
@@ -34930,7 +34941,7 @@
       <c r="D385" s="44"/>
       <c r="E385" s="47"/>
       <c r="F385" s="44"/>
-      <c r="G385" s="53"/>
+      <c r="G385" s="55"/>
       <c r="H385" s="42" t="s">
         <v>545</v>
       </c>
@@ -34944,7 +34955,7 @@
       <c r="D386" s="44"/>
       <c r="E386" s="47"/>
       <c r="F386" s="44"/>
-      <c r="G386" s="53"/>
+      <c r="G386" s="55"/>
       <c r="H386" s="42" t="s">
         <v>546</v>
       </c>
@@ -34958,7 +34969,7 @@
       <c r="D387" s="44"/>
       <c r="E387" s="47"/>
       <c r="F387" s="44"/>
-      <c r="G387" s="53" t="s">
+      <c r="G387" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H387" s="42" t="s">
@@ -34974,7 +34985,7 @@
       <c r="D388" s="44"/>
       <c r="E388" s="47"/>
       <c r="F388" s="44"/>
-      <c r="G388" s="53"/>
+      <c r="G388" s="55"/>
       <c r="H388" s="42" t="s">
         <v>548</v>
       </c>
@@ -34988,7 +34999,7 @@
       <c r="D389" s="44"/>
       <c r="E389" s="47"/>
       <c r="F389" s="44"/>
-      <c r="G389" s="53"/>
+      <c r="G389" s="55"/>
       <c r="H389" s="42" t="s">
         <v>549</v>
       </c>
@@ -35002,7 +35013,7 @@
       <c r="D390" s="44"/>
       <c r="E390" s="47"/>
       <c r="F390" s="44"/>
-      <c r="G390" s="53"/>
+      <c r="G390" s="55"/>
       <c r="H390" s="42" t="s">
         <v>550</v>
       </c>
@@ -35016,7 +35027,7 @@
       <c r="D391" s="45"/>
       <c r="E391" s="48"/>
       <c r="F391" s="45"/>
-      <c r="G391" s="57"/>
+      <c r="G391" s="56"/>
       <c r="H391" s="41" t="s">
         <v>88</v>
       </c>
@@ -35036,7 +35047,7 @@
       <c r="F392" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="G392" s="52" t="s">
+      <c r="G392" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H392" s="40" t="s">
@@ -35054,7 +35065,7 @@
       <c r="D393" s="44"/>
       <c r="E393" s="47"/>
       <c r="F393" s="44"/>
-      <c r="G393" s="53"/>
+      <c r="G393" s="55"/>
       <c r="H393" s="42" t="s">
         <v>269</v>
       </c>
@@ -35068,7 +35079,7 @@
       <c r="D394" s="44"/>
       <c r="E394" s="47"/>
       <c r="F394" s="44"/>
-      <c r="G394" s="53"/>
+      <c r="G394" s="55"/>
       <c r="H394" s="42" t="s">
         <v>551</v>
       </c>
@@ -35082,7 +35093,7 @@
       <c r="D395" s="44"/>
       <c r="E395" s="47"/>
       <c r="F395" s="44"/>
-      <c r="G395" s="53" t="s">
+      <c r="G395" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H395" s="42" t="s">
@@ -35098,7 +35109,7 @@
       <c r="D396" s="44"/>
       <c r="E396" s="47"/>
       <c r="F396" s="44"/>
-      <c r="G396" s="53"/>
+      <c r="G396" s="55"/>
       <c r="H396" s="42" t="s">
         <v>553</v>
       </c>
@@ -35112,7 +35123,7 @@
       <c r="D397" s="45"/>
       <c r="E397" s="48"/>
       <c r="F397" s="45"/>
-      <c r="G397" s="57"/>
+      <c r="G397" s="56"/>
       <c r="H397" s="41" t="s">
         <v>542</v>
       </c>
@@ -35498,7 +35509,7 @@
       <c r="D418" s="44"/>
       <c r="E418" s="47"/>
       <c r="F418" s="44"/>
-      <c r="G418" s="53" t="s">
+      <c r="G418" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H418" s="42" t="s">
@@ -35514,7 +35525,7 @@
       <c r="D419" s="44"/>
       <c r="E419" s="47"/>
       <c r="F419" s="44"/>
-      <c r="G419" s="53"/>
+      <c r="G419" s="55"/>
       <c r="H419" s="42" t="s">
         <v>1387</v>
       </c>
@@ -35961,122 +35972,414 @@
     </row>
   </sheetData>
   <mergeCells count="548">
-    <mergeCell ref="D440:D443"/>
-    <mergeCell ref="E440:E443"/>
-    <mergeCell ref="F440:F443"/>
-    <mergeCell ref="I440:I443"/>
-    <mergeCell ref="J440:J443"/>
-    <mergeCell ref="D263:D268"/>
-    <mergeCell ref="E263:E268"/>
-    <mergeCell ref="F263:F268"/>
-    <mergeCell ref="I263:I268"/>
-    <mergeCell ref="J263:J268"/>
-    <mergeCell ref="A430:A443"/>
-    <mergeCell ref="B430:B443"/>
-    <mergeCell ref="C430:C443"/>
-    <mergeCell ref="D430:D435"/>
-    <mergeCell ref="E430:E435"/>
-    <mergeCell ref="F430:F435"/>
-    <mergeCell ref="I430:I435"/>
-    <mergeCell ref="J430:J435"/>
-    <mergeCell ref="D436:D439"/>
-    <mergeCell ref="E436:E439"/>
-    <mergeCell ref="F436:F439"/>
-    <mergeCell ref="I436:I439"/>
-    <mergeCell ref="J436:J439"/>
-    <mergeCell ref="J312:J315"/>
-    <mergeCell ref="A249:A268"/>
-    <mergeCell ref="B249:B268"/>
-    <mergeCell ref="C249:C268"/>
-    <mergeCell ref="D249:D252"/>
-    <mergeCell ref="E249:E252"/>
-    <mergeCell ref="F249:F252"/>
-    <mergeCell ref="I249:I252"/>
-    <mergeCell ref="J249:J252"/>
-    <mergeCell ref="D253:D257"/>
-    <mergeCell ref="E253:E257"/>
-    <mergeCell ref="F253:F257"/>
-    <mergeCell ref="I253:I257"/>
-    <mergeCell ref="J253:J257"/>
-    <mergeCell ref="D259:D262"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="F259:F262"/>
-    <mergeCell ref="I259:I262"/>
-    <mergeCell ref="J259:J262"/>
-    <mergeCell ref="D337:D341"/>
-    <mergeCell ref="E337:E341"/>
-    <mergeCell ref="F337:F341"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="E304:E307"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="I304:I307"/>
-    <mergeCell ref="J304:J307"/>
-    <mergeCell ref="I289:I293"/>
-    <mergeCell ref="J289:J293"/>
-    <mergeCell ref="D294:D299"/>
-    <mergeCell ref="E294:E299"/>
-    <mergeCell ref="F294:F299"/>
-    <mergeCell ref="I294:I299"/>
-    <mergeCell ref="J294:J299"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="F300:F302"/>
-    <mergeCell ref="I300:I302"/>
-    <mergeCell ref="J300:J302"/>
-    <mergeCell ref="F316:F319"/>
-    <mergeCell ref="D308:D311"/>
-    <mergeCell ref="E308:E311"/>
-    <mergeCell ref="F308:F311"/>
-    <mergeCell ref="A269:A319"/>
-    <mergeCell ref="B269:B319"/>
-    <mergeCell ref="C269:C319"/>
-    <mergeCell ref="D269:D272"/>
-    <mergeCell ref="E269:E272"/>
-    <mergeCell ref="F269:F272"/>
-    <mergeCell ref="D273:D277"/>
-    <mergeCell ref="E273:E277"/>
-    <mergeCell ref="F273:F277"/>
-    <mergeCell ref="D279:D282"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="D316:D319"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="D283:D288"/>
-    <mergeCell ref="E283:E288"/>
-    <mergeCell ref="D312:D315"/>
-    <mergeCell ref="E312:E315"/>
-    <mergeCell ref="F312:F315"/>
-    <mergeCell ref="D353:D356"/>
-    <mergeCell ref="I342:I346"/>
-    <mergeCell ref="J342:J346"/>
-    <mergeCell ref="I361:I364"/>
-    <mergeCell ref="J361:J364"/>
-    <mergeCell ref="I365:I368"/>
-    <mergeCell ref="J365:J368"/>
-    <mergeCell ref="I353:I356"/>
-    <mergeCell ref="J353:J356"/>
-    <mergeCell ref="I357:I360"/>
-    <mergeCell ref="J357:J360"/>
-    <mergeCell ref="D357:D360"/>
-    <mergeCell ref="E357:E360"/>
-    <mergeCell ref="F357:F360"/>
-    <mergeCell ref="D347:D352"/>
-    <mergeCell ref="E347:E352"/>
-    <mergeCell ref="F347:F352"/>
-    <mergeCell ref="D342:D346"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="F342:F346"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="F244:F248"/>
-    <mergeCell ref="G244:G248"/>
-    <mergeCell ref="I244:I248"/>
-    <mergeCell ref="J244:J248"/>
-    <mergeCell ref="D239:D243"/>
-    <mergeCell ref="E239:E243"/>
-    <mergeCell ref="F239:F243"/>
-    <mergeCell ref="G239:G243"/>
-    <mergeCell ref="I239:I243"/>
+    <mergeCell ref="J174:J180"/>
+    <mergeCell ref="D181:D187"/>
+    <mergeCell ref="E181:E187"/>
+    <mergeCell ref="F181:F187"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="I181:I187"/>
+    <mergeCell ref="J181:J187"/>
+    <mergeCell ref="I200:I202"/>
+    <mergeCell ref="J200:J202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="F200:F202"/>
+    <mergeCell ref="G200:G202"/>
+    <mergeCell ref="H200:H202"/>
+    <mergeCell ref="G188:G190"/>
+    <mergeCell ref="I188:I194"/>
+    <mergeCell ref="J188:J194"/>
+    <mergeCell ref="D195:D199"/>
+    <mergeCell ref="E195:E199"/>
+    <mergeCell ref="F195:F199"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="I195:I199"/>
+    <mergeCell ref="J195:J199"/>
+    <mergeCell ref="A174:A202"/>
+    <mergeCell ref="B174:B202"/>
+    <mergeCell ref="D174:D180"/>
+    <mergeCell ref="E174:E180"/>
+    <mergeCell ref="F174:F180"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="E188:E194"/>
+    <mergeCell ref="F188:F194"/>
+    <mergeCell ref="I160:I163"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="A150:A173"/>
+    <mergeCell ref="B150:B173"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="I174:I180"/>
+    <mergeCell ref="C150:C173"/>
+    <mergeCell ref="C174:C202"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="I164:I167"/>
+    <mergeCell ref="J164:J167"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="E145:E149"/>
+    <mergeCell ref="F145:F149"/>
+    <mergeCell ref="I145:I149"/>
+    <mergeCell ref="J145:J149"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="J150:J155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="I156:I159"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="I108:I114"/>
+    <mergeCell ref="J127:J133"/>
+    <mergeCell ref="A134:A149"/>
+    <mergeCell ref="B134:B149"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="D139:D144"/>
+    <mergeCell ref="D127:D133"/>
+    <mergeCell ref="E127:E133"/>
+    <mergeCell ref="F127:F133"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="I127:I133"/>
+    <mergeCell ref="E139:E144"/>
+    <mergeCell ref="F139:F144"/>
+    <mergeCell ref="I139:I144"/>
+    <mergeCell ref="J139:J144"/>
+    <mergeCell ref="C134:C149"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="A96:A133"/>
+    <mergeCell ref="B96:B133"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="E96:E101"/>
+    <mergeCell ref="F96:F101"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="I96:I101"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="J96:J101"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="E102:E107"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="E108:E114"/>
+    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C133"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J108:J114"/>
+    <mergeCell ref="D115:D121"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="F115:F121"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="I115:I121"/>
+    <mergeCell ref="J115:J121"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="D108:D114"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A22:A52"/>
+    <mergeCell ref="B22:B52"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C22:C52"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="J34:J39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="A53:A69"/>
+    <mergeCell ref="B53:B69"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="C53:C69"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="J70:J75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="F76:F81"/>
+    <mergeCell ref="I76:I81"/>
+    <mergeCell ref="J76:J81"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="A70:A91"/>
+    <mergeCell ref="B70:B91"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="F82:F87"/>
+    <mergeCell ref="I82:I87"/>
+    <mergeCell ref="J82:J87"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="C70:C91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="J424:J426"/>
+    <mergeCell ref="I398:I402"/>
+    <mergeCell ref="J398:J402"/>
+    <mergeCell ref="I392:I397"/>
+    <mergeCell ref="J392:J397"/>
+    <mergeCell ref="C203:C225"/>
+    <mergeCell ref="C226:C248"/>
+    <mergeCell ref="C320:C352"/>
+    <mergeCell ref="C353:C372"/>
+    <mergeCell ref="G384:G386"/>
+    <mergeCell ref="G373:G377"/>
+    <mergeCell ref="G387:G391"/>
+    <mergeCell ref="J203:J208"/>
+    <mergeCell ref="G206:G208"/>
+    <mergeCell ref="D209:D212"/>
+    <mergeCell ref="E209:E212"/>
+    <mergeCell ref="I427:I429"/>
+    <mergeCell ref="J427:J429"/>
+    <mergeCell ref="G418:G419"/>
+    <mergeCell ref="A416:A429"/>
+    <mergeCell ref="B416:B429"/>
+    <mergeCell ref="C416:C429"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="E416:E420"/>
+    <mergeCell ref="F416:F420"/>
+    <mergeCell ref="D427:D429"/>
+    <mergeCell ref="E427:E429"/>
+    <mergeCell ref="F427:F429"/>
+    <mergeCell ref="I416:I420"/>
+    <mergeCell ref="J416:J420"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="E421:E423"/>
+    <mergeCell ref="F421:F423"/>
+    <mergeCell ref="J421:J423"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="E424:E426"/>
+    <mergeCell ref="F424:F426"/>
+    <mergeCell ref="I424:I426"/>
+    <mergeCell ref="A373:A397"/>
+    <mergeCell ref="B373:B397"/>
+    <mergeCell ref="D373:D377"/>
+    <mergeCell ref="E373:E377"/>
+    <mergeCell ref="F373:F377"/>
+    <mergeCell ref="D392:D397"/>
+    <mergeCell ref="E392:E397"/>
+    <mergeCell ref="F392:F397"/>
+    <mergeCell ref="C398:C415"/>
+    <mergeCell ref="D403:D407"/>
+    <mergeCell ref="E403:E407"/>
+    <mergeCell ref="A398:A415"/>
+    <mergeCell ref="B398:B415"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="E398:E402"/>
+    <mergeCell ref="F398:F402"/>
+    <mergeCell ref="D412:D415"/>
+    <mergeCell ref="E412:E415"/>
+    <mergeCell ref="F412:F415"/>
+    <mergeCell ref="D384:D391"/>
+    <mergeCell ref="E384:E391"/>
+    <mergeCell ref="F384:F391"/>
+    <mergeCell ref="A203:A225"/>
+    <mergeCell ref="B203:B225"/>
+    <mergeCell ref="D369:D372"/>
+    <mergeCell ref="E369:E372"/>
+    <mergeCell ref="F369:F372"/>
+    <mergeCell ref="D365:D368"/>
+    <mergeCell ref="E365:E368"/>
+    <mergeCell ref="F365:F368"/>
+    <mergeCell ref="I421:I423"/>
+    <mergeCell ref="A353:A372"/>
+    <mergeCell ref="B353:B372"/>
+    <mergeCell ref="E353:E356"/>
+    <mergeCell ref="F353:F356"/>
+    <mergeCell ref="C373:C397"/>
+    <mergeCell ref="D361:D364"/>
+    <mergeCell ref="E361:E364"/>
+    <mergeCell ref="F361:F364"/>
+    <mergeCell ref="A226:A248"/>
+    <mergeCell ref="B226:B248"/>
+    <mergeCell ref="A320:A352"/>
+    <mergeCell ref="B320:B352"/>
+    <mergeCell ref="D320:D330"/>
+    <mergeCell ref="E320:E330"/>
+    <mergeCell ref="F320:F330"/>
+    <mergeCell ref="F209:F212"/>
+    <mergeCell ref="G209:G212"/>
+    <mergeCell ref="I209:I212"/>
+    <mergeCell ref="J209:J212"/>
+    <mergeCell ref="D203:D208"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="I412:I415"/>
+    <mergeCell ref="J373:J377"/>
+    <mergeCell ref="D378:D383"/>
+    <mergeCell ref="E378:E383"/>
+    <mergeCell ref="F378:F383"/>
+    <mergeCell ref="G378:G379"/>
+    <mergeCell ref="I378:I383"/>
+    <mergeCell ref="J378:J383"/>
+    <mergeCell ref="I373:I377"/>
+    <mergeCell ref="G380:G381"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="I384:I391"/>
+    <mergeCell ref="J384:J391"/>
+    <mergeCell ref="J412:J415"/>
+    <mergeCell ref="D408:D411"/>
+    <mergeCell ref="E408:E411"/>
+    <mergeCell ref="F408:F411"/>
+    <mergeCell ref="G392:G394"/>
+    <mergeCell ref="G395:G397"/>
+    <mergeCell ref="F403:F407"/>
+    <mergeCell ref="I403:I407"/>
+    <mergeCell ref="J403:J407"/>
+    <mergeCell ref="I408:I411"/>
+    <mergeCell ref="J408:J411"/>
+    <mergeCell ref="F203:F208"/>
+    <mergeCell ref="G203:G205"/>
+    <mergeCell ref="I203:I208"/>
+    <mergeCell ref="G213:G215"/>
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="G229:G231"/>
+    <mergeCell ref="I269:I272"/>
+    <mergeCell ref="J269:J272"/>
+    <mergeCell ref="J239:J243"/>
+    <mergeCell ref="I369:I372"/>
+    <mergeCell ref="J369:J372"/>
+    <mergeCell ref="J337:J341"/>
+    <mergeCell ref="I347:I352"/>
+    <mergeCell ref="J347:J352"/>
+    <mergeCell ref="I337:I341"/>
+    <mergeCell ref="I308:I311"/>
+    <mergeCell ref="J308:J311"/>
+    <mergeCell ref="I312:I315"/>
+    <mergeCell ref="D236:D238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="I236:I238"/>
+    <mergeCell ref="J236:J238"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="D216:D220"/>
+    <mergeCell ref="E216:E220"/>
+    <mergeCell ref="F216:F220"/>
+    <mergeCell ref="G216:G220"/>
+    <mergeCell ref="I216:I220"/>
+    <mergeCell ref="F232:F235"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="J221:J225"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="E226:E231"/>
+    <mergeCell ref="F226:F231"/>
+    <mergeCell ref="G226:G228"/>
+    <mergeCell ref="I226:I231"/>
+    <mergeCell ref="J216:J220"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="D232:D235"/>
+    <mergeCell ref="E232:E235"/>
+    <mergeCell ref="I232:I235"/>
+    <mergeCell ref="J232:J235"/>
+    <mergeCell ref="J226:J231"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
+    <mergeCell ref="F221:F225"/>
+    <mergeCell ref="G221:G225"/>
+    <mergeCell ref="I221:I225"/>
     <mergeCell ref="D331:D336"/>
     <mergeCell ref="E331:E336"/>
     <mergeCell ref="F331:F336"/>
@@ -36101,414 +36404,122 @@
     <mergeCell ref="G332:G333"/>
     <mergeCell ref="G320:G321"/>
     <mergeCell ref="I320:I330"/>
-    <mergeCell ref="D232:D235"/>
-    <mergeCell ref="E232:E235"/>
-    <mergeCell ref="I232:I235"/>
-    <mergeCell ref="J232:J235"/>
-    <mergeCell ref="J226:J231"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="F221:F225"/>
-    <mergeCell ref="G221:G225"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="I236:I238"/>
-    <mergeCell ref="J236:J238"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="D216:D220"/>
-    <mergeCell ref="E216:E220"/>
-    <mergeCell ref="F216:F220"/>
-    <mergeCell ref="G216:G220"/>
-    <mergeCell ref="I216:I220"/>
-    <mergeCell ref="F232:F235"/>
-    <mergeCell ref="G232:G235"/>
-    <mergeCell ref="J221:J225"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="E226:E231"/>
-    <mergeCell ref="F226:F231"/>
-    <mergeCell ref="G226:G228"/>
-    <mergeCell ref="I226:I231"/>
-    <mergeCell ref="J216:J220"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="G395:G397"/>
-    <mergeCell ref="F403:F407"/>
-    <mergeCell ref="I403:I407"/>
-    <mergeCell ref="J403:J407"/>
-    <mergeCell ref="I408:I411"/>
-    <mergeCell ref="J408:J411"/>
-    <mergeCell ref="F203:F208"/>
-    <mergeCell ref="G203:G205"/>
-    <mergeCell ref="I203:I208"/>
-    <mergeCell ref="G213:G215"/>
-    <mergeCell ref="I213:I215"/>
-    <mergeCell ref="G229:G231"/>
-    <mergeCell ref="I269:I272"/>
-    <mergeCell ref="J269:J272"/>
-    <mergeCell ref="J239:J243"/>
-    <mergeCell ref="I369:I372"/>
-    <mergeCell ref="J369:J372"/>
-    <mergeCell ref="J337:J341"/>
-    <mergeCell ref="I347:I352"/>
-    <mergeCell ref="J347:J352"/>
-    <mergeCell ref="I337:I341"/>
-    <mergeCell ref="I308:I311"/>
-    <mergeCell ref="J308:J311"/>
-    <mergeCell ref="I312:I315"/>
-    <mergeCell ref="F209:F212"/>
-    <mergeCell ref="G209:G212"/>
-    <mergeCell ref="I209:I212"/>
-    <mergeCell ref="J209:J212"/>
-    <mergeCell ref="D203:D208"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="I412:I415"/>
-    <mergeCell ref="J373:J377"/>
-    <mergeCell ref="D378:D383"/>
-    <mergeCell ref="E378:E383"/>
-    <mergeCell ref="F378:F383"/>
-    <mergeCell ref="G378:G379"/>
-    <mergeCell ref="I378:I383"/>
-    <mergeCell ref="J378:J383"/>
-    <mergeCell ref="I373:I377"/>
-    <mergeCell ref="G380:G381"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="I384:I391"/>
-    <mergeCell ref="J384:J391"/>
-    <mergeCell ref="J412:J415"/>
-    <mergeCell ref="D408:D411"/>
-    <mergeCell ref="E408:E411"/>
-    <mergeCell ref="F408:F411"/>
-    <mergeCell ref="G392:G394"/>
-    <mergeCell ref="A203:A225"/>
-    <mergeCell ref="B203:B225"/>
-    <mergeCell ref="D369:D372"/>
-    <mergeCell ref="E369:E372"/>
-    <mergeCell ref="F369:F372"/>
-    <mergeCell ref="D365:D368"/>
-    <mergeCell ref="E365:E368"/>
-    <mergeCell ref="F365:F368"/>
-    <mergeCell ref="I421:I423"/>
-    <mergeCell ref="A353:A372"/>
-    <mergeCell ref="B353:B372"/>
-    <mergeCell ref="E353:E356"/>
-    <mergeCell ref="F353:F356"/>
-    <mergeCell ref="C373:C397"/>
-    <mergeCell ref="D361:D364"/>
-    <mergeCell ref="E361:E364"/>
-    <mergeCell ref="F361:F364"/>
-    <mergeCell ref="A226:A248"/>
-    <mergeCell ref="B226:B248"/>
-    <mergeCell ref="A320:A352"/>
-    <mergeCell ref="B320:B352"/>
-    <mergeCell ref="D320:D330"/>
-    <mergeCell ref="E320:E330"/>
-    <mergeCell ref="F320:F330"/>
-    <mergeCell ref="A373:A397"/>
-    <mergeCell ref="B373:B397"/>
-    <mergeCell ref="D373:D377"/>
-    <mergeCell ref="E373:E377"/>
-    <mergeCell ref="F373:F377"/>
-    <mergeCell ref="D392:D397"/>
-    <mergeCell ref="E392:E397"/>
-    <mergeCell ref="F392:F397"/>
-    <mergeCell ref="C398:C415"/>
-    <mergeCell ref="D403:D407"/>
-    <mergeCell ref="E403:E407"/>
-    <mergeCell ref="A398:A415"/>
-    <mergeCell ref="B398:B415"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="E398:E402"/>
-    <mergeCell ref="F398:F402"/>
-    <mergeCell ref="D412:D415"/>
-    <mergeCell ref="E412:E415"/>
-    <mergeCell ref="F412:F415"/>
-    <mergeCell ref="D384:D391"/>
-    <mergeCell ref="E384:E391"/>
-    <mergeCell ref="F384:F391"/>
-    <mergeCell ref="I427:I429"/>
-    <mergeCell ref="J427:J429"/>
-    <mergeCell ref="G418:G419"/>
-    <mergeCell ref="A416:A429"/>
-    <mergeCell ref="B416:B429"/>
-    <mergeCell ref="C416:C429"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="E416:E420"/>
-    <mergeCell ref="F416:F420"/>
-    <mergeCell ref="D427:D429"/>
-    <mergeCell ref="E427:E429"/>
-    <mergeCell ref="F427:F429"/>
-    <mergeCell ref="I416:I420"/>
-    <mergeCell ref="J416:J420"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="E421:E423"/>
-    <mergeCell ref="F421:F423"/>
-    <mergeCell ref="J421:J423"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="E424:E426"/>
-    <mergeCell ref="F424:F426"/>
-    <mergeCell ref="I424:I426"/>
-    <mergeCell ref="J82:J87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="C70:C91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="J424:J426"/>
-    <mergeCell ref="I398:I402"/>
-    <mergeCell ref="J398:J402"/>
-    <mergeCell ref="I392:I397"/>
-    <mergeCell ref="J392:J397"/>
-    <mergeCell ref="C203:C225"/>
-    <mergeCell ref="C226:C248"/>
-    <mergeCell ref="C320:C352"/>
-    <mergeCell ref="C353:C372"/>
-    <mergeCell ref="G384:G386"/>
-    <mergeCell ref="G373:G377"/>
-    <mergeCell ref="G387:G391"/>
-    <mergeCell ref="J203:J208"/>
-    <mergeCell ref="G206:G208"/>
-    <mergeCell ref="D209:D212"/>
-    <mergeCell ref="E209:E212"/>
-    <mergeCell ref="A70:A91"/>
-    <mergeCell ref="B70:B91"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="F82:F87"/>
-    <mergeCell ref="I82:I87"/>
-    <mergeCell ref="J70:J75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="E76:E81"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="F76:F81"/>
-    <mergeCell ref="I76:I81"/>
-    <mergeCell ref="J76:J81"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="A53:A69"/>
-    <mergeCell ref="B53:B69"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="C53:C69"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C22:C52"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="J27:J33"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="J34:J39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="A22:A52"/>
-    <mergeCell ref="B22:B52"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="F46:F52"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C133"/>
-    <mergeCell ref="J102:J107"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="J108:J114"/>
-    <mergeCell ref="D115:D121"/>
-    <mergeCell ref="E115:E121"/>
-    <mergeCell ref="F115:F121"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="I115:I121"/>
-    <mergeCell ref="J115:J121"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="D108:D114"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="A96:A133"/>
-    <mergeCell ref="B96:B133"/>
-    <mergeCell ref="D96:D101"/>
-    <mergeCell ref="E96:E101"/>
-    <mergeCell ref="F96:F101"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="I96:I101"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="J96:J101"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="D102:D107"/>
-    <mergeCell ref="E102:E107"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="E108:E114"/>
-    <mergeCell ref="F108:F114"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="I108:I114"/>
-    <mergeCell ref="J127:J133"/>
-    <mergeCell ref="A134:A149"/>
-    <mergeCell ref="B134:B149"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="J134:J138"/>
-    <mergeCell ref="D139:D144"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="E127:E133"/>
-    <mergeCell ref="F127:F133"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="I127:I133"/>
-    <mergeCell ref="E139:E144"/>
-    <mergeCell ref="F139:F144"/>
-    <mergeCell ref="I139:I144"/>
-    <mergeCell ref="J139:J144"/>
-    <mergeCell ref="C134:C149"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="I164:I167"/>
-    <mergeCell ref="J164:J167"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="E145:E149"/>
-    <mergeCell ref="F145:F149"/>
-    <mergeCell ref="I145:I149"/>
-    <mergeCell ref="J145:J149"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="J150:J155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E156:E159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="I156:I159"/>
-    <mergeCell ref="J156:J159"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="A174:A202"/>
-    <mergeCell ref="B174:B202"/>
-    <mergeCell ref="D174:D180"/>
-    <mergeCell ref="E174:E180"/>
-    <mergeCell ref="F174:F180"/>
-    <mergeCell ref="D188:D194"/>
-    <mergeCell ref="E188:E194"/>
-    <mergeCell ref="F188:F194"/>
-    <mergeCell ref="I160:I163"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="A150:A173"/>
-    <mergeCell ref="B150:B173"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="I174:I180"/>
-    <mergeCell ref="C150:C173"/>
-    <mergeCell ref="C174:C202"/>
-    <mergeCell ref="J174:J180"/>
-    <mergeCell ref="D181:D187"/>
-    <mergeCell ref="E181:E187"/>
-    <mergeCell ref="F181:F187"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="I181:I187"/>
-    <mergeCell ref="J181:J187"/>
-    <mergeCell ref="I200:I202"/>
-    <mergeCell ref="J200:J202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="F200:F202"/>
-    <mergeCell ref="G200:G202"/>
-    <mergeCell ref="H200:H202"/>
-    <mergeCell ref="G188:G190"/>
-    <mergeCell ref="I188:I194"/>
-    <mergeCell ref="J188:J194"/>
-    <mergeCell ref="D195:D199"/>
-    <mergeCell ref="E195:E199"/>
-    <mergeCell ref="F195:F199"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="I195:I199"/>
-    <mergeCell ref="J195:J199"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="F244:F248"/>
+    <mergeCell ref="G244:G248"/>
+    <mergeCell ref="I244:I248"/>
+    <mergeCell ref="J244:J248"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="E239:E243"/>
+    <mergeCell ref="F239:F243"/>
+    <mergeCell ref="G239:G243"/>
+    <mergeCell ref="I239:I243"/>
+    <mergeCell ref="D353:D356"/>
+    <mergeCell ref="I342:I346"/>
+    <mergeCell ref="J342:J346"/>
+    <mergeCell ref="I361:I364"/>
+    <mergeCell ref="J361:J364"/>
+    <mergeCell ref="I365:I368"/>
+    <mergeCell ref="J365:J368"/>
+    <mergeCell ref="I353:I356"/>
+    <mergeCell ref="J353:J356"/>
+    <mergeCell ref="I357:I360"/>
+    <mergeCell ref="J357:J360"/>
+    <mergeCell ref="D357:D360"/>
+    <mergeCell ref="E357:E360"/>
+    <mergeCell ref="F357:F360"/>
+    <mergeCell ref="D347:D352"/>
+    <mergeCell ref="E347:E352"/>
+    <mergeCell ref="F347:F352"/>
+    <mergeCell ref="D342:D346"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="F342:F346"/>
+    <mergeCell ref="A269:A319"/>
+    <mergeCell ref="B269:B319"/>
+    <mergeCell ref="C269:C319"/>
+    <mergeCell ref="D269:D272"/>
+    <mergeCell ref="E269:E272"/>
+    <mergeCell ref="F269:F272"/>
+    <mergeCell ref="D273:D277"/>
+    <mergeCell ref="E273:E277"/>
+    <mergeCell ref="F273:F277"/>
+    <mergeCell ref="D279:D282"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="D316:D319"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="D283:D288"/>
+    <mergeCell ref="E283:E288"/>
+    <mergeCell ref="D312:D315"/>
+    <mergeCell ref="E312:E315"/>
+    <mergeCell ref="F312:F315"/>
+    <mergeCell ref="I294:I299"/>
+    <mergeCell ref="J294:J299"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="F300:F302"/>
+    <mergeCell ref="I300:I302"/>
+    <mergeCell ref="J300:J302"/>
+    <mergeCell ref="F316:F319"/>
+    <mergeCell ref="D308:D311"/>
+    <mergeCell ref="E308:E311"/>
+    <mergeCell ref="F308:F311"/>
+    <mergeCell ref="A249:A268"/>
+    <mergeCell ref="B249:B268"/>
+    <mergeCell ref="C249:C268"/>
+    <mergeCell ref="D249:D252"/>
+    <mergeCell ref="E249:E252"/>
+    <mergeCell ref="F249:F252"/>
+    <mergeCell ref="I249:I252"/>
+    <mergeCell ref="J249:J252"/>
+    <mergeCell ref="D253:D257"/>
+    <mergeCell ref="E253:E257"/>
+    <mergeCell ref="F253:F257"/>
+    <mergeCell ref="I253:I257"/>
+    <mergeCell ref="J253:J257"/>
+    <mergeCell ref="D259:D262"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="F259:F262"/>
+    <mergeCell ref="I259:I262"/>
+    <mergeCell ref="J259:J262"/>
+    <mergeCell ref="A430:A443"/>
+    <mergeCell ref="B430:B443"/>
+    <mergeCell ref="C430:C443"/>
+    <mergeCell ref="D430:D435"/>
+    <mergeCell ref="E430:E435"/>
+    <mergeCell ref="F430:F435"/>
+    <mergeCell ref="I430:I435"/>
+    <mergeCell ref="J430:J435"/>
+    <mergeCell ref="D436:D439"/>
+    <mergeCell ref="E436:E439"/>
+    <mergeCell ref="F436:F439"/>
+    <mergeCell ref="I436:I439"/>
+    <mergeCell ref="J436:J439"/>
+    <mergeCell ref="D440:D443"/>
+    <mergeCell ref="E440:E443"/>
+    <mergeCell ref="F440:F443"/>
+    <mergeCell ref="I440:I443"/>
+    <mergeCell ref="J440:J443"/>
+    <mergeCell ref="D263:D268"/>
+    <mergeCell ref="E263:E268"/>
+    <mergeCell ref="F263:F268"/>
+    <mergeCell ref="I263:I268"/>
+    <mergeCell ref="J263:J268"/>
+    <mergeCell ref="J312:J315"/>
+    <mergeCell ref="D337:D341"/>
+    <mergeCell ref="E337:E341"/>
+    <mergeCell ref="F337:F341"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="E304:E307"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="I304:I307"/>
+    <mergeCell ref="J304:J307"/>
+    <mergeCell ref="I289:I293"/>
+    <mergeCell ref="J289:J293"/>
+    <mergeCell ref="D294:D299"/>
+    <mergeCell ref="E294:E299"/>
+    <mergeCell ref="F294:F299"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B134" r:id="rId1" xr:uid="{2B4BE02D-ED39-4B08-9C1D-4F1C4B455D52}"/>
@@ -37450,7 +37461,7 @@
       <c r="A44" s="43" t="s">
         <v>1613</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="52" t="s">
         <v>1614</v>
       </c>
       <c r="C44" s="43">
@@ -37478,7 +37489,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="47"/>
@@ -37494,7 +37505,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="47"/>
@@ -37510,7 +37521,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" s="55"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="47"/>
@@ -37526,7 +37537,7 @@
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="47"/>
@@ -37542,7 +37553,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="44"/>
       <c r="D49" s="43" t="s">
         <v>1252</v>
@@ -37566,7 +37577,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="47"/>
@@ -37582,7 +37593,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="47"/>
@@ -37598,7 +37609,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="44"/>
-      <c r="B52" s="55"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="47"/>
@@ -37614,7 +37625,7 @@
     </row>
     <row r="53" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="44"/>
-      <c r="B53" s="55"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="47"/>
@@ -37630,7 +37641,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44"/>
-      <c r="B54" s="55"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="44"/>
       <c r="D54" s="43" t="s">
         <v>1615</v>
@@ -37654,7 +37665,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="44"/>
-      <c r="B55" s="55"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="47"/>
@@ -37670,7 +37681,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
       <c r="E56" s="47"/>
@@ -37686,7 +37697,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
-      <c r="B57" s="55"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
       <c r="E57" s="47"/>
@@ -37702,7 +37713,7 @@
     </row>
     <row r="58" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="45"/>
-      <c r="B58" s="56"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="45"/>
       <c r="D58" s="44"/>
       <c r="E58" s="47"/>
@@ -37989,7 +38000,7 @@
       <c r="F73" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G73" s="52" t="s">
+      <c r="G73" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H73" s="40" t="s">
@@ -38007,7 +38018,7 @@
       <c r="D74" s="44"/>
       <c r="E74" s="47"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="53"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="42" t="s">
         <v>1262</v>
       </c>
@@ -38069,7 +38080,7 @@
       <c r="D78" s="44"/>
       <c r="E78" s="47"/>
       <c r="F78" s="44"/>
-      <c r="G78" s="53" t="s">
+      <c r="G78" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="42" t="s">
@@ -38085,7 +38096,7 @@
       <c r="D79" s="44"/>
       <c r="E79" s="47"/>
       <c r="F79" s="44"/>
-      <c r="G79" s="57"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="42" t="s">
         <v>1267</v>
       </c>
@@ -38105,7 +38116,7 @@
       <c r="F80" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H80" s="40" t="s">
@@ -38123,7 +38134,7 @@
       <c r="D81" s="44"/>
       <c r="E81" s="47"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="53"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="42" t="s">
         <v>1270</v>
       </c>
@@ -38185,7 +38196,7 @@
       <c r="D85" s="44"/>
       <c r="E85" s="47"/>
       <c r="F85" s="44"/>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="42" t="s">
@@ -38201,7 +38212,7 @@
       <c r="D86" s="44"/>
       <c r="E86" s="47"/>
       <c r="F86" s="44"/>
-      <c r="G86" s="57"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="42" t="s">
         <v>1267</v>
       </c>
@@ -38221,7 +38232,7 @@
       <c r="F87" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G87" s="52" t="s">
+      <c r="G87" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H87" s="40" t="s">
@@ -38239,7 +38250,7 @@
       <c r="D88" s="44"/>
       <c r="E88" s="47"/>
       <c r="F88" s="44"/>
-      <c r="G88" s="53"/>
+      <c r="G88" s="55"/>
       <c r="H88" s="42" t="s">
         <v>1628</v>
       </c>
@@ -38298,7 +38309,7 @@
       <c r="A92" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="52" t="s">
         <v>780</v>
       </c>
       <c r="C92" s="43">
@@ -38326,7 +38337,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
-      <c r="B93" s="55"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
       <c r="E93" s="47"/>
@@ -38342,7 +38353,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="44"/>
-      <c r="B94" s="55"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
       <c r="E94" s="47"/>
@@ -38358,7 +38369,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="44"/>
-      <c r="B95" s="55"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
       <c r="E95" s="47"/>
@@ -38374,7 +38385,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="44"/>
-      <c r="B96" s="55"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
       <c r="E96" s="47"/>
@@ -38390,12 +38401,12 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="44"/>
-      <c r="B97" s="55"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
       <c r="E97" s="47"/>
       <c r="F97" s="44"/>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="42" t="s">
@@ -38406,12 +38417,12 @@
     </row>
     <row r="98" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="44"/>
-      <c r="B98" s="55"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
       <c r="E98" s="47"/>
       <c r="F98" s="44"/>
-      <c r="G98" s="57"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="42" t="s">
         <v>788</v>
       </c>
@@ -38420,7 +38431,7 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="44"/>
-      <c r="B99" s="55"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="44"/>
       <c r="D99" s="43" t="s">
         <v>783</v>
@@ -38444,7 +38455,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="44"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
       <c r="E100" s="47"/>
@@ -38460,7 +38471,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="44"/>
-      <c r="B101" s="55"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
       <c r="E101" s="47"/>
@@ -38476,7 +38487,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="44"/>
-      <c r="B102" s="55"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
       <c r="E102" s="47"/>
@@ -38492,7 +38503,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="44"/>
-      <c r="B103" s="55"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
       <c r="E103" s="47"/>
@@ -38508,12 +38519,12 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="44"/>
-      <c r="B104" s="55"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
       <c r="E104" s="47"/>
       <c r="F104" s="44"/>
-      <c r="G104" s="53" t="s">
+      <c r="G104" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H104" s="42" t="s">
@@ -38524,12 +38535,12 @@
     </row>
     <row r="105" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="44"/>
-      <c r="B105" s="55"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
       <c r="E105" s="47"/>
       <c r="F105" s="44"/>
-      <c r="G105" s="57"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="42" t="s">
         <v>788</v>
       </c>
@@ -38538,7 +38549,7 @@
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="44"/>
-      <c r="B106" s="55"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="44"/>
       <c r="D106" s="43" t="s">
         <v>784</v>
@@ -38562,7 +38573,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="44"/>
-      <c r="B107" s="55"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
       <c r="E107" s="47"/>
@@ -38578,7 +38589,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="44"/>
-      <c r="B108" s="55"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
       <c r="E108" s="47"/>
@@ -38594,7 +38605,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="44"/>
-      <c r="B109" s="55"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
       <c r="E109" s="47"/>
@@ -38610,7 +38621,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="44"/>
-      <c r="B110" s="55"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="44"/>
       <c r="D110" s="44"/>
       <c r="E110" s="47"/>
@@ -38626,12 +38637,12 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="44"/>
-      <c r="B111" s="55"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
       <c r="E111" s="47"/>
       <c r="F111" s="44"/>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H111" s="42" t="s">
@@ -38642,12 +38653,12 @@
     </row>
     <row r="112" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="44"/>
-      <c r="B112" s="55"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
       <c r="E112" s="47"/>
       <c r="F112" s="44"/>
-      <c r="G112" s="57"/>
+      <c r="G112" s="56"/>
       <c r="H112" s="42" t="s">
         <v>788</v>
       </c>
@@ -38656,7 +38667,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="44"/>
-      <c r="B113" s="55"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="44"/>
       <c r="D113" s="43" t="s">
         <v>785</v>
@@ -38680,7 +38691,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="44"/>
-      <c r="B114" s="55"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
       <c r="E114" s="47"/>
@@ -38696,7 +38707,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="44"/>
-      <c r="B115" s="55"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
       <c r="E115" s="47"/>
@@ -38712,7 +38723,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="44"/>
-      <c r="B116" s="55"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
       <c r="E116" s="47"/>
@@ -38728,7 +38739,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="44"/>
-      <c r="B117" s="55"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
       <c r="E117" s="47"/>
@@ -38744,12 +38755,12 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="44"/>
-      <c r="B118" s="55"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
       <c r="E118" s="47"/>
       <c r="F118" s="44"/>
-      <c r="G118" s="53" t="s">
+      <c r="G118" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H118" s="42" t="s">
@@ -38760,12 +38771,12 @@
     </row>
     <row r="119" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="45"/>
-      <c r="B119" s="56"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="45"/>
       <c r="D119" s="44"/>
       <c r="E119" s="47"/>
       <c r="F119" s="44"/>
-      <c r="G119" s="57"/>
+      <c r="G119" s="56"/>
       <c r="H119" s="42" t="s">
         <v>788</v>
       </c>
@@ -38776,7 +38787,7 @@
       <c r="A120" s="43" t="s">
         <v>1632</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="52" t="s">
         <v>1633</v>
       </c>
       <c r="C120" s="43">
@@ -38791,7 +38802,7 @@
       <c r="F120" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G120" s="52" t="s">
+      <c r="G120" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H120" s="40" t="s">
@@ -38804,12 +38815,12 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="44"/>
-      <c r="B121" s="55"/>
+      <c r="B121" s="53"/>
       <c r="C121" s="44"/>
       <c r="D121" s="44"/>
       <c r="E121" s="47"/>
       <c r="F121" s="44"/>
-      <c r="G121" s="53"/>
+      <c r="G121" s="55"/>
       <c r="H121" s="42" t="s">
         <v>1637</v>
       </c>
@@ -38818,7 +38829,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="44"/>
-      <c r="B122" s="55"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
       <c r="E122" s="47"/>
@@ -38834,7 +38845,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="44"/>
-      <c r="B123" s="55"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
       <c r="E123" s="47"/>
@@ -38850,7 +38861,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="44"/>
-      <c r="B124" s="55"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
       <c r="E124" s="47"/>
@@ -38866,7 +38877,7 @@
     </row>
     <row r="125" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="44"/>
-      <c r="B125" s="55"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
       <c r="E125" s="47"/>
@@ -38882,7 +38893,7 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="44"/>
-      <c r="B126" s="55"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="44"/>
       <c r="D126" s="43" t="s">
         <v>1642</v>
@@ -38893,7 +38904,7 @@
       <c r="F126" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G126" s="52" t="s">
+      <c r="G126" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H126" s="40" t="s">
@@ -38906,12 +38917,12 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="44"/>
-      <c r="B127" s="55"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
       <c r="E127" s="47"/>
       <c r="F127" s="44"/>
-      <c r="G127" s="53"/>
+      <c r="G127" s="55"/>
       <c r="H127" s="42" t="s">
         <v>479</v>
       </c>
@@ -38920,7 +38931,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
-      <c r="B128" s="55"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
       <c r="E128" s="47"/>
@@ -38936,7 +38947,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="44"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
       <c r="E129" s="47"/>
@@ -38952,7 +38963,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="44"/>
-      <c r="B130" s="55"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
       <c r="E130" s="47"/>
@@ -38968,7 +38979,7 @@
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="44"/>
-      <c r="B131" s="55"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="44"/>
       <c r="D131" s="43" t="s">
         <v>1647</v>
@@ -38979,7 +38990,7 @@
       <c r="F131" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="G131" s="52" t="s">
+      <c r="G131" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H131" s="40" t="s">
@@ -38992,12 +39003,12 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="44"/>
-      <c r="B132" s="55"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
       <c r="E132" s="47"/>
       <c r="F132" s="44"/>
-      <c r="G132" s="53"/>
+      <c r="G132" s="55"/>
       <c r="H132" s="42" t="s">
         <v>1649</v>
       </c>
@@ -39006,7 +39017,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
-      <c r="B133" s="55"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
       <c r="E133" s="47"/>
@@ -39022,7 +39033,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="44"/>
-      <c r="B134" s="55"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
       <c r="E134" s="47"/>
@@ -39038,7 +39049,7 @@
     </row>
     <row r="135" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="45"/>
-      <c r="B135" s="56"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="45"/>
       <c r="D135" s="44"/>
       <c r="E135" s="47"/>
@@ -39717,7 +39728,7 @@
       <c r="F172" s="43" t="s">
         <v>1337</v>
       </c>
-      <c r="G172" s="52" t="s">
+      <c r="G172" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H172" s="40" t="s">
@@ -39735,7 +39746,7 @@
       <c r="D173" s="44"/>
       <c r="E173" s="47"/>
       <c r="F173" s="44"/>
-      <c r="G173" s="53"/>
+      <c r="G173" s="55"/>
       <c r="H173" s="42" t="s">
         <v>1361</v>
       </c>
@@ -39794,7 +39805,7 @@
       <c r="A177" s="43" t="s">
         <v>1604</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="52" t="s">
         <v>1605</v>
       </c>
       <c r="C177" s="43">
@@ -39822,7 +39833,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="44"/>
-      <c r="B178" s="55"/>
+      <c r="B178" s="53"/>
       <c r="C178" s="44"/>
       <c r="D178" s="44"/>
       <c r="E178" s="47"/>
@@ -39838,7 +39849,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="44"/>
-      <c r="B179" s="55"/>
+      <c r="B179" s="53"/>
       <c r="C179" s="44"/>
       <c r="D179" s="44"/>
       <c r="E179" s="47"/>
@@ -39854,7 +39865,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="44"/>
-      <c r="B180" s="55"/>
+      <c r="B180" s="53"/>
       <c r="C180" s="44"/>
       <c r="D180" s="44"/>
       <c r="E180" s="47"/>
@@ -39870,7 +39881,7 @@
     </row>
     <row r="181" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="44"/>
-      <c r="B181" s="55"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="44"/>
       <c r="D181" s="44"/>
       <c r="E181" s="47"/>
@@ -39886,7 +39897,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="44"/>
-      <c r="B182" s="55"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="44"/>
       <c r="D182" s="43" t="s">
         <v>1233</v>
@@ -39910,7 +39921,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="44"/>
-      <c r="B183" s="55"/>
+      <c r="B183" s="53"/>
       <c r="C183" s="44"/>
       <c r="D183" s="44"/>
       <c r="E183" s="47"/>
@@ -39926,7 +39937,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="44"/>
-      <c r="B184" s="55"/>
+      <c r="B184" s="53"/>
       <c r="C184" s="44"/>
       <c r="D184" s="44"/>
       <c r="E184" s="47"/>
@@ -39942,7 +39953,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="44"/>
-      <c r="B185" s="55"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="44"/>
       <c r="D185" s="44"/>
       <c r="E185" s="47"/>
@@ -39958,7 +39969,7 @@
     </row>
     <row r="186" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="44"/>
-      <c r="B186" s="55"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="44"/>
       <c r="D186" s="44"/>
       <c r="E186" s="47"/>
@@ -39974,7 +39985,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="44"/>
-      <c r="B187" s="55"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="44"/>
       <c r="D187" s="43" t="s">
         <v>1234</v>
@@ -39998,7 +40009,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="44"/>
-      <c r="B188" s="55"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="44"/>
       <c r="D188" s="44"/>
       <c r="E188" s="47"/>
@@ -40014,7 +40025,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="44"/>
-      <c r="B189" s="55"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="44"/>
       <c r="D189" s="44"/>
       <c r="E189" s="47"/>
@@ -40030,7 +40041,7 @@
     </row>
     <row r="190" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="45"/>
-      <c r="B190" s="56"/>
+      <c r="B190" s="54"/>
       <c r="C190" s="45"/>
       <c r="D190" s="44"/>
       <c r="E190" s="47"/>
@@ -41591,7 +41602,7 @@
       <c r="F276" s="43" t="s">
         <v>1337</v>
       </c>
-      <c r="G276" s="52" t="s">
+      <c r="G276" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H276" s="40" t="s">
@@ -41609,7 +41620,7 @@
       <c r="D277" s="44"/>
       <c r="E277" s="47"/>
       <c r="F277" s="44"/>
-      <c r="G277" s="53"/>
+      <c r="G277" s="55"/>
       <c r="H277" s="42" t="s">
         <v>1489</v>
       </c>
@@ -41792,48 +41803,292 @@
     </row>
   </sheetData>
   <mergeCells count="352">
-    <mergeCell ref="A212:A227"/>
-    <mergeCell ref="B212:B227"/>
-    <mergeCell ref="C212:C227"/>
-    <mergeCell ref="D212:D215"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="I212:I215"/>
-    <mergeCell ref="J212:J215"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="I216:I219"/>
-    <mergeCell ref="J216:J219"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="I220:I223"/>
-    <mergeCell ref="J220:J223"/>
-    <mergeCell ref="D224:D227"/>
-    <mergeCell ref="E224:E227"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="I224:I227"/>
-    <mergeCell ref="J224:J227"/>
-    <mergeCell ref="C120:C135"/>
-    <mergeCell ref="D120:D125"/>
-    <mergeCell ref="E120:E125"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="I120:I125"/>
-    <mergeCell ref="J120:J125"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="I126:I130"/>
-    <mergeCell ref="J126:J130"/>
-    <mergeCell ref="D131:D135"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="I131:I135"/>
-    <mergeCell ref="J131:J135"/>
+    <mergeCell ref="I282:I287"/>
+    <mergeCell ref="J282:J287"/>
+    <mergeCell ref="I264:I267"/>
+    <mergeCell ref="J264:J267"/>
+    <mergeCell ref="I268:I275"/>
+    <mergeCell ref="J268:J275"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="J252:J255"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:J259"/>
+    <mergeCell ref="A252:A275"/>
+    <mergeCell ref="D264:D267"/>
+    <mergeCell ref="E264:E267"/>
+    <mergeCell ref="F264:F267"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="E276:E281"/>
+    <mergeCell ref="F276:F281"/>
+    <mergeCell ref="F252:F255"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="E256:E259"/>
+    <mergeCell ref="F256:F259"/>
+    <mergeCell ref="B252:B275"/>
+    <mergeCell ref="C252:C275"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="E260:E263"/>
+    <mergeCell ref="F260:F263"/>
+    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="A276:A281"/>
+    <mergeCell ref="B276:B281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="A282:A287"/>
+    <mergeCell ref="B282:B287"/>
+    <mergeCell ref="C282:C287"/>
+    <mergeCell ref="D282:D287"/>
+    <mergeCell ref="E282:E287"/>
+    <mergeCell ref="F282:F287"/>
+    <mergeCell ref="I276:I281"/>
+    <mergeCell ref="J276:J281"/>
+    <mergeCell ref="I241:I245"/>
+    <mergeCell ref="J241:J245"/>
+    <mergeCell ref="D246:D251"/>
+    <mergeCell ref="E246:E251"/>
+    <mergeCell ref="F246:F251"/>
+    <mergeCell ref="I246:I251"/>
+    <mergeCell ref="J246:J251"/>
+    <mergeCell ref="D268:D275"/>
+    <mergeCell ref="E268:E275"/>
+    <mergeCell ref="F268:F275"/>
+    <mergeCell ref="I260:I263"/>
+    <mergeCell ref="J260:J263"/>
+    <mergeCell ref="A228:A251"/>
+    <mergeCell ref="B228:B251"/>
+    <mergeCell ref="C228:C251"/>
+    <mergeCell ref="D228:D233"/>
+    <mergeCell ref="E228:E233"/>
+    <mergeCell ref="F228:F233"/>
+    <mergeCell ref="I228:I233"/>
+    <mergeCell ref="J228:J233"/>
+    <mergeCell ref="D234:D240"/>
+    <mergeCell ref="E234:E240"/>
+    <mergeCell ref="F234:F240"/>
+    <mergeCell ref="I234:I240"/>
+    <mergeCell ref="J234:J240"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="F241:F245"/>
+    <mergeCell ref="I168:I171"/>
+    <mergeCell ref="J168:J171"/>
+    <mergeCell ref="D172:D176"/>
+    <mergeCell ref="E172:E176"/>
+    <mergeCell ref="F172:F176"/>
+    <mergeCell ref="I172:I176"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="A155:A176"/>
+    <mergeCell ref="B155:B176"/>
+    <mergeCell ref="C155:C176"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="E155:E159"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="I155:I159"/>
+    <mergeCell ref="J155:J159"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="I160:I163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="I164:I167"/>
+    <mergeCell ref="J164:J167"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="F136:F140"/>
+    <mergeCell ref="I136:I140"/>
+    <mergeCell ref="J136:J140"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="I152:I154"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="F147:F151"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="I141:I146"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="F113:F119"/>
+    <mergeCell ref="I113:I119"/>
+    <mergeCell ref="J113:J119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="J141:J146"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="I68:I72"/>
+    <mergeCell ref="J68:J72"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="D80:D86"/>
+    <mergeCell ref="D73:D79"/>
+    <mergeCell ref="E73:E79"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="I73:I79"/>
+    <mergeCell ref="J73:J79"/>
+    <mergeCell ref="I106:I112"/>
+    <mergeCell ref="J106:J112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="I80:I86"/>
+    <mergeCell ref="J80:J86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="C22:C43"/>
+    <mergeCell ref="C59:C72"/>
+    <mergeCell ref="C136:C154"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="A22:A43"/>
+    <mergeCell ref="B22:B43"/>
+    <mergeCell ref="A136:A154"/>
+    <mergeCell ref="B136:B154"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="C73:C91"/>
+    <mergeCell ref="A120:A135"/>
+    <mergeCell ref="B120:B135"/>
+    <mergeCell ref="A177:A190"/>
+    <mergeCell ref="B177:B190"/>
+    <mergeCell ref="C177:C190"/>
+    <mergeCell ref="D177:D181"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="I177:I181"/>
+    <mergeCell ref="J177:J181"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="E182:E186"/>
+    <mergeCell ref="F182:F186"/>
+    <mergeCell ref="I182:I186"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="D187:D190"/>
+    <mergeCell ref="E187:E190"/>
+    <mergeCell ref="F187:F190"/>
+    <mergeCell ref="I187:I190"/>
+    <mergeCell ref="J187:J190"/>
+    <mergeCell ref="A191:A211"/>
+    <mergeCell ref="B191:B211"/>
+    <mergeCell ref="C191:C211"/>
+    <mergeCell ref="D191:D194"/>
+    <mergeCell ref="E191:E194"/>
+    <mergeCell ref="F191:F194"/>
+    <mergeCell ref="I191:I194"/>
+    <mergeCell ref="J191:J194"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="E195:E198"/>
+    <mergeCell ref="F195:F198"/>
+    <mergeCell ref="I195:I198"/>
+    <mergeCell ref="J195:J198"/>
+    <mergeCell ref="D199:D202"/>
+    <mergeCell ref="E199:E202"/>
+    <mergeCell ref="F199:F202"/>
+    <mergeCell ref="I199:I202"/>
+    <mergeCell ref="J199:J202"/>
+    <mergeCell ref="D203:D206"/>
+    <mergeCell ref="E203:E206"/>
+    <mergeCell ref="F203:F206"/>
+    <mergeCell ref="I203:I206"/>
+    <mergeCell ref="J203:J206"/>
+    <mergeCell ref="D207:D211"/>
+    <mergeCell ref="E207:E211"/>
+    <mergeCell ref="F207:F211"/>
+    <mergeCell ref="I207:I211"/>
+    <mergeCell ref="J207:J211"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C58"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="A73:A91"/>
+    <mergeCell ref="B73:B91"/>
     <mergeCell ref="D87:D91"/>
     <mergeCell ref="E87:E91"/>
     <mergeCell ref="F87:F91"/>
@@ -41858,292 +42113,48 @@
     <mergeCell ref="D106:D112"/>
     <mergeCell ref="E106:E112"/>
     <mergeCell ref="F106:F112"/>
-    <mergeCell ref="E207:E211"/>
-    <mergeCell ref="F207:F211"/>
-    <mergeCell ref="I207:I211"/>
-    <mergeCell ref="J207:J211"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="C44:C58"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="A73:A91"/>
-    <mergeCell ref="B73:B91"/>
-    <mergeCell ref="A191:A211"/>
-    <mergeCell ref="B191:B211"/>
-    <mergeCell ref="C191:C211"/>
-    <mergeCell ref="D191:D194"/>
-    <mergeCell ref="E191:E194"/>
-    <mergeCell ref="F191:F194"/>
-    <mergeCell ref="I191:I194"/>
-    <mergeCell ref="J191:J194"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="E195:E198"/>
-    <mergeCell ref="F195:F198"/>
-    <mergeCell ref="I195:I198"/>
-    <mergeCell ref="J195:J198"/>
-    <mergeCell ref="D199:D202"/>
-    <mergeCell ref="E199:E202"/>
-    <mergeCell ref="F199:F202"/>
-    <mergeCell ref="I199:I202"/>
-    <mergeCell ref="J199:J202"/>
-    <mergeCell ref="D203:D206"/>
-    <mergeCell ref="E203:E206"/>
-    <mergeCell ref="F203:F206"/>
-    <mergeCell ref="I203:I206"/>
-    <mergeCell ref="J203:J206"/>
-    <mergeCell ref="D207:D211"/>
-    <mergeCell ref="A177:A190"/>
-    <mergeCell ref="B177:B190"/>
-    <mergeCell ref="C177:C190"/>
-    <mergeCell ref="D177:D181"/>
-    <mergeCell ref="E177:E181"/>
-    <mergeCell ref="F177:F181"/>
-    <mergeCell ref="I177:I181"/>
-    <mergeCell ref="J177:J181"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="E182:E186"/>
-    <mergeCell ref="F182:F186"/>
-    <mergeCell ref="I182:I186"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="D187:D190"/>
-    <mergeCell ref="E187:E190"/>
-    <mergeCell ref="F187:F190"/>
-    <mergeCell ref="I187:I190"/>
-    <mergeCell ref="J187:J190"/>
-    <mergeCell ref="C2:C21"/>
-    <mergeCell ref="C22:C43"/>
-    <mergeCell ref="C59:C72"/>
-    <mergeCell ref="C136:C154"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="A22:A43"/>
-    <mergeCell ref="B22:B43"/>
-    <mergeCell ref="A136:A154"/>
-    <mergeCell ref="B136:B154"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="C73:C91"/>
-    <mergeCell ref="A120:A135"/>
-    <mergeCell ref="B120:B135"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="D73:D79"/>
-    <mergeCell ref="E73:E79"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="I73:I79"/>
-    <mergeCell ref="J73:J79"/>
-    <mergeCell ref="I106:I112"/>
-    <mergeCell ref="J106:J112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="E113:E119"/>
-    <mergeCell ref="F113:F119"/>
-    <mergeCell ref="I113:I119"/>
-    <mergeCell ref="J113:J119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="J141:J146"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="I68:I72"/>
-    <mergeCell ref="J68:J72"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="D80:D86"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="I80:I86"/>
-    <mergeCell ref="J80:J86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="I164:I167"/>
-    <mergeCell ref="J164:J167"/>
-    <mergeCell ref="D168:D171"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="F168:F171"/>
-    <mergeCell ref="D136:D140"/>
-    <mergeCell ref="E136:E140"/>
-    <mergeCell ref="F136:F140"/>
-    <mergeCell ref="I136:I140"/>
-    <mergeCell ref="J136:J140"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="I152:I154"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="F147:F151"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
-    <mergeCell ref="I141:I146"/>
-    <mergeCell ref="I168:I171"/>
-    <mergeCell ref="J168:J171"/>
-    <mergeCell ref="D172:D176"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="I172:I176"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="A155:A176"/>
-    <mergeCell ref="B155:B176"/>
-    <mergeCell ref="C155:C176"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="E155:E159"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="I155:I159"/>
-    <mergeCell ref="J155:J159"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="I160:I163"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="A228:A251"/>
-    <mergeCell ref="B228:B251"/>
-    <mergeCell ref="C228:C251"/>
-    <mergeCell ref="D228:D233"/>
-    <mergeCell ref="E228:E233"/>
-    <mergeCell ref="F228:F233"/>
-    <mergeCell ref="I228:I233"/>
-    <mergeCell ref="J228:J233"/>
-    <mergeCell ref="D234:D240"/>
-    <mergeCell ref="E234:E240"/>
-    <mergeCell ref="F234:F240"/>
-    <mergeCell ref="I234:I240"/>
-    <mergeCell ref="J234:J240"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="F241:F245"/>
-    <mergeCell ref="I276:I281"/>
-    <mergeCell ref="J276:J281"/>
-    <mergeCell ref="I241:I245"/>
-    <mergeCell ref="J241:J245"/>
-    <mergeCell ref="D246:D251"/>
-    <mergeCell ref="E246:E251"/>
-    <mergeCell ref="F246:F251"/>
-    <mergeCell ref="I246:I251"/>
-    <mergeCell ref="J246:J251"/>
-    <mergeCell ref="A276:A281"/>
-    <mergeCell ref="B276:B281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="A282:A287"/>
-    <mergeCell ref="B282:B287"/>
-    <mergeCell ref="C282:C287"/>
-    <mergeCell ref="D282:D287"/>
-    <mergeCell ref="E282:E287"/>
-    <mergeCell ref="F282:F287"/>
-    <mergeCell ref="D268:D275"/>
-    <mergeCell ref="E268:E275"/>
-    <mergeCell ref="F268:F275"/>
-    <mergeCell ref="A252:A275"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="E264:E267"/>
-    <mergeCell ref="F264:F267"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="E276:E281"/>
-    <mergeCell ref="F276:F281"/>
-    <mergeCell ref="F252:F255"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="E256:E259"/>
-    <mergeCell ref="F256:F259"/>
-    <mergeCell ref="B252:B275"/>
-    <mergeCell ref="C252:C275"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="E260:E263"/>
-    <mergeCell ref="F260:F263"/>
-    <mergeCell ref="I260:I263"/>
-    <mergeCell ref="J260:J263"/>
-    <mergeCell ref="I282:I287"/>
-    <mergeCell ref="J282:J287"/>
-    <mergeCell ref="I264:I267"/>
-    <mergeCell ref="J264:J267"/>
-    <mergeCell ref="I268:I275"/>
-    <mergeCell ref="J268:J275"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="J252:J255"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="J256:J259"/>
-    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="C120:C135"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="E120:E125"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="I126:I130"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="D131:D135"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="I131:I135"/>
+    <mergeCell ref="J131:J135"/>
+    <mergeCell ref="A212:A227"/>
+    <mergeCell ref="B212:B227"/>
+    <mergeCell ref="C212:C227"/>
+    <mergeCell ref="D212:D215"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="I212:I215"/>
+    <mergeCell ref="J212:J215"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="I216:I219"/>
+    <mergeCell ref="J216:J219"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="E220:E223"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="I220:I223"/>
+    <mergeCell ref="J220:J223"/>
+    <mergeCell ref="D224:D227"/>
+    <mergeCell ref="E224:E227"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="I224:I227"/>
+    <mergeCell ref="J224:J227"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B136" r:id="rId1" xr:uid="{1CAE6B58-40A2-45C3-A0C2-3E2FF179B7CD}"/>
